--- a/output/licenses_2020.xlsx
+++ b/output/licenses_2020.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24806"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/jan_taubitz_charite_de/Documents/_BIH/BUA-Dashboards/fair-assessment/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E98293383CA9E2682F81A92536D91599BA9C3DB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BD74BE6-885A-4C4F-9EBB-031152325ADE}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_E98293383CA9E2682F81A92536D91599BA9C3DB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3DC2D6A-30EA-4E90-86F2-9D91BBCB2E8C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19060" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="licenses_2020" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1823,7 +1834,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1856,7 +1867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2154,12 +2165,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2193,7 +2207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2210,7 +2224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2227,7 +2241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2244,7 +2258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2261,7 +2275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2278,7 +2292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2295,7 +2309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2312,7 +2326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2329,7 +2343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2346,7 +2360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2363,7 +2377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2380,7 +2394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2397,7 +2411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2414,7 +2428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2431,7 +2445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2448,7 +2462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2465,7 +2479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2482,7 +2496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2499,7 +2513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2516,7 +2530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2533,7 +2547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2550,7 +2564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2567,7 +2581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2584,7 +2598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2601,7 +2615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2618,7 +2632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -2635,7 +2649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2652,7 +2666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2669,7 +2683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2686,7 +2700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2703,7 +2717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2720,7 +2734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2737,7 +2751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2754,7 +2768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2771,7 +2785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2788,7 +2802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2805,7 +2819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -2822,7 +2836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -2839,7 +2853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -2856,7 +2870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -2873,7 +2887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -2890,7 +2904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -2907,7 +2921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -2924,7 +2938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -2941,7 +2955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -2958,7 +2972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -2975,7 +2989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -2992,7 +3006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -3009,7 +3023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -3026,7 +3040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -3043,7 +3057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -3060,7 +3074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -3077,7 +3091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -3094,7 +3108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>124</v>
       </c>
@@ -3111,7 +3125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -3128,7 +3142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -3145,7 +3159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -3162,7 +3176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -3179,7 +3193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -3196,7 +3210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -3213,7 +3227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -3230,7 +3244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -3247,7 +3261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -3264,7 +3278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -3281,7 +3295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -3298,7 +3312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -3315,7 +3329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -3332,7 +3346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -3349,7 +3363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -3366,7 +3380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -3383,7 +3397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>157</v>
       </c>
@@ -3400,7 +3414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>159</v>
       </c>
@@ -3417,7 +3431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -3434,7 +3448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -3451,7 +3465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -3468,7 +3482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -3485,7 +3499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>171</v>
       </c>
@@ -3502,7 +3516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -3519,7 +3533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -3536,7 +3550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -3553,7 +3567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>179</v>
       </c>
@@ -3570,7 +3584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -3587,7 +3601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>184</v>
       </c>
@@ -3604,7 +3618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -3621,7 +3635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>189</v>
       </c>
@@ -3638,7 +3652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>191</v>
       </c>
@@ -3655,7 +3669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>193</v>
       </c>
@@ -3672,7 +3686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>195</v>
       </c>
@@ -3689,7 +3703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>197</v>
       </c>
@@ -3706,7 +3720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>199</v>
       </c>
@@ -3723,7 +3737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -3740,7 +3754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -3757,7 +3771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -3774,7 +3788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -3791,7 +3805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -3808,7 +3822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -3825,7 +3839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>215</v>
       </c>
@@ -3842,7 +3856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -3859,7 +3873,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>135</v>
       </c>
@@ -3876,7 +3890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>221</v>
       </c>
@@ -3893,7 +3907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>224</v>
       </c>
@@ -3910,7 +3924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -3927,7 +3941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -3944,7 +3958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -3961,7 +3975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>231</v>
       </c>
@@ -3978,7 +3992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -3995,7 +4009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -4012,7 +4026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>235</v>
       </c>
@@ -4029,7 +4043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -4046,7 +4060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>241</v>
       </c>
@@ -4063,7 +4077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>243</v>
       </c>
@@ -4080,7 +4094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>245</v>
       </c>
@@ -4097,7 +4111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -4114,7 +4128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>250</v>
       </c>
@@ -4131,7 +4145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>252</v>
       </c>
@@ -4148,7 +4162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>254</v>
       </c>
@@ -4165,7 +4179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>256</v>
       </c>
@@ -4182,7 +4196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>258</v>
       </c>
@@ -4199,7 +4213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>260</v>
       </c>
@@ -4216,7 +4230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>262</v>
       </c>
@@ -4233,7 +4247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>264</v>
       </c>
@@ -4250,7 +4264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>266</v>
       </c>
@@ -4267,7 +4281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>268</v>
       </c>
@@ -4284,7 +4298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>270</v>
       </c>
@@ -4301,7 +4315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>272</v>
       </c>
@@ -4318,7 +4332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>274</v>
       </c>
@@ -4335,7 +4349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>276</v>
       </c>
@@ -4352,7 +4366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>277</v>
       </c>
@@ -4369,7 +4383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>108</v>
       </c>
@@ -4386,7 +4400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>281</v>
       </c>
@@ -4403,7 +4417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>195</v>
       </c>
@@ -4420,7 +4434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>284</v>
       </c>
@@ -4437,7 +4451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>224</v>
       </c>
@@ -4454,7 +4468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>289</v>
       </c>
@@ -4471,7 +4485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>291</v>
       </c>
@@ -4488,7 +4502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>293</v>
       </c>
@@ -4505,7 +4519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>295</v>
       </c>
@@ -4522,7 +4536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>297</v>
       </c>
@@ -4539,7 +4553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>299</v>
       </c>
@@ -4556,7 +4570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>301</v>
       </c>
@@ -4573,7 +4587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>303</v>
       </c>
@@ -4590,7 +4604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>305</v>
       </c>
@@ -4607,7 +4621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>307</v>
       </c>
@@ -4624,7 +4638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>309</v>
       </c>
@@ -4641,7 +4655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>311</v>
       </c>
@@ -4658,7 +4672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>313</v>
       </c>
@@ -4675,7 +4689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>315</v>
       </c>
@@ -4692,7 +4706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>260</v>
       </c>
@@ -4709,7 +4723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>318</v>
       </c>
@@ -4726,7 +4740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>320</v>
       </c>
@@ -4743,7 +4757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>322</v>
       </c>
@@ -4760,7 +4774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>324</v>
       </c>
@@ -4777,7 +4791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>326</v>
       </c>
@@ -4794,7 +4808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>328</v>
       </c>
@@ -4811,7 +4825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>330</v>
       </c>
@@ -4828,7 +4842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>332</v>
       </c>
@@ -4845,7 +4859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -4862,7 +4876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>335</v>
       </c>
@@ -4879,7 +4893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>337</v>
       </c>
@@ -4896,7 +4910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>339</v>
       </c>
@@ -4913,7 +4927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>341</v>
       </c>
@@ -4930,7 +4944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>113</v>
       </c>
@@ -4947,7 +4961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>344</v>
       </c>
@@ -4964,7 +4978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>346</v>
       </c>
@@ -4981,7 +4995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>348</v>
       </c>
@@ -4998,7 +5012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>350</v>
       </c>
@@ -5015,7 +5029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>352</v>
       </c>
@@ -5032,7 +5046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>354</v>
       </c>
@@ -5049,7 +5063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>356</v>
       </c>
@@ -5066,7 +5080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>358</v>
       </c>
@@ -5083,7 +5097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>360</v>
       </c>
@@ -5100,7 +5114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>362</v>
       </c>
@@ -5117,7 +5131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -5134,7 +5148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>365</v>
       </c>
@@ -5151,7 +5165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>367</v>
       </c>
@@ -5168,7 +5182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>369</v>
       </c>
@@ -5185,7 +5199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>371</v>
       </c>
@@ -5202,7 +5216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>373</v>
       </c>
@@ -5219,7 +5233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>375</v>
       </c>
@@ -5236,7 +5250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>377</v>
       </c>
@@ -5253,7 +5267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>379</v>
       </c>
@@ -5270,7 +5284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>380</v>
       </c>
@@ -5287,7 +5301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>382</v>
       </c>
@@ -5304,7 +5318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>384</v>
       </c>
@@ -5321,7 +5335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>386</v>
       </c>
@@ -5338,7 +5352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>388</v>
       </c>
@@ -5355,7 +5369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>390</v>
       </c>
@@ -5372,7 +5386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>392</v>
       </c>
@@ -5389,7 +5403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>394</v>
       </c>
@@ -5406,7 +5420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>396</v>
       </c>
@@ -5423,7 +5437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>398</v>
       </c>
@@ -5440,7 +5454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>400</v>
       </c>
@@ -5457,7 +5471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>402</v>
       </c>
@@ -5474,7 +5488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>404</v>
       </c>
@@ -5491,7 +5505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>406</v>
       </c>
@@ -5508,7 +5522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>408</v>
       </c>
@@ -5525,7 +5539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>410</v>
       </c>
@@ -5542,7 +5556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>412</v>
       </c>
@@ -5559,7 +5573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>272</v>
       </c>
@@ -5576,7 +5590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>414</v>
       </c>
@@ -5593,7 +5607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>416</v>
       </c>
@@ -5610,7 +5624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>418</v>
       </c>
@@ -5627,7 +5641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>420</v>
       </c>
@@ -5644,7 +5658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>422</v>
       </c>
@@ -5661,7 +5675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>424</v>
       </c>
@@ -5678,7 +5692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>426</v>
       </c>
@@ -5695,7 +5709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>428</v>
       </c>
@@ -5712,7 +5726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>430</v>
       </c>
@@ -5729,7 +5743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>432</v>
       </c>
@@ -5746,7 +5760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>434</v>
       </c>
@@ -5763,7 +5777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>436</v>
       </c>
@@ -5780,7 +5794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>438</v>
       </c>
@@ -5797,7 +5811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>440</v>
       </c>
@@ -5814,7 +5828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>442</v>
       </c>
@@ -5831,7 +5845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>444</v>
       </c>
@@ -5848,7 +5862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>446</v>
       </c>
@@ -5865,7 +5879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>448</v>
       </c>
@@ -5882,7 +5896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>450</v>
       </c>
@@ -5899,7 +5913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>452</v>
       </c>
@@ -5916,7 +5930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>454</v>
       </c>
@@ -5933,7 +5947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>456</v>
       </c>
@@ -5950,7 +5964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>124</v>
       </c>
@@ -5967,7 +5981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>461</v>
       </c>
@@ -5984,7 +5998,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>465</v>
       </c>
@@ -6001,7 +6015,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>467</v>
       </c>
@@ -6018,7 +6032,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>469</v>
       </c>
@@ -6035,7 +6049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>472</v>
       </c>
@@ -6052,7 +6066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>475</v>
       </c>
@@ -6069,7 +6083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>201</v>
       </c>
@@ -6086,7 +6100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -6103,7 +6117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>481</v>
       </c>
@@ -6120,7 +6134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>483</v>
       </c>
@@ -6137,7 +6151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>208</v>
       </c>
@@ -6154,7 +6168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>256</v>
       </c>
@@ -6171,7 +6185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>111</v>
       </c>
@@ -6188,7 +6202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>488</v>
       </c>
@@ -6205,7 +6219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>490</v>
       </c>
@@ -6222,7 +6236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>492</v>
       </c>
@@ -6239,7 +6253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>494</v>
       </c>
@@ -6256,7 +6270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>496</v>
       </c>
@@ -6273,7 +6287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>430</v>
       </c>
@@ -6290,7 +6304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>499</v>
       </c>
@@ -6307,7 +6321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>501</v>
       </c>
@@ -6324,7 +6338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>96</v>
       </c>
@@ -6341,7 +6355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>96</v>
       </c>
@@ -6358,7 +6372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>204</v>
       </c>
@@ -6375,7 +6389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>508</v>
       </c>
@@ -6392,7 +6406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>509</v>
       </c>
@@ -6409,7 +6423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>511</v>
       </c>
@@ -6426,7 +6440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>299</v>
       </c>
@@ -6443,7 +6457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>508</v>
       </c>
@@ -6460,7 +6474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>318</v>
       </c>
@@ -6477,7 +6491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>335</v>
       </c>
@@ -6494,7 +6508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>519</v>
       </c>
@@ -6511,7 +6525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>521</v>
       </c>
@@ -6528,7 +6542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>523</v>
       </c>
@@ -6545,7 +6559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>51</v>
       </c>
@@ -6562,7 +6576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>526</v>
       </c>
@@ -6579,7 +6593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>528</v>
       </c>
@@ -6596,7 +6610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>530</v>
       </c>
@@ -6613,7 +6627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>371</v>
       </c>
@@ -6630,7 +6644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>115</v>
       </c>
@@ -6647,7 +6661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>534</v>
       </c>
@@ -6664,7 +6678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>536</v>
       </c>
@@ -6681,7 +6695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>422</v>
       </c>
@@ -6698,7 +6712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>539</v>
       </c>
@@ -6715,7 +6729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>541</v>
       </c>
@@ -6732,7 +6746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>543</v>
       </c>
@@ -6749,7 +6763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>546</v>
       </c>
@@ -6766,7 +6780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>204</v>
       </c>
@@ -6783,7 +6797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>549</v>
       </c>
@@ -6800,7 +6814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>252</v>
       </c>
@@ -6817,7 +6831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>262</v>
       </c>
@@ -6834,7 +6848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>554</v>
       </c>
@@ -6851,7 +6865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>508</v>
       </c>
@@ -6868,7 +6882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>556</v>
       </c>
@@ -6885,7 +6899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>558</v>
       </c>
@@ -6902,7 +6916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>560</v>
       </c>
@@ -6919,7 +6933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>562</v>
       </c>
@@ -6936,7 +6950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>564</v>
       </c>
@@ -6953,7 +6967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>566</v>
       </c>
@@ -6970,7 +6984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>567</v>
       </c>
@@ -6987,7 +7001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>569</v>
       </c>
@@ -7004,7 +7018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>571</v>
       </c>
@@ -7021,7 +7035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>367</v>
       </c>
@@ -7038,7 +7052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>574</v>
       </c>
@@ -7055,7 +7069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>576</v>
       </c>
@@ -7072,7 +7086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>578</v>
       </c>
@@ -7089,7 +7103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>224</v>
       </c>
@@ -7106,7 +7120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>281</v>
       </c>
@@ -7123,7 +7137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -7140,7 +7154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -7157,7 +7171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>587</v>
       </c>
@@ -7174,7 +7188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>589</v>
       </c>
@@ -7191,7 +7205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>111</v>
       </c>
@@ -7208,7 +7222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>238</v>
       </c>
@@ -7225,7 +7239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>241</v>
       </c>
@@ -7242,7 +7256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>594</v>
       </c>
@@ -7259,7 +7273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>596</v>
       </c>
@@ -7276,7 +7290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>245</v>
       </c>

--- a/output/licenses_2020.xlsx
+++ b/output/licenses_2020.xlsx
@@ -1,1839 +1,1824 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24806"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/jan_taubitz_charite_de/Documents/_BIH/BUA-Dashboards/fair-assessment/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_E98293383CA9E2682F81A92536D91599BA9C3DB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3DC2D6A-30EA-4E90-86F2-9D91BBCB2E8C}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19060" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="licenses_2020" sheetId="1" r:id="rId1"/>
+    <sheet name="licenses_2020" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="599">
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>best_identifier</t>
-  </si>
-  <si>
-    <t>repository</t>
-  </si>
-  <si>
-    <t>repository_type</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>10.1136/bmjopen-2019-032864</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.4tmpg4f5f</t>
-  </si>
-  <si>
-    <t>dryad</t>
-  </si>
-  <si>
-    <t>general-purpose repository</t>
-  </si>
-  <si>
-    <t>cc0</t>
-  </si>
-  <si>
-    <t>10.7554/elife.51156</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.gt160v2</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0229661</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/measuring_childhood_maltreatment_psychometric_properties_of_the_norwegian_version_of_the_maltreatment_and_abuse_chronology_of_exposure_mace_scale/11910426</t>
-  </si>
-  <si>
-    <t>figshare</t>
-  </si>
-  <si>
-    <t>no license</t>
-  </si>
-  <si>
-    <t>10.1186/s13073-020-00771-0</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12845697.v1</t>
-  </si>
-  <si>
-    <t>cc-by</t>
-  </si>
-  <si>
-    <t>10.1186/s12917-020-02606-x</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12830405.v1</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0237944</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/complete_data_set_of_questionnaires_/12836445</t>
-  </si>
-  <si>
-    <t>10.1186/s12866-020-01741-7</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12127476.v1</t>
-  </si>
-  <si>
-    <t>10.1186/s13293-020-00313-8</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12617808.v1</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0229260</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/virus-associated_anterior_uveitis_and_secondary_glaucoma_diagnostics_clinical_characteristics_and_surgical_options/11893245</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0243711</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/s1_file_-/13362405</t>
-  </si>
-  <si>
-    <t>10.1186/s12916-019-1478-3</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.11665131.v1</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pmed.1003074</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/association_of_suicidal_behavior_with_exposure_to_suicide_and_suicide_attempt_a_systematic_review_and_multilevel_meta-analysis/12054234?file=22151703</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0226443</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/attitudes_towards_animal_study_registries_and_their_characteristics_an_online_survey_of_three_cohorts_of_animal_researchers/11528676?file=20702688</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0228538</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/_wonderful_we_ve_just_missed_the_bus__parental_use_of_irony_and_children_s_irony_comprehension/11884272</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0228736</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/prognostic_value_of_the_myocardial_salvage_index_measured_by_t2-weighted_and_t1-weighted_late_gadolinium_enhancement_magnetic_resonance_imaging_after_st-segment_elevation_myocardial_infarction_a_systematic_review_and_meta-regression_analysi/11851431?file=21722040</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0241480</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/s1_dataset_-/13177655</t>
-  </si>
-  <si>
-    <t>10.1186/s12885-020-07062-2</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12607277.v1</t>
-  </si>
-  <si>
-    <t>10.1038/s41597-020-00597-w</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.c.4869732</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.108470</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.13154321.v1</t>
-  </si>
-  <si>
-    <t>10.1021/acs.analchem.0c00136</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/concepts_and_software_package_for_efficient_quality_control_in_targeted_metabolomics_studies_metaquac/12668465?backto=/collections/concepts_and_software_package_for_efficient_quality_control_in_targeted_metabolomics_studies_metaquac/5066000</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-019-13984-8</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.11117669</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-18084-6</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12678938</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-18826-6</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12770366</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-60755-3</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.9585410</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-78722-3</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12901682</t>
-  </si>
-  <si>
-    <t>10.1098/rspb.2019.2228</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.c.4795809</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0231299</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/yoga_in_school_sports_improves_functioning_of_autonomic_nervous_system_in_young_adults_a_non-randomized_controlled_pilot_study/12120105</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0236426</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.11807658.v1</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0239210</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/anonymized_data_of_the_patients_/13051631</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0239853</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12967106.v1</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0242197</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/s1_file_-/13249124</t>
-  </si>
-  <si>
-    <t>10.7554/elife.48401</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.8312807</t>
-  </si>
-  <si>
-    <t>10.1523/jneurosci.2189-17.2017</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.5726845.v1</t>
-  </si>
-  <si>
-    <t>10.1098/rsif.2018.0220</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.7110836.v1</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0235716</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/minimal_data_set_spss_file_with_age_mpap_diameter_of_the_aorta_diamao_and_the_pulmonary_artery_diampa_and_pa_a_pa_to_ao_/12615088</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0211001</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/trauma_induced_acute_kidney_injury/7632995</t>
-  </si>
-  <si>
-    <t>10.1158/1078-0432.ccr-19-1954</t>
-  </si>
-  <si>
-    <t>https://github.com/tkarn/g5-rna-seq/blob/master/signature_genelist.xlsx</t>
-  </si>
-  <si>
-    <t>github</t>
-  </si>
-  <si>
-    <t>10.1111/febs.15608</t>
-  </si>
-  <si>
-    <t>https://github.com/scitedotai/research-wikipedia/tree/master/data</t>
-  </si>
-  <si>
-    <t>10.1021/acs.jcim.0c00815</t>
-  </si>
-  <si>
-    <t>https://github.com/choderalab/selectivity/tree/master/fep/fep_maps</t>
-  </si>
-  <si>
-    <t>10.3389/fneur.2020.00381</t>
-  </si>
-  <si>
-    <t>https://github.com/ahmedaak/bd_scan-shortening</t>
-  </si>
-  <si>
-    <t>10.1002/mrm.28307</t>
-  </si>
-  <si>
-    <t>https://github.com/pramosdelgado/b1correction-toolkit</t>
-  </si>
-  <si>
-    <t>10.1021/acs.jcim.0c00839</t>
-  </si>
-  <si>
-    <t>https://github.com/volkamerlab/kinfraglib/tree/master/data</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2314-9</t>
-  </si>
-  <si>
-    <t>https://github.com/poldrack/narps/tree/master/imageanalyses</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gkaa1198</t>
-  </si>
-  <si>
-    <t>https://github.com/juzb/casanova-c3/tree/master/output/cn-c3</t>
-  </si>
-  <si>
-    <t>10.3389/fcvm.2020.599923</t>
-  </si>
-  <si>
-    <t>https://github.com/lorfas74/random-shuffle</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-19449-7</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.7910/dvn/ll3c1r</t>
-  </si>
-  <si>
-    <t>harvard dataverse</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-019-56416-9</t>
-  </si>
-  <si>
-    <t>https://data.mendeley.com/datasets/sj5cms7fky/1</t>
-  </si>
-  <si>
-    <t>mendeley data</t>
-  </si>
-  <si>
-    <t>10.1016/j.cell.2020.08.001</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17632/hwxhw2sxys.1</t>
-  </si>
-  <si>
-    <t>cc-by-nc</t>
-  </si>
-  <si>
-    <t>10.1016/j.cell.2020.09.049</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17632/f6tb3csgjt.1</t>
-  </si>
-  <si>
-    <t>10.1016/j.isci.2020.101539</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17632/25cnynmzx6.1</t>
-  </si>
-  <si>
-    <t>10.1038/s41597-020-0487-6</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17632/nr7cs764rc.1</t>
-  </si>
-  <si>
-    <t>10.1093/braincomms/fcaa021</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17632/nrj467zmj2.1</t>
-  </si>
-  <si>
-    <t>10.1186/s13104-020-05248-2</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17632/9dkwv5w9b3.1</t>
-  </si>
-  <si>
-    <t>10.1111/medu.14057</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/osf.io/uhjad</t>
-  </si>
-  <si>
-    <t>osf</t>
-  </si>
-  <si>
-    <t>10.1093/gigascience/giaa052</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/osf.io/m8e6z</t>
-  </si>
-  <si>
-    <t>10.1016/j.jclinepi.2020.09.022</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/osf.io/ptjbn</t>
-  </si>
-  <si>
-    <t>10.1152/jn.00164.2020</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/osf.io/ecma4</t>
-  </si>
-  <si>
-    <t>10.3389/fnbeh.2020.00088</t>
-  </si>
-  <si>
-    <t>https://osf.io/n85sh/</t>
-  </si>
-  <si>
-    <t>https://osf.io/dv85n/</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0226843</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/osf.io/xsbhw</t>
-  </si>
-  <si>
-    <t>10.1098/rsos.190806</t>
-  </si>
-  <si>
-    <t>https://osf.io/3d5um/</t>
-  </si>
-  <si>
-    <t>10.1523/eneuro.0537-19.2020</t>
-  </si>
-  <si>
-    <t>https://osf.io/3x95n/</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0226893</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr6847218</t>
-  </si>
-  <si>
-    <t>10.1525/collabra.267</t>
-  </si>
-  <si>
-    <t>https://osf.io/48fhe</t>
-  </si>
-  <si>
-    <t>10.1001/jamanetworkopen.2020.32335</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/osf.io/w6df5</t>
-  </si>
-  <si>
-    <t>10.1007/s11948-020-00234-0</t>
-  </si>
-  <si>
-    <t>https://osf.io/cq3s9/</t>
-  </si>
-  <si>
-    <t>10.1111/jne.12923</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.17605/osf.io/uxnc5</t>
-  </si>
-  <si>
-    <t>10.1136/bmjopen-2019-034666</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/osf.io/8xz29</t>
-  </si>
-  <si>
-    <t>10.12688/f1000research.26707.2</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/osf.io/gpmna</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0232666</t>
-  </si>
-  <si>
-    <t>https://osf.io/qp5cm/</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0233608</t>
-  </si>
-  <si>
-    <t>https://osf.io/turzf</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0237093</t>
-  </si>
-  <si>
-    <t>https://osf.io/6frp5/</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0239598</t>
-  </si>
-  <si>
-    <t>https://osf.io/a43ut/</t>
-  </si>
-  <si>
-    <t>10.3389/fpsyg.2020.02021</t>
-  </si>
-  <si>
-    <t>https://osf.io/h564u/</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.03.078</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25534/tudatalib-158</t>
-  </si>
-  <si>
-    <t>tu datalib</t>
-  </si>
-  <si>
-    <t>10.1186/s40635-019-0284-8</t>
-  </si>
-  <si>
-    <t>https://www.zenodo.org/record/3378028</t>
-  </si>
-  <si>
-    <t>zenodo</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0227955</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.9999/journal.pone.0201548</t>
-  </si>
-  <si>
-    <t>10.1186/s40658-020-0270-y</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.3373973</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pbio.3000792</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.3876533</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0227178</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.3601477</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0231302</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.3737549</t>
-  </si>
-  <si>
-    <t>10.3390/cancers12113138</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.5281/zenodo.4009499</t>
-  </si>
-  <si>
-    <t>https://www.addgene.org/137191/</t>
-  </si>
-  <si>
-    <t>addgene</t>
-  </si>
-  <si>
-    <t>field-specific repository</t>
-  </si>
-  <si>
-    <t>10.1038/s42003-020-01167-x</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/e-mtab-8508/</t>
-  </si>
-  <si>
-    <t>array-express</t>
-  </si>
-  <si>
-    <t>10.1002/ijc.33456</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/e-mtab-7680/</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-14466-y</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/e-mtab-3013/</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-20222-z</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/e-mtab-8152/</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-019-57076-5</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/e-mtab-6713/</t>
-  </si>
-  <si>
-    <t>10.1158/2159-8290.cd-19-1030</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/e-mtab-7802/</t>
-  </si>
-  <si>
-    <t>10.3389/fimmu.2020.586124</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/e-mtab-9642/</t>
-  </si>
-  <si>
-    <t>10.3389/fonc.2020.00747</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/e-mtab-6316/</t>
-  </si>
-  <si>
-    <t>10.1128/mra.00797-20</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr12181074</t>
-  </si>
-  <si>
-    <t>bioproject</t>
-  </si>
-  <si>
-    <t>10.1158/0008-5472.can-20-1998</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr7829659</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-19452-y</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr11467537</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2294-9</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr11426414</t>
-  </si>
-  <si>
-    <t>10.1038/s41591-020-0801-z</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr10484371</t>
-  </si>
-  <si>
-    <t>10.1200/jco.20.01164</t>
-  </si>
-  <si>
-    <t>https://clinicaltrials.gov/ct2/show/nct01849874</t>
-  </si>
-  <si>
-    <t>clinicaltrials.gov</t>
-  </si>
-  <si>
-    <t>10.1186/s12859-020-03741-w</t>
-  </si>
-  <si>
-    <t>https://codeocean.com/capsule/9813295/tree/v2</t>
-  </si>
-  <si>
-    <t>codeocean</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.24433/co.1724316.v1</t>
-  </si>
-  <si>
-    <t>other license</t>
-  </si>
-  <si>
-    <t>https://codeocean.com/capsule/6259283/tree/v4</t>
-  </si>
-  <si>
-    <t>10.1016/j.cell.2020.10.036</t>
-  </si>
-  <si>
-    <t>https://cptac-data-portal.georgetown.edu/study-summary/s060</t>
-  </si>
-  <si>
-    <t>cptac data portal</t>
-  </si>
-  <si>
-    <t>10.1038/s41588-019-0564-y</t>
-  </si>
-  <si>
-    <t>https://dcc.icgc.org/releases/pcawg</t>
-  </si>
-  <si>
-    <t>dcc</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-019-13983-9</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-019-13929-1</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-17359-2</t>
-  </si>
-  <si>
-    <t>https://dcc.icgc.org/releases/pcawg/consensus_snv_indel</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-019-13824-9</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-14367-0</t>
-  </si>
-  <si>
-    <t>https://dcc.icgc.org/releases/pcawg/networks</t>
-  </si>
-  <si>
-    <t>10.1038/s41588-019-0576-7</t>
-  </si>
-  <si>
-    <t>10.1016/j.ajhg.2020.04.016</t>
-  </si>
-  <si>
-    <t>https://www.deciphergenomics.org/patient/412419/overview/general</t>
-  </si>
-  <si>
-    <t>decipher</t>
-  </si>
-  <si>
-    <t>10.1371/journal.ppat.1008263</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pdbe/entry/emdb/emd-10045</t>
-  </si>
-  <si>
-    <t>emdb</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.108157</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/emdb/emd-0270</t>
-  </si>
-  <si>
-    <t>10.1073/pnas.2004563117</t>
-  </si>
-  <si>
-    <t>http://doi.org/doi:10.1073/pnas.2004563117</t>
-  </si>
-  <si>
-    <t>10.1126/science.abd1673</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/emdb/emd-11087</t>
-  </si>
-  <si>
-    <t>10.3389/fcimb.2020.00167</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb35812</t>
-  </si>
-  <si>
-    <t>ena</t>
-  </si>
-  <si>
-    <t>10.1053/j.gastro.2020.03.017</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb20400</t>
-  </si>
-  <si>
-    <t>10.1038/s41556-020-0488-x</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/ls482294</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-19589-w</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb37249</t>
-  </si>
-  <si>
-    <t>10.1128/msphere.00598-20</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjna657829</t>
-  </si>
-  <si>
-    <t>10.1093/jac/dkaa271</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb28593</t>
-  </si>
-  <si>
-    <t>10.1186/s13072-020-00345-9</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb27665?show=reads</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2269-x</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb37249?show=reads</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2797-4</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb39602?show=reads</t>
-  </si>
-  <si>
-    <t>10.1111/all.14322</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb37836?show=reads</t>
-  </si>
-  <si>
-    <t>10.1126/sciadv.abb4565</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb34111?show=reads</t>
-  </si>
-  <si>
-    <t>10.1126/science.aba9411</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb36265</t>
-  </si>
-  <si>
-    <t>10.1136/gutjnl-2018-317856</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/data/view/prjeb34637</t>
-  </si>
-  <si>
-    <t>10.1186/s13756-020-0696-y</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb36565</t>
-  </si>
-  <si>
-    <t>10.1242/bio.044222</t>
-  </si>
-  <si>
-    <t>10.7554/elife.51243</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/data/view/prjeb2600</t>
-  </si>
-  <si>
-    <t>https://ega-archive.org/datasets/egad00001006550/files</t>
-  </si>
-  <si>
-    <t>european genome-phenome archive</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-14351-8</t>
-  </si>
-  <si>
-    <t>https://ega-archive.org/datasets/egad00001001343/files</t>
-  </si>
-  <si>
-    <t>https://ega-archive.org/datasets/egad00001005247/files</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2598-9</t>
-  </si>
-  <si>
-    <t>http://flowrepository.org/id/fr-fcm-z2k3</t>
-  </si>
-  <si>
-    <t>flowrepository</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse116694</t>
-  </si>
-  <si>
-    <t>geo</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.108184</t>
-  </si>
-  <si>
-    <t>http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse149371</t>
-  </si>
-  <si>
-    <t>10.1111/nan.12655</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse127255</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-58668-2</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse107998</t>
-  </si>
-  <si>
-    <t>10.7554/elife.52549</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse143867</t>
-  </si>
-  <si>
-    <t>10.3324/haematol.2019.235291</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse98946</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-019-13960-2</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse128837</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gkaa1089</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse147270</t>
-  </si>
-  <si>
-    <t>10.1111/ajt.16161</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse124203</t>
-  </si>
-  <si>
-    <t>10.3390/cells9010186</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse138532</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-019-57108-0</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse94916</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.01.044</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse107937</t>
-  </si>
-  <si>
-    <t>10.1126/science.aaz2582</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse120589</t>
-  </si>
-  <si>
-    <t>10.1038/s41375-020-0839-4</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse146173</t>
-  </si>
-  <si>
-    <t>10.1002/1878-0261.12835</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse119423</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse136264</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.108533</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse160524</t>
-  </si>
-  <si>
-    <t>10.1158/2159-8290.cd-20-1202</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse134092</t>
-  </si>
-  <si>
-    <t>10.1038/s41596-020-0333-5</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse142696</t>
-  </si>
-  <si>
-    <t>10.1172/jci138760</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse151285</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-019-56994-8</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse124719</t>
-  </si>
-  <si>
-    <t>10.1002/eji.202048797</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse160097</t>
-  </si>
-  <si>
-    <t>10.1007/s00401-020-02250-7</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse70678</t>
-  </si>
-  <si>
-    <t>10.1016/j.cell.2020.07.038</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse129978</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse147259</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.107652</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse134131</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.107982</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse107206</t>
-  </si>
-  <si>
-    <t>10.1016/j.cels.2020.10.001</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse134869</t>
-  </si>
-  <si>
-    <t>10.1016/j.ebiom.2020.102970</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse148720</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse143930</t>
-  </si>
-  <si>
-    <t>10.1016/j.stem.2020.07.018</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse144273</t>
-  </si>
-  <si>
-    <t>10.1038/s41388-020-1198-3</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse121362</t>
-  </si>
-  <si>
-    <t>10.1038/s41416-020-0751-8</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse122399</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-14700-7</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse89461</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-14777-0</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse124425</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-16009-x</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse77534</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-16244-2</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse120576</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-16464-6</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse140133</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-17467-z</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse134753</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-19002-6</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse115103</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse148394</t>
-  </si>
-  <si>
-    <t>10.1038/s41541-020-0177-6</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse144542</t>
-  </si>
-  <si>
-    <t>10.1038/s41556-020-0529-5</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse144397</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2882-8</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse125521</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2968-3</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse123417</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-3018-x</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse158731</t>
-  </si>
-  <si>
-    <t>10.1038/s41587-020-0469-4</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gsm3911434</t>
-  </si>
-  <si>
-    <t>10.1038/s41590-020-0707-4</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse148405</t>
-  </si>
-  <si>
-    <t>10.1038/s41592-020-0965-y</t>
-  </si>
-  <si>
-    <t>10.1038/s41596-019-0251-6</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse109381</t>
-  </si>
-  <si>
-    <t>10.1038/s41596-020-0369-6</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse88826</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-64431-4</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse55235</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-67872-z</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse111230</t>
-  </si>
-  <si>
-    <t>10.1073/pnas.1920393117</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse101409</t>
-  </si>
-  <si>
-    <t>10.1073/pnas.2002481117</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse150753</t>
-  </si>
-  <si>
-    <t>10.1073/pnas.2008883117</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse123593</t>
-  </si>
-  <si>
-    <t>10.1073/pnas.2013542117</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse158312</t>
-  </si>
-  <si>
-    <t>10.1084/jem.20190133</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse143522</t>
-  </si>
-  <si>
-    <t>10.1084/jem.20191933</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse129262</t>
-  </si>
-  <si>
-    <t>10.1084/jem.20200137</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse141876</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gkz1238</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse131255</t>
-  </si>
-  <si>
-    <t>10.1093/nargab/lqaa036</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse145530</t>
-  </si>
-  <si>
-    <t>10.1126/science.aax5863</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse129636</t>
-  </si>
-  <si>
-    <t>10.1126/science.aaz5875</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse137515</t>
-  </si>
-  <si>
-    <t>10.1126/science.aba4937</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse141175</t>
-  </si>
-  <si>
-    <t>10.1128/mbio.01911-20</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse100656</t>
-  </si>
-  <si>
-    <t>10.1136/gutjnl-2020-321016</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse73338</t>
-  </si>
-  <si>
-    <t>10.1158/0008-5472.can-19-1493</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse126033</t>
-  </si>
-  <si>
-    <t>10.1158/1055-9965.epi-20-0739</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse155328</t>
-  </si>
-  <si>
-    <t>10.1161/circulationaha.119.042863</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse149070</t>
-  </si>
-  <si>
-    <t>10.1161/circulationaha.119.044794</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse145350</t>
-  </si>
-  <si>
-    <t>10.1164/rccm.201910-2063oc</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse137421</t>
-  </si>
-  <si>
-    <t>10.1172/jci137786</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse148669</t>
-  </si>
-  <si>
-    <t>10.1182/blood.2020005244</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse141454</t>
-  </si>
-  <si>
-    <t>10.1186/s13041-020-00685-3</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse88723</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pbio.3000722</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse136662</t>
-  </si>
-  <si>
-    <t>10.1371/journal.ppat.1008461</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse100928</t>
-  </si>
-  <si>
-    <t>10.18632/oncotarget.27636</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse133014</t>
-  </si>
-  <si>
-    <t>10.18632/oncotarget.27763</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse84713</t>
-  </si>
-  <si>
-    <t>10.26508/lsa.201900601</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse147642</t>
-  </si>
-  <si>
-    <t>10.3389/fneur.2020.573560</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse61405</t>
-  </si>
-  <si>
-    <t>10.3389/fonc.2020.00599</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse70458</t>
-  </si>
-  <si>
-    <t>10.3390/ijms21020373</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse141217</t>
-  </si>
-  <si>
-    <t>10.3390/ijms21217944</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse143796</t>
-  </si>
-  <si>
-    <t>10.3390/ijms21238898</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse161585</t>
-  </si>
-  <si>
-    <t>10.7554/elife.58659</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse144682</t>
-  </si>
-  <si>
-    <t>10.1038/s41591-020-0908-2</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse145594</t>
-  </si>
-  <si>
-    <t>10.1016/s0140-6736(20)30750-9</t>
-  </si>
-  <si>
-    <t>http://ghdx.healthdata.org/gbd-2019</t>
-  </si>
-  <si>
-    <t>ghdx</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.5524/100743</t>
-  </si>
-  <si>
-    <t>gigadb</t>
-  </si>
-  <si>
-    <t>10.1152/jn.00615.2019</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.12751/g-node.6953bb</t>
-  </si>
-  <si>
-    <t>gin</t>
-  </si>
-  <si>
-    <t>cc-by-nc-sa</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0244148</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.12751/g-node.mb83iq</t>
-  </si>
-  <si>
-    <t>10.1242/jeb.206342</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.12751/g-node.87584d</t>
-  </si>
-  <si>
-    <t>10.1038/s41592-020-0884-y</t>
-  </si>
-  <si>
-    <t>https://submission.gpcrmd.org/home/</t>
-  </si>
-  <si>
-    <t>gpcrmd</t>
-  </si>
-  <si>
-    <t>10.1074/jbc.ra120.014890</t>
-  </si>
-  <si>
-    <t>https://massive.ucsd.edu/proteosafe/dataset_files.jsp?task=e50e8f39be94497db47a71a45a3becaf#%7b%22table_sort_history%22%3a%22main.collection_asc%22%7d</t>
-  </si>
-  <si>
-    <t>massive</t>
-  </si>
-  <si>
-    <t>10.26508/lsa.202000700</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/metabolights/mtbls186/files</t>
-  </si>
-  <si>
-    <t>metabolights</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/jaccff010000001.1?report=fasta</t>
-  </si>
-  <si>
-    <t>ncbi nucleotide</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mt711466.1</t>
-  </si>
-  <si>
-    <t>10.1093/ve/veaa033</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mh844500</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.01.070</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mn900952?report=genbank</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mt108784</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mt270825</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mw002770</t>
-  </si>
-  <si>
-    <t>10.1073/pnas.2006750117</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mk598003</t>
-  </si>
-  <si>
-    <t>10.1093/brain/awaa346</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/nc_000005.10?report=graph&amp;mk=114404655|nc_000005.10\:g.114404655_114404658del|green</t>
-  </si>
-  <si>
-    <t>10.1038/s41437-020-0331-y</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mt136926</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-17060-4</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mn175570</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-64159-1</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mg963186</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mn037882</t>
-  </si>
-  <si>
-    <t>10.3201/eid2612.200708</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mt123530</t>
-  </si>
-  <si>
-    <t>10.1186/s42522-020-00018-3</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/mn714358</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.18112/openneuro.ds001734.v1.0.4</t>
-  </si>
-  <si>
-    <t>openneuro</t>
-  </si>
-  <si>
-    <t>https://openneuro.org/datasets/ds001734/versions/1.0.4</t>
-  </si>
-  <si>
-    <t>http://www.peptideatlas.org/pass/pass01250</t>
-  </si>
-  <si>
-    <t>peptideatlas</t>
-  </si>
-  <si>
-    <t>10.1158/0008-5472.can-20-0754</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-71899-7</t>
-  </si>
-  <si>
-    <t>http://www.peptideatlas.org/pass/pass01606</t>
-  </si>
-  <si>
-    <t>10.1038/s41597-020-0495-6</t>
-  </si>
-  <si>
-    <t>https://physionet.org/content/ptb-xl/1.0.1/</t>
-  </si>
-  <si>
-    <t>physionet</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd013167</t>
-  </si>
-  <si>
-    <t>pride</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd019123</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd020612</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd010370</t>
-  </si>
-  <si>
-    <t>10.1016/j.cels.2020.05.012</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd018874</t>
-  </si>
-  <si>
-    <t>10.1021/acs.jproteome.9b00714</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd014913</t>
-  </si>
-  <si>
-    <t>10.1038/s41389-020-0201-8</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd012523</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd016341</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-15743-6</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd011129</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-16929-8</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd017341</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-18542-1</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd016334</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd006921</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd016782</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gkaa681</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd011887</t>
-  </si>
-  <si>
-    <t>10.1126/sciadv.aay1109</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd013259</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd017530</t>
-  </si>
-  <si>
-    <t>10.1172/jci.insight.123862</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd009944</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.108235</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd021351</t>
-  </si>
-  <si>
-    <t>10.3389/fimmu.2020.00179</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.18430/m33czf</t>
-  </si>
-  <si>
-    <t>proteindiffraction</t>
-  </si>
-  <si>
-    <t>10.1021/acs.analchem.0c01273</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd019926</t>
-  </si>
-  <si>
-    <t>proteomexchange</t>
-  </si>
-  <si>
-    <t>10.4049/immunohorizons.2000006</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd016211</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/pxd010084</t>
-  </si>
-  <si>
-    <t>http://raeslab.org/software/bmis/</t>
-  </si>
-  <si>
-    <t>raeslab</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-65744-0</t>
-  </si>
-  <si>
-    <t>sra</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.108117</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr10341086</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-14782-3</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/bioproject/?term=prjna437582</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pgen.1008651</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr8454256</t>
-  </si>
-  <si>
-    <t>10.1053/j.gastro.2020.07.005</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr13762768</t>
-  </si>
-  <si>
-    <t>10.1084/jem.20200275</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr11462381</t>
-  </si>
-  <si>
-    <t>10.1111/jgh.15071</t>
-  </si>
-  <si>
-    <t>10.1002/eji.201948474</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr11104128</t>
-  </si>
-  <si>
-    <t>10.1016/j.ebiom.2020.103009</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr12567985</t>
-  </si>
-  <si>
-    <t>10.1016/j.jaci.2020.04.059</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr5010537</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr6870406</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-67843-4</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=err3132486</t>
-  </si>
-  <si>
-    <t>10.1534/g3.120.401537</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr11793881</t>
-  </si>
-  <si>
-    <t>10.3389/fmicb.2020.556793</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/traces/sra/?run=srr10048296</t>
-  </si>
-  <si>
-    <t>https://www.synapse.org/#!synapse:syn7596712</t>
-  </si>
-  <si>
-    <t>synapse</t>
-  </si>
-  <si>
-    <t>10.1038/s41588-019-0562-0</t>
-  </si>
-  <si>
-    <t>https://www.synapse.org/#!synapse:syn21052009</t>
-  </si>
-  <si>
-    <t>10.1126/science.abb3405</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6y2e/pdb</t>
-  </si>
-  <si>
-    <t>wwpdb</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-15614-0</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.2210/pdb6tga/pdb</t>
-  </si>
-  <si>
-    <t>10.1021/acs.biochem.0c00053</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6g1y/pdb</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6xkq/pdb</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6rwk/pdb</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6htq/pdb</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-19321-8</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.2210/pdb6yga/pdb</t>
-  </si>
-  <si>
-    <t>10.1083/jcb.201902059</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6q9m/pdb</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6z9p/pdb</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
+  <si>
+    <t xml:space="preserve">article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best_identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repository_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136/bmjopen-2019-032864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.4tmpg4f5f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dryad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general-purpose repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7554/elife.51156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.gt160v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0229661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Measuring_childhood_maltreatment_Psychometric_properties_of_the_Norwegian_version_of_the_Maltreatment_and_Abuse_Chronology_of_Exposure_MACE_scale/11910426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figshare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s13073-020-00771-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12845697.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC-BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s12917-020-02606-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12830405.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0237944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Complete_data_set_of_questionnaires_/12836445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s12866-020-01741-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12127476.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s13293-020-00313-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12617808.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0229260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Virus-associated_anterior_uveitis_and_secondary_glaucoma_Diagnostics_clinical_characteristics_and_surgical_options/11893245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0243711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/S1_File_-/13362405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s12916-019-1478-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.11665131.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pmed.1003074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Association_of_suicidal_behavior_with_exposure_to_suicide_and_suicide_attempt_A_systematic_review_and_multilevel_meta-analysis/12054234?file=22151703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0226443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Attitudes_towards_animal_study_registries_and_their_characteristics_An_online_survey_of_three_cohorts_of_animal_researchers/11528676?file=20702688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0228538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/_Wonderful_We_ve_just_missed_the_bus__Parental_use_of_irony_and_children_s_irony_comprehension/11884272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0228736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Prognostic_value_of_the_myocardial_salvage_index_measured_by_T2-weighted_and_T1-weighted_late_gadolinium_enhancement_magnetic_resonance_imaging_after_ST-segment_elevation_myocardial_infarction_A_systematic_review_and_meta-regression_analysi/11851431?file=21722040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0241480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/S1_Dataset_-/13177655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s12885-020-07062-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12607277.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41597-020-00597-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.c.4869732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.108470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.13154321.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acs.analchem.0c00136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/12668465?backTo=/collections/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/5066000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-019-13984-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.11117669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-18084-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12678938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-18826-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12770366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-60755-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.9585410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-78722-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12901682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1098/rspb.2019.2228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.c.4795809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0231299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Yoga_in_school_sports_improves_functioning_of_autonomic_nervous_system_in_young_adults_A_non-randomized_controlled_pilot_study/12120105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0236426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.11807658.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0239210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Anonymized_data_of_the_patients_/13051631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0239853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12967106.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0242197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/S1_File_-/13249124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7554/elife.48401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.8312807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1523/jneurosci.2189-17.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.5726845.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1098/rsif.2018.0220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.7110836.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0235716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Minimal_data_set_SPSS_file_with_age_mPAP_diameter_of_the_aorta_diamAo_and_the_pulmonary_artery_diamPA_and_PA_A_PA_to_Ao_/12615088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0211001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Trauma_induced_acute_kidney_injury/7632995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/1078-0432.ccr-19-1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/tkarn/G5-RNA-Seq/blob/master/Signature_GeneList.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/febs.15608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/scitedotai/research-wikipedia/tree/master/Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acs.jcim.0c00815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/choderalab/selectivity/tree/master/fep/fep_maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fneur.2020.00381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ahmedaak/BD_scan-shortening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/mrm.28307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/pramosdelgado/B1correction-toolkit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acs.jcim.0c00839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/volkamerlab/KinFragLib/tree/master/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2314-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/poldrack/narps/tree/master/ImageAnalyses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gkaa1198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/juzb/CASANOVA-C3/tree/master/output/CN-C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fcvm.2020.599923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/lorfas74/random-shuffle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-19449-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.7910/DVN/LL3C1R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harvard dataverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-019-56416-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://data.mendeley.com/datasets/sj5cms7fky/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mendeley data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cell.2020.08.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17632/hwxhw2sxys.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC-BY-NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cell.2020.09.049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17632/f6tb3csgjt.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.isci.2020.101539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17632/25cnynmzx6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41597-020-0487-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17632/nr7cs764rc.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/braincomms/fcaa021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17632/nrj467zmj2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s13104-020-05248-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17632/9dkwv5w9b3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/medu.14057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/UHJAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">osf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/gigascience/giaa052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/M8E6Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.jclinepi.2020.09.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/PTJBN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1152/jn.00164.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/ECMA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fnbeh.2020.00088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/n85sh/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/dv85n/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0226843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/XSBHW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1098/rsos.190806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/3d5um/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1523/eneuro.0537-19.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/3x95n/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0226893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6847218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1525/collabra.267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/48fhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1001/jamanetworkopen.2020.32335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/W6DF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1007/s11948-020-00234-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/cq3s9/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/jne.12923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.17605/OSF.IO/UXNC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136/bmjopen-2019-034666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/8XZ29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.12688/f1000research.26707.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/GPMNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/qp5cm/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0233608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/turzf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0237093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/6frp5/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0239598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/a43ut/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fpsyg.2020.02021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/h564u/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.03.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.25534/tudatalib-158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tu datalib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s40635-019-0284-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zenodo.org/record/3378028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zenodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0227955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.9999/journal.pone.0201548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s40658-020-0270-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3373973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pbio.3000792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3876533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0227178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3601477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0231302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/cancers12113138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.5281/zenodo.4009499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.addgene.org/137191/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addgene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-specific repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s42003-020-01167-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8508/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array-express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/ijc.33456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7680/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-14466-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-3013/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-20222-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8152/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-019-57076-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6713/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/2159-8290.cd-19-1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7802/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fimmu.2020.586124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-9642/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fonc.2020.00747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6316/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1128/mra.00797-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12181074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bioproject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/0008-5472.can-20-1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR7829659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-19452-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11467537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2294-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11426414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41591-020-0801-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10484371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1200/jco.20.01164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://clinicaltrials.gov/ct2/show/NCT01849874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clinicaltrials.gov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s12859-020-03741-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeocean.com/capsule/9813295/tree/v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codeocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.24433/CO.1724316.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeocean.com/capsule/6259283/tree/v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cell.2020.10.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cptac-data-portal.georgetown.edu/study-summary/S060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cptac data portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41588-019-0564-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dcc.icgc.org/releases/PCAWG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-019-13983-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-019-13929-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-17359-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dcc.icgc.org/releases/PCAWG/consensus_snv_indel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-019-13824-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-14367-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dcc.icgc.org/releases/PCAWG/networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41588-019-0576-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ajhg.2020.04.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.deciphergenomics.org/patient/412419/overview/general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decipher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.ppat.1008263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pdbe/entry/emdb/EMD-10045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.108157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/emdb/EMD-0270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073/pnas.2004563117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/emdb/entry/EMD-11678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.abd1673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/emdb/EMD-11087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fcimb.2020.00167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB35812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1053/j.gastro.2020.03.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB20400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41556-020-0488-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/LS482294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-19589-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB37249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1128/msphere.00598-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJNA657829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/jac/dkaa271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB28593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s13072-020-00345-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/prjeb27665?show=reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2269-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB37249?show=reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2797-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB39602?show=reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/all.14322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB37836?show=reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/sciadv.abb4565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB34111?show=reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.aba9411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/prjeb36265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136/gutjnl-2018-317856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/data/view/PRJEB34637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s13756-020-0696-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB36565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1242/bio.044222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB27665?show=reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7554/elife.51243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/data/view/PRJEB2600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ega-archive.org/datasets/EGAD00001006550/files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">european genome-phenome archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-14351-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ega-archive.org/datasets/EGAD00001001343/files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ega-archive.org/datasets/EGAD00001005247/files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2598-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://flowrepository.org/id/FR-FCM-Z2K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowrepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE116694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.108184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/nan.12655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE127255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-58668-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7554/elife.52549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3324/haematol.2019.235291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE98946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-019-13960-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE128837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gkaa1089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/ajt.16161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/cells9010186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE138532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-019-57108-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE94916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.01.044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.aaz2582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse120589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41375-020-0839-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse146173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/1878-0261.12835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE119423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.108533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/2159-8290.cd-20-1202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse134092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41596-020-0333-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE142696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1172/jci138760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE151285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-019-56994-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/eji.202048797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1007/s00401-020-02250-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cell.2020.07.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.107652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.107982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cels.2020.10.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ebiom.2020.102970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.stem.2020.07.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41388-020-1198-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE121362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41416-020-0751-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE122399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-14700-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE89461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-14777-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-16009-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE77534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-16244-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE120576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-16464-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE140133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-17467-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-19002-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE115103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41541-020-0177-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41556-020-0529-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2882-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE125521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2968-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-3018-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41587-020-0469-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM3911434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41590-020-0707-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41592-020-0965-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41596-019-0251-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE109381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41596-020-0369-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-64431-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE55235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-67872-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE111230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073/pnas.1920393117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE101409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073/pnas.2002481117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE150753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073/pnas.2008883117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073/pnas.2013542117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1084/jem.20190133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1084/jem.20191933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1084/jem.20200137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gkz1238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE131255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nargab/lqaa036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.aax5863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.aaz5875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.aba4937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1128/mbio.01911-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136/gutjnl-2020-321016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE73338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/0008-5472.can-19-1493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE126033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/1055-9965.epi-20-0739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE155328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1161/circulationaha.119.042863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1161/circulationaha.119.044794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1164/rccm.201910-2063oc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1172/jci137786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1182/blood.2020005244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s13041-020-00685-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pbio.3000722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.ppat.1008461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.18632/oncotarget.27636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE133014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.18632/oncotarget.27763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE84713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.26508/lsa.201900601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fneur.2020.573560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE61405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fonc.2020.00599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/ijms21020373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/ijms21217944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/ijms21238898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE161585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7554/elife.58659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41591-020-0908-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/s0140-6736(20)30750-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ghdx.healthdata.org/gbd-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghdx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.5524/100743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gigadb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1152/jn.00615.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.12751/g-node.6953bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC-BY-NC-SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0244148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.12751/g-node.mb83iq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1242/jeb.206342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.12751/g-node.87584d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41592-020-0884-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://submission.gpcrmd.org/home/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpcrmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1074/jbc.ra120.014890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://massive.ucsd.edu/ProteoSAFe/dataset_files.jsp?task=e50e8f39be94497db47a71a45a3becaf#%7B%22table_sort_history%22%3A%22main.collection_asc%22%7D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.26508/lsa.202000700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/metabolights/MTBLS186/files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/JACCFF010000001.1?report=fasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ncbi nucleotide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT711466.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/ve/veaa033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MH844500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.01.070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN900952?report=genbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT108784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT270825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MW002770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073/pnas.2006750117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MK598003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/brain/awaa346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/NC_000005.10?report=graph&amp;mk=114404655|NC_000005.10\:g.114404655_114404658del|green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41437-020-0331-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT136926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-17060-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN175570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-64159-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MG963186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN037882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3201/eid2612.200708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT123530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s42522-020-00018-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN714358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.18112/openneuro.ds001734.v1.0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openneuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openneuro.org/datasets/ds001734/versions/1.0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.peptideatlas.org/PASS/PASS01250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peptideatlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/0008-5472.can-20-0754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-71899-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.peptideatlas.org/PASS/PASS01606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41597-020-0495-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://physionet.org/content/ptb-xl/1.0.1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">physionet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD013167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD019123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD020612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD010370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cels.2020.05.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD018874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acs.jproteome.9b00714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD014913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41389-020-0201-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD012523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-15743-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD011129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-16929-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD017341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-18542-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD006921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gkaa681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD011887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/sciadv.aay1109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD013259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD017530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1172/jci.insight.123862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD009944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.108235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD021351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fimmu.2020.00179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.18430/m33czf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proteindiffraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acs.analchem.0c01273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD019926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proteomexchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4049/immunohorizons.2000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD010084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://raeslab.org/software/BMIS/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raeslab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-65744-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.108117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10341086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-14782-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/?term=prjna437582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pgen.1008651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR8454256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1053/j.gastro.2020.07.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR13762768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1084/jem.20200275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11462381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/jgh.15071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/eji.201948474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11104128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ebiom.2020.103009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12567985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.jaci.2020.04.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR5010537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6870406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-67843-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=ERR3132486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1534/g3.120.401537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11793881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fmicb.2020.556793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10048296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.synapse.org/#!Synapse:syn7596712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41588-019-0562-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.synapse.org/#!Synapse:syn21052009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.abb3405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6Y2E/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wwpdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-15614-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.2210/pdb6tga/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acs.biochem.0c00053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6G1Y/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6XKQ/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6RWK/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6HTQ/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-19321-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.2210/pdb6yga/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1083/jcb.201902059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6Q9M/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6Z9P/pdb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1867,18 +1852,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2160,20 +2136,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2190,7 +2160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2207,7 +2177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2224,7 +2194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2241,7 +2211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2258,7 +2228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2275,7 +2245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2292,7 +2262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2309,7 +2279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2326,7 +2296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2343,7 +2313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2360,7 +2330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2377,7 +2347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2394,7 +2364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2411,7 +2381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2428,7 +2398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2445,7 +2415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2462,7 +2432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2479,7 +2449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2496,7 +2466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2513,7 +2483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2530,7 +2500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2547,7 +2517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2564,7 +2534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2581,7 +2551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2598,7 +2568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2615,7 +2585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2632,7 +2602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -2649,7 +2619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2666,7 +2636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2683,7 +2653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2700,7 +2670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2717,7 +2687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2734,7 +2704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2751,7 +2721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2768,7 +2738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2785,7 +2755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2802,7 +2772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2819,7 +2789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -2836,7 +2806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -2853,7 +2823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -2870,7 +2840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -2887,7 +2857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -2904,7 +2874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -2921,7 +2891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -2938,7 +2908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -2955,7 +2925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -2972,7 +2942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -2989,7 +2959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -3006,7 +2976,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -3023,7 +2993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -3040,7 +3010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -3057,7 +3027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -3074,7 +3044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -3091,7 +3061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -3108,7 +3078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56">
       <c r="A56" t="s">
         <v>124</v>
       </c>
@@ -3125,7 +3095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -3142,7 +3112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -3159,7 +3129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -3176,7 +3146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -3193,7 +3163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -3210,7 +3180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -3227,7 +3197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -3244,7 +3214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -3261,7 +3231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -3278,7 +3248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -3295,7 +3265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -3312,7 +3282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -3329,7 +3299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -3346,7 +3316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -3363,7 +3333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -3380,7 +3350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -3397,7 +3367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73">
       <c r="A73" t="s">
         <v>157</v>
       </c>
@@ -3414,7 +3384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74">
       <c r="A74" t="s">
         <v>159</v>
       </c>
@@ -3431,7 +3401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -3448,7 +3418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -3465,7 +3435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -3482,7 +3452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -3499,7 +3469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79">
       <c r="A79" t="s">
         <v>171</v>
       </c>
@@ -3516,7 +3486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -3533,7 +3503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -3550,7 +3520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -3567,7 +3537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83">
       <c r="A83" t="s">
         <v>179</v>
       </c>
@@ -3584,7 +3554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -3601,7 +3571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85">
       <c r="A85" t="s">
         <v>184</v>
       </c>
@@ -3618,7 +3588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -3635,7 +3605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87">
       <c r="A87" t="s">
         <v>189</v>
       </c>
@@ -3652,7 +3622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88">
       <c r="A88" t="s">
         <v>191</v>
       </c>
@@ -3669,7 +3639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89">
       <c r="A89" t="s">
         <v>193</v>
       </c>
@@ -3686,7 +3656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90">
       <c r="A90" t="s">
         <v>195</v>
       </c>
@@ -3703,7 +3673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91">
       <c r="A91" t="s">
         <v>197</v>
       </c>
@@ -3720,7 +3690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92">
       <c r="A92" t="s">
         <v>199</v>
       </c>
@@ -3737,7 +3707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -3754,7 +3724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -3771,7 +3741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -3788,7 +3758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -3805,7 +3775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -3822,7 +3792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -3839,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99">
       <c r="A99" t="s">
         <v>215</v>
       </c>
@@ -3856,7 +3826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -3873,7 +3843,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101">
       <c r="A101" t="s">
         <v>135</v>
       </c>
@@ -3890,7 +3860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102">
       <c r="A102" t="s">
         <v>221</v>
       </c>
@@ -3907,7 +3877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103">
       <c r="A103" t="s">
         <v>224</v>
       </c>
@@ -3924,7 +3894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -3941,7 +3911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -3958,7 +3928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -3975,7 +3945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107">
       <c r="A107" t="s">
         <v>231</v>
       </c>
@@ -3992,7 +3962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -4009,7 +3979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -4026,7 +3996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110">
       <c r="A110" t="s">
         <v>235</v>
       </c>
@@ -4043,7 +4013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -4060,7 +4030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112">
       <c r="A112" t="s">
         <v>241</v>
       </c>
@@ -4077,7 +4047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113">
       <c r="A113" t="s">
         <v>243</v>
       </c>
@@ -4094,7 +4064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114">
       <c r="A114" t="s">
         <v>245</v>
       </c>
@@ -4111,7 +4081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -4128,7 +4098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116">
       <c r="A116" t="s">
         <v>250</v>
       </c>
@@ -4145,7 +4115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117">
       <c r="A117" t="s">
         <v>252</v>
       </c>
@@ -4162,7 +4132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118">
       <c r="A118" t="s">
         <v>254</v>
       </c>
@@ -4179,7 +4149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119">
       <c r="A119" t="s">
         <v>256</v>
       </c>
@@ -4196,7 +4166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120">
       <c r="A120" t="s">
         <v>258</v>
       </c>
@@ -4213,7 +4183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121">
       <c r="A121" t="s">
         <v>260</v>
       </c>
@@ -4230,7 +4200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122">
       <c r="A122" t="s">
         <v>262</v>
       </c>
@@ -4247,7 +4217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123">
       <c r="A123" t="s">
         <v>264</v>
       </c>
@@ -4264,7 +4234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124">
       <c r="A124" t="s">
         <v>266</v>
       </c>
@@ -4281,7 +4251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125">
       <c r="A125" t="s">
         <v>268</v>
       </c>
@@ -4298,7 +4268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126">
       <c r="A126" t="s">
         <v>270</v>
       </c>
@@ -4315,7 +4285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127">
       <c r="A127" t="s">
         <v>272</v>
       </c>
@@ -4332,7 +4302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128">
       <c r="A128" t="s">
         <v>274</v>
       </c>
@@ -4349,12 +4319,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129">
       <c r="A129" t="s">
         <v>276</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="C129" t="s">
         <v>249</v>
@@ -4366,12 +4336,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130">
       <c r="A130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B130" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C130" t="s">
         <v>249</v>
@@ -4383,15 +4353,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131">
       <c r="A131" t="s">
         <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D131" t="s">
         <v>183</v>
@@ -4400,16 +4370,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132">
       <c r="A132" t="s">
+        <v>282</v>
+      </c>
+      <c r="B132" t="s">
+        <v>283</v>
+      </c>
+      <c r="C132" t="s">
         <v>281</v>
       </c>
-      <c r="B132" t="s">
-        <v>282</v>
-      </c>
-      <c r="C132" t="s">
-        <v>280</v>
-      </c>
       <c r="D132" t="s">
         <v>183</v>
       </c>
@@ -4417,15 +4387,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133">
       <c r="A133" t="s">
         <v>195</v>
       </c>
       <c r="B133" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C133" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D133" t="s">
         <v>183</v>
@@ -4434,15 +4404,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134">
       <c r="A134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B134" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D134" t="s">
         <v>183</v>
@@ -4451,15 +4421,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135">
       <c r="A135" t="s">
         <v>224</v>
       </c>
       <c r="B135" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C135" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D135" t="s">
         <v>183</v>
@@ -4468,15 +4438,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136">
       <c r="A136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C136" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D136" t="s">
         <v>183</v>
@@ -4485,15 +4455,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137">
       <c r="A137" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B137" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C137" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D137" t="s">
         <v>183</v>
@@ -4502,15 +4472,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138">
       <c r="A138" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B138" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D138" t="s">
         <v>183</v>
@@ -4519,15 +4489,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139">
       <c r="A139" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B139" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D139" t="s">
         <v>183</v>
@@ -4536,15 +4506,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140">
       <c r="A140" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C140" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D140" t="s">
         <v>183</v>
@@ -4553,15 +4523,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141">
       <c r="A141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B141" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D141" t="s">
         <v>183</v>
@@ -4570,15 +4540,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142">
       <c r="A142" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B142" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C142" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D142" t="s">
         <v>183</v>
@@ -4587,15 +4557,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143">
       <c r="A143" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B143" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D143" t="s">
         <v>183</v>
@@ -4604,15 +4574,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144">
       <c r="A144" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B144" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D144" t="s">
         <v>183</v>
@@ -4621,15 +4591,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145">
       <c r="A145" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B145" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C145" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D145" t="s">
         <v>183</v>
@@ -4638,15 +4608,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146">
       <c r="A146" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B146" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C146" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D146" t="s">
         <v>183</v>
@@ -4655,15 +4625,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147">
       <c r="A147" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B147" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C147" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D147" t="s">
         <v>183</v>
@@ -4672,15 +4642,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148">
       <c r="A148" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B148" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D148" t="s">
         <v>183</v>
@@ -4689,15 +4659,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149">
       <c r="A149" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C149" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D149" t="s">
         <v>183</v>
@@ -4706,15 +4676,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150">
       <c r="A150" t="s">
         <v>260</v>
       </c>
       <c r="B150" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C150" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D150" t="s">
         <v>183</v>
@@ -4723,15 +4693,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151">
       <c r="A151" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B151" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C151" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D151" t="s">
         <v>183</v>
@@ -4740,15 +4710,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152">
       <c r="A152" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B152" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C152" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D152" t="s">
         <v>183</v>
@@ -4757,15 +4727,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153">
       <c r="A153" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B153" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C153" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D153" t="s">
         <v>183</v>
@@ -4774,15 +4744,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154">
       <c r="A154" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B154" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C154" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D154" t="s">
         <v>183</v>
@@ -4791,15 +4761,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155">
       <c r="A155" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B155" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C155" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D155" t="s">
         <v>183</v>
@@ -4808,15 +4778,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156">
       <c r="A156" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B156" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C156" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D156" t="s">
         <v>183</v>
@@ -4825,15 +4795,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157">
       <c r="A157" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B157" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C157" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D157" t="s">
         <v>183</v>
@@ -4842,15 +4812,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158">
       <c r="A158" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B158" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C158" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D158" t="s">
         <v>183</v>
@@ -4859,15 +4829,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159">
       <c r="A159" t="s">
         <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C159" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D159" t="s">
         <v>183</v>
@@ -4876,15 +4846,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160">
       <c r="A160" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B160" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D160" t="s">
         <v>183</v>
@@ -4893,15 +4863,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161">
       <c r="A161" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B161" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C161" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D161" t="s">
         <v>183</v>
@@ -4910,15 +4880,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162">
       <c r="A162" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B162" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C162" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D162" t="s">
         <v>183</v>
@@ -4927,15 +4897,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163">
       <c r="A163" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B163" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C163" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D163" t="s">
         <v>183</v>
@@ -4944,15 +4914,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164">
       <c r="A164" t="s">
         <v>113</v>
       </c>
       <c r="B164" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C164" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D164" t="s">
         <v>183</v>
@@ -4961,15 +4931,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165">
       <c r="A165" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B165" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C165" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D165" t="s">
         <v>183</v>
@@ -4978,15 +4948,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166">
       <c r="A166" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B166" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C166" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D166" t="s">
         <v>183</v>
@@ -4995,15 +4965,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167">
       <c r="A167" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B167" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C167" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D167" t="s">
         <v>183</v>
@@ -5012,15 +4982,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168">
       <c r="A168" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B168" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C168" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D168" t="s">
         <v>183</v>
@@ -5029,15 +4999,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169">
       <c r="A169" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B169" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C169" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D169" t="s">
         <v>183</v>
@@ -5046,15 +5016,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170">
       <c r="A170" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B170" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C170" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D170" t="s">
         <v>183</v>
@@ -5063,15 +5033,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171">
       <c r="A171" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B171" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C171" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D171" t="s">
         <v>183</v>
@@ -5080,15 +5050,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172">
       <c r="A172" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B172" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C172" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D172" t="s">
         <v>183</v>
@@ -5097,15 +5067,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173">
       <c r="A173" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B173" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C173" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D173" t="s">
         <v>183</v>
@@ -5114,15 +5084,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174">
       <c r="A174" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B174" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C174" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D174" t="s">
         <v>183</v>
@@ -5131,15 +5101,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175">
       <c r="A175" t="s">
         <v>191</v>
       </c>
       <c r="B175" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C175" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D175" t="s">
         <v>183</v>
@@ -5148,15 +5118,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176">
       <c r="A176" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B176" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C176" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D176" t="s">
         <v>183</v>
@@ -5165,15 +5135,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177">
       <c r="A177" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B177" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C177" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D177" t="s">
         <v>183</v>
@@ -5182,15 +5152,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178">
       <c r="A178" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B178" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C178" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D178" t="s">
         <v>183</v>
@@ -5199,15 +5169,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179">
       <c r="A179" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B179" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C179" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D179" t="s">
         <v>183</v>
@@ -5216,15 +5186,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180">
       <c r="A180" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B180" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C180" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D180" t="s">
         <v>183</v>
@@ -5233,15 +5203,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181">
       <c r="A181" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B181" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C181" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D181" t="s">
         <v>183</v>
@@ -5250,15 +5220,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182">
       <c r="A182" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B182" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C182" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D182" t="s">
         <v>183</v>
@@ -5267,15 +5237,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183">
       <c r="A183" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B183" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C183" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D183" t="s">
         <v>183</v>
@@ -5284,15 +5254,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184">
       <c r="A184" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B184" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C184" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D184" t="s">
         <v>183</v>
@@ -5301,15 +5271,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185">
       <c r="A185" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B185" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C185" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D185" t="s">
         <v>183</v>
@@ -5318,15 +5288,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186">
       <c r="A186" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B186" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C186" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D186" t="s">
         <v>183</v>
@@ -5335,15 +5305,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187">
       <c r="A187" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B187" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C187" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D187" t="s">
         <v>183</v>
@@ -5352,15 +5322,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188">
       <c r="A188" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B188" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C188" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D188" t="s">
         <v>183</v>
@@ -5369,15 +5339,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189">
       <c r="A189" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B189" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C189" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D189" t="s">
         <v>183</v>
@@ -5386,15 +5356,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190">
       <c r="A190" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B190" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C190" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D190" t="s">
         <v>183</v>
@@ -5403,15 +5373,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191">
       <c r="A191" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B191" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C191" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D191" t="s">
         <v>183</v>
@@ -5420,15 +5390,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192">
       <c r="A192" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B192" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C192" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D192" t="s">
         <v>183</v>
@@ -5437,15 +5407,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193">
       <c r="A193" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B193" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C193" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D193" t="s">
         <v>183</v>
@@ -5454,15 +5424,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194">
       <c r="A194" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B194" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C194" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D194" t="s">
         <v>183</v>
@@ -5471,15 +5441,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195">
       <c r="A195" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B195" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C195" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D195" t="s">
         <v>183</v>
@@ -5488,15 +5458,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196">
       <c r="A196" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B196" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C196" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D196" t="s">
         <v>183</v>
@@ -5505,15 +5475,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197">
       <c r="A197" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B197" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C197" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D197" t="s">
         <v>183</v>
@@ -5522,15 +5492,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198">
       <c r="A198" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B198" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C198" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D198" t="s">
         <v>183</v>
@@ -5539,15 +5509,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199">
       <c r="A199" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B199" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C199" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D199" t="s">
         <v>183</v>
@@ -5556,15 +5526,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200">
       <c r="A200" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B200" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C200" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D200" t="s">
         <v>183</v>
@@ -5573,15 +5543,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201">
       <c r="A201" t="s">
         <v>272</v>
       </c>
       <c r="B201" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C201" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D201" t="s">
         <v>183</v>
@@ -5590,15 +5560,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202">
       <c r="A202" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B202" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C202" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D202" t="s">
         <v>183</v>
@@ -5607,15 +5577,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203">
       <c r="A203" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B203" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C203" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D203" t="s">
         <v>183</v>
@@ -5624,15 +5594,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204">
       <c r="A204" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B204" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C204" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D204" t="s">
         <v>183</v>
@@ -5641,15 +5611,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205">
       <c r="A205" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B205" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C205" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D205" t="s">
         <v>183</v>
@@ -5658,15 +5628,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206">
       <c r="A206" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B206" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C206" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D206" t="s">
         <v>183</v>
@@ -5675,15 +5645,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207">
       <c r="A207" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B207" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C207" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D207" t="s">
         <v>183</v>
@@ -5692,15 +5662,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208">
       <c r="A208" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B208" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C208" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D208" t="s">
         <v>183</v>
@@ -5709,15 +5679,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209">
       <c r="A209" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B209" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C209" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D209" t="s">
         <v>183</v>
@@ -5726,15 +5696,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210">
       <c r="A210" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B210" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C210" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D210" t="s">
         <v>183</v>
@@ -5743,15 +5713,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211">
       <c r="A211" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B211" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C211" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D211" t="s">
         <v>183</v>
@@ -5760,15 +5730,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212">
       <c r="A212" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B212" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C212" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D212" t="s">
         <v>183</v>
@@ -5777,15 +5747,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213">
       <c r="A213" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B213" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C213" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D213" t="s">
         <v>183</v>
@@ -5794,15 +5764,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214">
       <c r="A214" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B214" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C214" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D214" t="s">
         <v>183</v>
@@ -5811,15 +5781,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215">
       <c r="A215" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B215" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C215" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D215" t="s">
         <v>183</v>
@@ -5828,15 +5798,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216">
       <c r="A216" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B216" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C216" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D216" t="s">
         <v>183</v>
@@ -5845,15 +5815,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217">
       <c r="A217" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B217" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C217" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D217" t="s">
         <v>183</v>
@@ -5862,15 +5832,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218">
       <c r="A218" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B218" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C218" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D218" t="s">
         <v>183</v>
@@ -5879,15 +5849,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219">
       <c r="A219" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B219" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C219" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D219" t="s">
         <v>183</v>
@@ -5896,15 +5866,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220">
       <c r="A220" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B220" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C220" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D220" t="s">
         <v>183</v>
@@ -5913,15 +5883,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221">
       <c r="A221" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B221" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C221" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D221" t="s">
         <v>183</v>
@@ -5930,15 +5900,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222">
       <c r="A222" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B222" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C222" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D222" t="s">
         <v>183</v>
@@ -5947,15 +5917,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223">
       <c r="A223" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B223" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C223" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D223" t="s">
         <v>183</v>
@@ -5964,15 +5934,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224">
       <c r="A224" t="s">
         <v>124</v>
       </c>
       <c r="B224" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C224" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D224" t="s">
         <v>183</v>
@@ -5981,49 +5951,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225">
       <c r="A225" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B225" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C225" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D225" t="s">
         <v>183</v>
       </c>
       <c r="E225" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>466</v>
+      </c>
+      <c r="B226" t="s">
+        <v>467</v>
+      </c>
+      <c r="C226" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
+      <c r="D226" t="s">
+        <v>183</v>
+      </c>
+      <c r="E226" t="s">
         <v>465</v>
       </c>
-      <c r="B226" t="s">
-        <v>466</v>
-      </c>
-      <c r="C226" t="s">
-        <v>463</v>
-      </c>
-      <c r="D226" t="s">
-        <v>183</v>
-      </c>
-      <c r="E226" t="s">
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>468</v>
+      </c>
+      <c r="B227" t="s">
+        <v>469</v>
+      </c>
+      <c r="C227" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
-        <v>467</v>
-      </c>
-      <c r="B227" t="s">
-        <v>468</v>
-      </c>
-      <c r="C227" t="s">
-        <v>463</v>
       </c>
       <c r="D227" t="s">
         <v>183</v>
@@ -6032,15 +6002,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228">
       <c r="A228" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B228" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C228" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D228" t="s">
         <v>183</v>
@@ -6049,15 +6019,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229">
       <c r="A229" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B229" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C229" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D229" t="s">
         <v>183</v>
@@ -6066,15 +6036,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230">
       <c r="A230" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B230" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C230" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D230" t="s">
         <v>183</v>
@@ -6083,15 +6053,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231">
       <c r="A231" t="s">
         <v>201</v>
       </c>
       <c r="B231" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C231" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D231" t="s">
         <v>183</v>
@@ -6100,16 +6070,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232">
       <c r="A232" t="s">
         <v>19</v>
       </c>
       <c r="B232" t="s">
+        <v>481</v>
+      </c>
+      <c r="C232" t="s">
         <v>480</v>
       </c>
-      <c r="C232" t="s">
-        <v>479</v>
-      </c>
       <c r="D232" t="s">
         <v>183</v>
       </c>
@@ -6117,15 +6087,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233">
       <c r="A233" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B233" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C233" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D233" t="s">
         <v>183</v>
@@ -6134,15 +6104,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234">
       <c r="A234" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B234" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C234" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D234" t="s">
         <v>183</v>
@@ -6151,15 +6121,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235">
       <c r="A235" t="s">
         <v>208</v>
       </c>
       <c r="B235" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C235" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D235" t="s">
         <v>183</v>
@@ -6168,15 +6138,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236">
       <c r="A236" t="s">
         <v>256</v>
       </c>
       <c r="B236" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C236" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D236" t="s">
         <v>183</v>
@@ -6185,15 +6155,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237">
       <c r="A237" t="s">
         <v>111</v>
       </c>
       <c r="B237" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C237" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D237" t="s">
         <v>183</v>
@@ -6202,15 +6172,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238">
       <c r="A238" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B238" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C238" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D238" t="s">
         <v>183</v>
@@ -6219,15 +6189,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239">
       <c r="A239" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B239" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C239" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D239" t="s">
         <v>183</v>
@@ -6236,15 +6206,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240">
       <c r="A240" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B240" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C240" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D240" t="s">
         <v>183</v>
@@ -6253,15 +6223,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241">
       <c r="A241" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B241" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C241" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D241" t="s">
         <v>183</v>
@@ -6270,15 +6240,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242">
       <c r="A242" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B242" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C242" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D242" t="s">
         <v>183</v>
@@ -6287,15 +6257,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243">
       <c r="A243" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B243" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C243" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D243" t="s">
         <v>183</v>
@@ -6304,15 +6274,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244">
       <c r="A244" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B244" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C244" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D244" t="s">
         <v>183</v>
@@ -6321,15 +6291,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245">
       <c r="A245" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B245" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C245" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D245" t="s">
         <v>183</v>
@@ -6338,15 +6308,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246">
       <c r="A246" t="s">
         <v>96</v>
       </c>
       <c r="B246" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C246" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D246" t="s">
         <v>183</v>
@@ -6355,16 +6325,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247">
       <c r="A247" t="s">
         <v>96</v>
       </c>
       <c r="B247" t="s">
+        <v>506</v>
+      </c>
+      <c r="C247" t="s">
         <v>505</v>
       </c>
-      <c r="C247" t="s">
-        <v>504</v>
-      </c>
       <c r="D247" t="s">
         <v>183</v>
       </c>
@@ -6372,33 +6342,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248">
       <c r="A248" t="s">
         <v>204</v>
       </c>
       <c r="B248" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C248" t="s">
+        <v>508</v>
+      </c>
+      <c r="D248" t="s">
+        <v>183</v>
+      </c>
+      <c r="E248" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>509</v>
+      </c>
+      <c r="B249" t="s">
         <v>507</v>
       </c>
-      <c r="D248" t="s">
-        <v>183</v>
-      </c>
-      <c r="E248" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" t="s">
+      <c r="C249" t="s">
         <v>508</v>
       </c>
-      <c r="B249" t="s">
-        <v>506</v>
-      </c>
-      <c r="C249" t="s">
-        <v>507</v>
-      </c>
       <c r="D249" t="s">
         <v>183</v>
       </c>
@@ -6406,15 +6376,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250">
       <c r="A250" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B250" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C250" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D250" t="s">
         <v>183</v>
@@ -6423,15 +6393,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251">
       <c r="A251" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B251" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C251" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D251" t="s">
         <v>183</v>
@@ -6440,15 +6410,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252">
       <c r="A252" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B252" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C252" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D252" t="s">
         <v>183</v>
@@ -6457,16 +6427,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253">
       <c r="A253" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B253" t="s">
+        <v>517</v>
+      </c>
+      <c r="C253" t="s">
         <v>516</v>
       </c>
-      <c r="C253" t="s">
-        <v>515</v>
-      </c>
       <c r="D253" t="s">
         <v>183</v>
       </c>
@@ -6474,15 +6444,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254">
       <c r="A254" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B254" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C254" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D254" t="s">
         <v>183</v>
@@ -6491,15 +6461,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255">
       <c r="A255" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B255" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C255" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D255" t="s">
         <v>183</v>
@@ -6508,15 +6478,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256">
       <c r="A256" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B256" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C256" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D256" t="s">
         <v>183</v>
@@ -6525,15 +6495,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257">
       <c r="A257" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B257" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C257" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D257" t="s">
         <v>183</v>
@@ -6542,15 +6512,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258">
       <c r="A258" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B258" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C258" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D258" t="s">
         <v>183</v>
@@ -6559,15 +6529,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259">
       <c r="A259" t="s">
         <v>51</v>
       </c>
       <c r="B259" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C259" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D259" t="s">
         <v>183</v>
@@ -6576,15 +6546,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260">
       <c r="A260" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B260" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C260" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D260" t="s">
         <v>183</v>
@@ -6593,15 +6563,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261">
       <c r="A261" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B261" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C261" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D261" t="s">
         <v>183</v>
@@ -6610,15 +6580,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262">
       <c r="A262" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B262" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C262" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D262" t="s">
         <v>183</v>
@@ -6627,15 +6597,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263">
       <c r="A263" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B263" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C263" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D263" t="s">
         <v>183</v>
@@ -6644,15 +6614,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264">
       <c r="A264" t="s">
         <v>115</v>
       </c>
       <c r="B264" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C264" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D264" t="s">
         <v>183</v>
@@ -6661,15 +6631,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265">
       <c r="A265" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B265" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C265" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D265" t="s">
         <v>183</v>
@@ -6678,15 +6648,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266">
       <c r="A266" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B266" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C266" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D266" t="s">
         <v>183</v>
@@ -6695,15 +6665,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267">
       <c r="A267" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B267" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C267" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D267" t="s">
         <v>183</v>
@@ -6712,15 +6682,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268">
       <c r="A268" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B268" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C268" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D268" t="s">
         <v>183</v>
@@ -6729,15 +6699,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269">
       <c r="A269" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B269" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C269" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D269" t="s">
         <v>183</v>
@@ -6746,15 +6716,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270">
       <c r="A270" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B270" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C270" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D270" t="s">
         <v>183</v>
@@ -6763,15 +6733,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271">
       <c r="A271" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B271" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C271" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D271" t="s">
         <v>183</v>
@@ -6780,15 +6750,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272">
       <c r="A272" t="s">
         <v>204</v>
       </c>
       <c r="B272" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C272" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D272" t="s">
         <v>183</v>
@@ -6797,16 +6767,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273">
       <c r="A273" t="s">
+        <v>550</v>
+      </c>
+      <c r="B273" t="s">
+        <v>551</v>
+      </c>
+      <c r="C273" t="s">
         <v>549</v>
       </c>
-      <c r="B273" t="s">
-        <v>550</v>
-      </c>
-      <c r="C273" t="s">
-        <v>548</v>
-      </c>
       <c r="D273" t="s">
         <v>183</v>
       </c>
@@ -6814,15 +6784,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274">
       <c r="A274" t="s">
         <v>252</v>
       </c>
       <c r="B274" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C274" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D274" t="s">
         <v>183</v>
@@ -6831,15 +6801,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275">
       <c r="A275" t="s">
         <v>262</v>
       </c>
       <c r="B275" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C275" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D275" t="s">
         <v>183</v>
@@ -6848,15 +6818,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276">
       <c r="A276" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B276" t="s">
         <v>207</v>
       </c>
       <c r="C276" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D276" t="s">
         <v>183</v>
@@ -6865,15 +6835,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277">
       <c r="A277" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B277" t="s">
         <v>205</v>
       </c>
       <c r="C277" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D277" t="s">
         <v>183</v>
@@ -6882,16 +6852,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278">
       <c r="A278" t="s">
+        <v>557</v>
+      </c>
+      <c r="B278" t="s">
+        <v>558</v>
+      </c>
+      <c r="C278" t="s">
         <v>556</v>
       </c>
-      <c r="B278" t="s">
-        <v>557</v>
-      </c>
-      <c r="C278" t="s">
-        <v>555</v>
-      </c>
       <c r="D278" t="s">
         <v>183</v>
       </c>
@@ -6899,15 +6869,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279">
       <c r="A279" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B279" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C279" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D279" t="s">
         <v>183</v>
@@ -6916,15 +6886,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280">
       <c r="A280" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B280" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C280" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D280" t="s">
         <v>183</v>
@@ -6933,15 +6903,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281">
       <c r="A281" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B281" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C281" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D281" t="s">
         <v>183</v>
@@ -6950,32 +6920,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282">
       <c r="A282" t="s">
+        <v>565</v>
+      </c>
+      <c r="B282" t="s">
+        <v>566</v>
+      </c>
+      <c r="C282" t="s">
+        <v>556</v>
+      </c>
+      <c r="D282" t="s">
+        <v>183</v>
+      </c>
+      <c r="E282" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>567</v>
+      </c>
+      <c r="B283" t="s">
         <v>564</v>
       </c>
-      <c r="B282" t="s">
-        <v>565</v>
-      </c>
-      <c r="C282" t="s">
-        <v>555</v>
-      </c>
-      <c r="D282" t="s">
-        <v>183</v>
-      </c>
-      <c r="E282" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" t="s">
-        <v>566</v>
-      </c>
-      <c r="B283" t="s">
-        <v>563</v>
-      </c>
       <c r="C283" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D283" t="s">
         <v>183</v>
@@ -6984,15 +6954,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284">
       <c r="A284" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B284" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C284" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D284" t="s">
         <v>183</v>
@@ -7001,15 +6971,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285">
       <c r="A285" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B285" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C285" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D285" t="s">
         <v>183</v>
@@ -7018,15 +6988,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286">
       <c r="A286" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B286" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C286" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D286" t="s">
         <v>183</v>
@@ -7035,15 +7005,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287">
       <c r="A287" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B287" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C287" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D287" t="s">
         <v>183</v>
@@ -7052,15 +7022,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288">
       <c r="A288" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B288" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C288" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D288" t="s">
         <v>183</v>
@@ -7069,15 +7039,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289">
       <c r="A289" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B289" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C289" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D289" t="s">
         <v>183</v>
@@ -7086,15 +7056,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290">
       <c r="A290" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B290" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C290" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D290" t="s">
         <v>183</v>
@@ -7103,32 +7073,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291">
       <c r="A291" t="s">
         <v>224</v>
       </c>
       <c r="B291" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C291" t="s">
+        <v>582</v>
+      </c>
+      <c r="D291" t="s">
+        <v>183</v>
+      </c>
+      <c r="E291" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>282</v>
+      </c>
+      <c r="B292" t="s">
         <v>581</v>
       </c>
-      <c r="D291" t="s">
-        <v>183</v>
-      </c>
-      <c r="E291" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" t="s">
-        <v>281</v>
-      </c>
-      <c r="B292" t="s">
-        <v>580</v>
-      </c>
       <c r="C292" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D292" t="s">
         <v>183</v>
@@ -7137,16 +7107,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293">
       <c r="A293" t="s">
+        <v>583</v>
+      </c>
+      <c r="B293" t="s">
+        <v>584</v>
+      </c>
+      <c r="C293" t="s">
         <v>582</v>
       </c>
-      <c r="B293" t="s">
-        <v>583</v>
-      </c>
-      <c r="C293" t="s">
-        <v>581</v>
-      </c>
       <c r="D293" t="s">
         <v>183</v>
       </c>
@@ -7154,15 +7124,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294">
       <c r="A294" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B294" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C294" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D294" t="s">
         <v>183</v>
@@ -7171,16 +7141,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295">
       <c r="A295" t="s">
+        <v>588</v>
+      </c>
+      <c r="B295" t="s">
+        <v>589</v>
+      </c>
+      <c r="C295" t="s">
         <v>587</v>
       </c>
-      <c r="B295" t="s">
-        <v>588</v>
-      </c>
-      <c r="C295" t="s">
-        <v>586</v>
-      </c>
       <c r="D295" t="s">
         <v>183</v>
       </c>
@@ -7188,15 +7158,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296">
       <c r="A296" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B296" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C296" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D296" t="s">
         <v>183</v>
@@ -7205,15 +7175,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297">
       <c r="A297" t="s">
         <v>111</v>
       </c>
       <c r="B297" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C297" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D297" t="s">
         <v>183</v>
@@ -7222,15 +7192,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298">
       <c r="A298" t="s">
         <v>238</v>
       </c>
       <c r="B298" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C298" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D298" t="s">
         <v>183</v>
@@ -7239,15 +7209,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299">
       <c r="A299" t="s">
         <v>241</v>
       </c>
       <c r="B299" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C299" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D299" t="s">
         <v>183</v>
@@ -7256,15 +7226,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300">
       <c r="A300" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B300" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C300" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D300" t="s">
         <v>183</v>
@@ -7273,15 +7243,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301">
       <c r="A301" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B301" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C301" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D301" t="s">
         <v>183</v>
@@ -7290,15 +7260,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302">
       <c r="A302" t="s">
         <v>245</v>
       </c>
       <c r="B302" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C302" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D302" t="s">
         <v>183</v>
@@ -7309,6 +7279,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/licenses_2020.xlsx
+++ b/output/licenses_2020.xlsx
@@ -1,1825 +1,1832 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/jan_taubitz_charite_de/Documents/_BIH/BUA-Dashboards/fair-assessment/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E98293383C99EA24E3533C14469B06C8921B26F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{920A1D21-2BF1-AA4C-83B6-88A541EA9D53}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18000" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="licenses_2020" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="licenses_2020" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
-  <si>
-    <t xml:space="preserve">article</t>
-  </si>
-  <si>
-    <t xml:space="preserve">best_identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repository_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1136/bmjopen-2019-032864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5061/dryad.4tmpg4f5f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dryad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general-purpose repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7554/elife.51156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5061/dryad.gt160v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0229661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Measuring_childhood_maltreatment_Psychometric_properties_of_the_Norwegian_version_of_the_Maltreatment_and_Abuse_Chronology_of_Exposure_MACE_scale/11910426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">figshare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s13073-020-00771-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12845697.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s12917-020-02606-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12830405.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0237944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Complete_data_set_of_questionnaires_/12836445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s12866-020-01741-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12127476.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s13293-020-00313-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12617808.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0229260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Virus-associated_anterior_uveitis_and_secondary_glaucoma_Diagnostics_clinical_characteristics_and_surgical_options/11893245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0243711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/S1_File_-/13362405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s12916-019-1478-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.11665131.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pmed.1003074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Association_of_suicidal_behavior_with_exposure_to_suicide_and_suicide_attempt_A_systematic_review_and_multilevel_meta-analysis/12054234?file=22151703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0226443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Attitudes_towards_animal_study_registries_and_their_characteristics_An_online_survey_of_three_cohorts_of_animal_researchers/11528676?file=20702688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0228538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/_Wonderful_We_ve_just_missed_the_bus__Parental_use_of_irony_and_children_s_irony_comprehension/11884272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0228736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Prognostic_value_of_the_myocardial_salvage_index_measured_by_T2-weighted_and_T1-weighted_late_gadolinium_enhancement_magnetic_resonance_imaging_after_ST-segment_elevation_myocardial_infarction_A_systematic_review_and_meta-regression_analysi/11851431?file=21722040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0241480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/S1_Dataset_-/13177655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s12885-020-07062-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12607277.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41597-020-00597-w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.c.4869732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.108470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.13154321.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021/acs.analchem.0c00136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/12668465?backTo=/collections/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/5066000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-019-13984-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.11117669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-18084-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12678938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-18826-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12770366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-60755-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.9585410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-78722-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12901682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1098/rspb.2019.2228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.c.4795809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0231299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Yoga_in_school_sports_improves_functioning_of_autonomic_nervous_system_in_young_adults_A_non-randomized_controlled_pilot_study/12120105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0236426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.11807658.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0239210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Anonymized_data_of_the_patients_/13051631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0239853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12967106.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0242197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/S1_File_-/13249124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7554/elife.48401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.8312807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1523/jneurosci.2189-17.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.5726845.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1098/rsif.2018.0220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.7110836.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0235716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Minimal_data_set_SPSS_file_with_age_mPAP_diameter_of_the_aorta_diamAo_and_the_pulmonary_artery_diamPA_and_PA_A_PA_to_Ao_/12615088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0211001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Trauma_induced_acute_kidney_injury/7632995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/1078-0432.ccr-19-1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/tkarn/G5-RNA-Seq/blob/master/Signature_GeneList.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/febs.15608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/scitedotai/research-wikipedia/tree/master/Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021/acs.jcim.0c00815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/choderalab/selectivity/tree/master/fep/fep_maps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fneur.2020.00381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/ahmedaak/BD_scan-shortening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1002/mrm.28307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/pramosdelgado/B1correction-toolkit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021/acs.jcim.0c00839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/volkamerlab/KinFragLib/tree/master/data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2314-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/poldrack/narps/tree/master/ImageAnalyses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gkaa1198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/juzb/CASANOVA-C3/tree/master/output/CN-C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fcvm.2020.599923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/lorfas74/random-shuffle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-19449-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.7910/DVN/LL3C1R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harvard dataverse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-019-56416-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.mendeley.com/datasets/sj5cms7fky/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mendeley data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cell.2020.08.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17632/hwxhw2sxys.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-BY-NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cell.2020.09.049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17632/f6tb3csgjt.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.isci.2020.101539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17632/25cnynmzx6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41597-020-0487-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17632/nr7cs764rc.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/braincomms/fcaa021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17632/nrj467zmj2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s13104-020-05248-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17632/9dkwv5w9b3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/medu.14057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/UHJAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/gigascience/giaa052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/M8E6Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.jclinepi.2020.09.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/PTJBN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1152/jn.00164.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/ECMA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fnbeh.2020.00088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/n85sh/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/dv85n/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0226843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/XSBHW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1098/rsos.190806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/3d5um/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1523/eneuro.0537-19.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/3x95n/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0226893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6847218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1525/collabra.267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/48fhe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1001/jamanetworkopen.2020.32335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/W6DF5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1007/s11948-020-00234-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/cq3s9/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/jne.12923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.17605/OSF.IO/UXNC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1136/bmjopen-2019-034666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/8XZ29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.12688/f1000research.26707.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/GPMNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/qp5cm/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0233608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/turzf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0237093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/6frp5/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0239598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/a43ut/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fpsyg.2020.02021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/h564u/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.03.078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.25534/tudatalib-158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tu datalib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s40635-019-0284-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zenodo.org/record/3378028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zenodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0227955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.9999/journal.pone.0201548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s40658-020-0270-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3373973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pbio.3000792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3876533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0227178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3601477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0231302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3390/cancers12113138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.5281/zenodo.4009499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.addgene.org/137191/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addgene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-specific repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s42003-020-01167-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8508/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array-express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1002/ijc.33456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7680/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-14466-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-3013/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-20222-z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8152/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-019-57076-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6713/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/2159-8290.cd-19-1030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7802/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fimmu.2020.586124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-9642/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fonc.2020.00747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6316/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1128/mra.00797-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12181074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bioproject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/0008-5472.can-20-1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR7829659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-19452-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11467537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2294-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11426414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41591-020-0801-z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10484371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1200/jco.20.01164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://clinicaltrials.gov/ct2/show/NCT01849874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clinicaltrials.gov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s12859-020-03741-w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codeocean.com/capsule/9813295/tree/v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codeocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.24433/CO.1724316.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codeocean.com/capsule/6259283/tree/v4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cell.2020.10.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cptac-data-portal.georgetown.edu/study-summary/S060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cptac data portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41588-019-0564-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dcc.icgc.org/releases/PCAWG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-019-13983-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-019-13929-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-17359-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dcc.icgc.org/releases/PCAWG/consensus_snv_indel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-019-13824-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-14367-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dcc.icgc.org/releases/PCAWG/networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41588-019-0576-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.ajhg.2020.04.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.deciphergenomics.org/patient/412419/overview/general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decipher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.ppat.1008263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pdbe/entry/emdb/EMD-10045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.108157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/emdb/EMD-0270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073/pnas.2004563117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/emdb/entry/EMD-11678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.abd1673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/emdb/EMD-11087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fcimb.2020.00167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB35812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1053/j.gastro.2020.03.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB20400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41556-020-0488-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/LS482294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-19589-w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB37249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1128/msphere.00598-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJNA657829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/jac/dkaa271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB28593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s13072-020-00345-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/prjeb27665?show=reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2269-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB37249?show=reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2797-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB39602?show=reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/all.14322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB37836?show=reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/sciadv.abb4565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB34111?show=reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.aba9411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/prjeb36265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1136/gutjnl-2018-317856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/data/view/PRJEB34637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s13756-020-0696-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB36565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1242/bio.044222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB27665?show=reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7554/elife.51243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/data/view/PRJEB2600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ega-archive.org/datasets/EGAD00001006550/files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">european genome-phenome archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-14351-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ega-archive.org/datasets/EGAD00001001343/files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ega-archive.org/datasets/EGAD00001005247/files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2598-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://flowrepository.org/id/FR-FCM-Z2K3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowrepository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE116694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.108184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/nan.12655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE127255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-58668-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7554/elife.52549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3324/haematol.2019.235291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE98946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-019-13960-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE128837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gkaa1089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/ajt.16161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3390/cells9010186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE138532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-019-57108-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE94916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.01.044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.aaz2582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse120589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41375-020-0839-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse146173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1002/1878-0261.12835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE119423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.108533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/2159-8290.cd-20-1202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse134092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41596-020-0333-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE142696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1172/jci138760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE151285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-019-56994-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1002/eji.202048797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1007/s00401-020-02250-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cell.2020.07.038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.107652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.107982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cels.2020.10.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.ebiom.2020.102970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.stem.2020.07.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41388-020-1198-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE121362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41416-020-0751-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE122399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-14700-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE89461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-14777-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-16009-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE77534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-16244-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE120576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-16464-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE140133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-17467-z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-19002-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE115103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41541-020-0177-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41556-020-0529-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2882-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE125521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2968-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-3018-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41587-020-0469-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM3911434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41590-020-0707-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41592-020-0965-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41596-019-0251-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE109381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41596-020-0369-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-64431-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE55235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-67872-z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE111230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073/pnas.1920393117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE101409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073/pnas.2002481117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE150753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073/pnas.2008883117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073/pnas.2013542117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1084/jem.20190133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1084/jem.20191933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1084/jem.20200137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gkz1238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE131255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nargab/lqaa036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.aax5863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.aaz5875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.aba4937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1128/mbio.01911-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1136/gutjnl-2020-321016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE73338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/0008-5472.can-19-1493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE126033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/1055-9965.epi-20-0739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE155328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1161/circulationaha.119.042863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1161/circulationaha.119.044794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1164/rccm.201910-2063oc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1172/jci137786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1182/blood.2020005244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s13041-020-00685-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pbio.3000722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.ppat.1008461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.18632/oncotarget.27636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE133014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.18632/oncotarget.27763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE84713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.26508/lsa.201900601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fneur.2020.573560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE61405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fonc.2020.00599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3390/ijms21020373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3390/ijms21217944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3390/ijms21238898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE161585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7554/elife.58659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41591-020-0908-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/s0140-6736(20)30750-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ghdx.healthdata.org/gbd-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghdx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dx.doi.org/10.5524/100743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gigadb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1152/jn.00615.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.12751/g-node.6953bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-BY-NC-SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0244148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.12751/g-node.mb83iq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1242/jeb.206342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.12751/g-node.87584d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41592-020-0884-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://submission.gpcrmd.org/home/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gpcrmd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1074/jbc.ra120.014890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://massive.ucsd.edu/ProteoSAFe/dataset_files.jsp?task=e50e8f39be94497db47a71a45a3becaf#%7B%22table_sort_history%22%3A%22main.collection_asc%22%7D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.26508/lsa.202000700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/metabolights/MTBLS186/files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/JACCFF010000001.1?report=fasta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncbi nucleotide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT711466.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/ve/veaa033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MH844500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.01.070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN900952?report=genbank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT108784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT270825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MW002770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073/pnas.2006750117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MK598003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/brain/awaa346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/NC_000005.10?report=graph&amp;mk=114404655|NC_000005.10\:g.114404655_114404658del|green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41437-020-0331-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT136926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-17060-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN175570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-64159-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MG963186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN037882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3201/eid2612.200708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT123530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s42522-020-00018-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN714358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.18112/openneuro.ds001734.v1.0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openneuro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openneuro.org/datasets/ds001734/versions/1.0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.peptideatlas.org/PASS/PASS01250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peptideatlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/0008-5472.can-20-0754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-71899-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.peptideatlas.org/PASS/PASS01606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41597-020-0495-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://physionet.org/content/ptb-xl/1.0.1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">physionet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD013167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD019123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD020612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD010370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cels.2020.05.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD018874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021/acs.jproteome.9b00714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD014913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41389-020-0201-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD012523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-15743-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD011129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-16929-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD017341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-18542-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD006921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gkaa681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD011887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/sciadv.aay1109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD013259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD017530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1172/jci.insight.123862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD009944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.108235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD021351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fimmu.2020.00179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.18430/m33czf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proteindiffraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021/acs.analchem.0c01273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD019926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proteomexchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4049/immunohorizons.2000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD010084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://raeslab.org/software/BMIS/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raeslab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-65744-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.108117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10341086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-14782-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/?term=prjna437582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pgen.1008651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR8454256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1053/j.gastro.2020.07.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR13762768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1084/jem.20200275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11462381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/jgh.15071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1002/eji.201948474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11104128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.ebiom.2020.103009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12567985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.jaci.2020.04.059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR5010537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6870406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-67843-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=ERR3132486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1534/g3.120.401537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11793881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fmicb.2020.556793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10048296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.synapse.org/#!Synapse:syn7596712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41588-019-0562-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.synapse.org/#!Synapse:syn21052009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.abb3405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6Y2E/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wwpdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-15614-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dx.doi.org/10.2210/pdb6tga/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021/acs.biochem.0c00053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6G1Y/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6XKQ/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6RWK/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6HTQ/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-19321-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dx.doi.org/10.2210/pdb6yga/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1083/jcb.201902059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6Q9M/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6Z9P/pdb</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="600">
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>best_identifier</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>repository_type</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>10.1136/bmjopen-2019-032864</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5061/dryad.4tmpg4f5f</t>
+  </si>
+  <si>
+    <t>dryad</t>
+  </si>
+  <si>
+    <t>general-purpose repository</t>
+  </si>
+  <si>
+    <t>CC0</t>
+  </si>
+  <si>
+    <t>10.7554/elife.51156</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5061/dryad.gt160v2</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0229661</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Measuring_childhood_maltreatment_Psychometric_properties_of_the_Norwegian_version_of_the_Maltreatment_and_Abuse_Chronology_of_Exposure_MACE_scale/11910426</t>
+  </si>
+  <si>
+    <t>figshare</t>
+  </si>
+  <si>
+    <t>no license</t>
+  </si>
+  <si>
+    <t>10.1186/s13073-020-00771-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12845697.v1</t>
+  </si>
+  <si>
+    <t>CC-BY</t>
+  </si>
+  <si>
+    <t>10.1186/s12917-020-02606-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12830405.v1</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0237944</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Complete_data_set_of_questionnaires_/12836445</t>
+  </si>
+  <si>
+    <t>10.1186/s12866-020-01741-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12127476.v1</t>
+  </si>
+  <si>
+    <t>10.1186/s13293-020-00313-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12617808.v1</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0229260</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Virus-associated_anterior_uveitis_and_secondary_glaucoma_Diagnostics_clinical_characteristics_and_surgical_options/11893245</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0243711</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/S1_File_-/13362405</t>
+  </si>
+  <si>
+    <t>10.1186/s12916-019-1478-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.11665131.v1</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pmed.1003074</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Association_of_suicidal_behavior_with_exposure_to_suicide_and_suicide_attempt_A_systematic_review_and_multilevel_meta-analysis/12054234?file=22151703</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0226443</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Attitudes_towards_animal_study_registries_and_their_characteristics_An_online_survey_of_three_cohorts_of_animal_researchers/11528676?file=20702688</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0228538</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/_Wonderful_We_ve_just_missed_the_bus__Parental_use_of_irony_and_children_s_irony_comprehension/11884272</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0228736</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Prognostic_value_of_the_myocardial_salvage_index_measured_by_T2-weighted_and_T1-weighted_late_gadolinium_enhancement_magnetic_resonance_imaging_after_ST-segment_elevation_myocardial_infarction_A_systematic_review_and_meta-regression_analysi/11851431?file=21722040</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0241480</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/S1_Dataset_-/13177655</t>
+  </si>
+  <si>
+    <t>10.1186/s12885-020-07062-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12607277.v1</t>
+  </si>
+  <si>
+    <t>10.1038/s41597-020-00597-w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.c.4869732</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.108470</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.13154321.v1</t>
+  </si>
+  <si>
+    <t>10.1021/acs.analchem.0c00136</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/12668465?backTo=/collections/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/5066000</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-019-13984-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.11117669</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-18084-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12678938</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-18826-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12770366</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-60755-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.9585410</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-78722-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12901682</t>
+  </si>
+  <si>
+    <t>10.1098/rspb.2019.2228</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.c.4795809</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0231299</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Yoga_in_school_sports_improves_functioning_of_autonomic_nervous_system_in_young_adults_A_non-randomized_controlled_pilot_study/12120105</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0236426</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.11807658.v1</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0239210</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Anonymized_data_of_the_patients_/13051631</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0239853</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12967106.v1</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0242197</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/S1_File_-/13249124</t>
+  </si>
+  <si>
+    <t>10.7554/elife.48401</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.8312807</t>
+  </si>
+  <si>
+    <t>10.1523/jneurosci.2189-17.2017</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.5726845.v1</t>
+  </si>
+  <si>
+    <t>10.1098/rsif.2018.0220</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.7110836.v1</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0235716</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Minimal_data_set_SPSS_file_with_age_mPAP_diameter_of_the_aorta_diamAo_and_the_pulmonary_artery_diamPA_and_PA_A_PA_to_Ao_/12615088</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0211001</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Trauma_induced_acute_kidney_injury/7632995</t>
+  </si>
+  <si>
+    <t>10.1158/1078-0432.ccr-19-1954</t>
+  </si>
+  <si>
+    <t>https://github.com/tkarn/G5-RNA-Seq/blob/master/Signature_GeneList.xlsx</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>10.1111/febs.15608</t>
+  </si>
+  <si>
+    <t>https://github.com/scitedotai/research-wikipedia/tree/master/Data</t>
+  </si>
+  <si>
+    <t>10.1021/acs.jcim.0c00815</t>
+  </si>
+  <si>
+    <t>https://github.com/choderalab/selectivity/tree/master/fep/fep_maps</t>
+  </si>
+  <si>
+    <t>10.3389/fneur.2020.00381</t>
+  </si>
+  <si>
+    <t>https://github.com/ahmedaak/BD_scan-shortening</t>
+  </si>
+  <si>
+    <t>10.1002/mrm.28307</t>
+  </si>
+  <si>
+    <t>https://github.com/pramosdelgado/B1correction-toolkit</t>
+  </si>
+  <si>
+    <t>10.1021/acs.jcim.0c00839</t>
+  </si>
+  <si>
+    <t>https://github.com/volkamerlab/KinFragLib/tree/master/data</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2314-9</t>
+  </si>
+  <si>
+    <t>https://github.com/poldrack/narps/tree/master/ImageAnalyses</t>
+  </si>
+  <si>
+    <t>10.1093/nar/gkaa1198</t>
+  </si>
+  <si>
+    <t>https://github.com/juzb/CASANOVA-C3/tree/master/output/CN-C3</t>
+  </si>
+  <si>
+    <t>10.3389/fcvm.2020.599923</t>
+  </si>
+  <si>
+    <t>https://github.com/lorfas74/random-shuffle</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-19449-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7910/DVN/LL3C1R</t>
+  </si>
+  <si>
+    <t>harvard dataverse</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-019-56416-9</t>
+  </si>
+  <si>
+    <t>https://data.mendeley.com/datasets/sj5cms7fky/1</t>
+  </si>
+  <si>
+    <t>mendeley data</t>
+  </si>
+  <si>
+    <t>10.1016/j.cell.2020.08.001</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/hwxhw2sxys.1</t>
+  </si>
+  <si>
+    <t>CC-BY-NC</t>
+  </si>
+  <si>
+    <t>10.1016/j.cell.2020.09.049</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/f6tb3csgjt.1</t>
+  </si>
+  <si>
+    <t>10.1016/j.isci.2020.101539</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/25cnynmzx6.1</t>
+  </si>
+  <si>
+    <t>10.1038/s41597-020-0487-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/nr7cs764rc.1</t>
+  </si>
+  <si>
+    <t>10.1093/braincomms/fcaa021</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/nrj467zmj2.1</t>
+  </si>
+  <si>
+    <t>10.1186/s13104-020-05248-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/9dkwv5w9b3.1</t>
+  </si>
+  <si>
+    <t>10.1111/medu.14057</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/UHJAD</t>
+  </si>
+  <si>
+    <t>osf</t>
+  </si>
+  <si>
+    <t>10.1093/gigascience/giaa052</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/M8E6Z</t>
+  </si>
+  <si>
+    <t>10.1016/j.jclinepi.2020.09.022</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/PTJBN</t>
+  </si>
+  <si>
+    <t>10.1152/jn.00164.2020</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/ECMA4</t>
+  </si>
+  <si>
+    <t>10.3389/fnbeh.2020.00088</t>
+  </si>
+  <si>
+    <t>https://osf.io/n85sh/</t>
+  </si>
+  <si>
+    <t>https://osf.io/dv85n/</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0226843</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/XSBHW</t>
+  </si>
+  <si>
+    <t>10.1098/rsos.190806</t>
+  </si>
+  <si>
+    <t>https://osf.io/3d5um/</t>
+  </si>
+  <si>
+    <t>10.1523/eneuro.0537-19.2020</t>
+  </si>
+  <si>
+    <t>https://osf.io/3x95n/</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0226893</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6847218</t>
+  </si>
+  <si>
+    <t>10.1525/collabra.267</t>
+  </si>
+  <si>
+    <t>https://osf.io/48fhe</t>
+  </si>
+  <si>
+    <t>10.1001/jamanetworkopen.2020.32335</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/W6DF5</t>
+  </si>
+  <si>
+    <t>10.1007/s11948-020-00234-0</t>
+  </si>
+  <si>
+    <t>https://osf.io/cq3s9/</t>
+  </si>
+  <si>
+    <t>10.1111/jne.12923</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.17605/OSF.IO/UXNC5</t>
+  </si>
+  <si>
+    <t>10.1136/bmjopen-2019-034666</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/8XZ29</t>
+  </si>
+  <si>
+    <t>10.12688/f1000research.26707.2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/GPMNA</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0232666</t>
+  </si>
+  <si>
+    <t>https://osf.io/qp5cm/</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0233608</t>
+  </si>
+  <si>
+    <t>https://osf.io/turzf</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0237093</t>
+  </si>
+  <si>
+    <t>https://osf.io/6frp5/</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0239598</t>
+  </si>
+  <si>
+    <t>https://osf.io/a43ut/</t>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2020.02021</t>
+  </si>
+  <si>
+    <t>https://osf.io/h564u/</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.03.078</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25534/tudatalib-158</t>
+  </si>
+  <si>
+    <t>tu datalib</t>
+  </si>
+  <si>
+    <t>10.1186/s40635-019-0284-8</t>
+  </si>
+  <si>
+    <t>https://www.zenodo.org/record/3378028</t>
+  </si>
+  <si>
+    <t>zenodo</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0227955</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.9999/journal.pone.0201548</t>
+  </si>
+  <si>
+    <t>10.1186/s40658-020-0270-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.3373973</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pbio.3000792</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.3876533</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0227178</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.3601477</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0231302</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.3737549</t>
+  </si>
+  <si>
+    <t>10.3390/cancers12113138</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.5281/zenodo.4009499</t>
+  </si>
+  <si>
+    <t>https://www.addgene.org/137191/</t>
+  </si>
+  <si>
+    <t>addgene</t>
+  </si>
+  <si>
+    <t>field-specific repository</t>
+  </si>
+  <si>
+    <t>10.1038/s42003-020-01167-x</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8508/</t>
+  </si>
+  <si>
+    <t>array-express</t>
+  </si>
+  <si>
+    <t>10.1002/ijc.33456</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7680/</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-14466-y</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-3013/</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-20222-z</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8152/</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-019-57076-5</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6713/</t>
+  </si>
+  <si>
+    <t>10.1158/2159-8290.cd-19-1030</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7802/</t>
+  </si>
+  <si>
+    <t>10.3389/fimmu.2020.586124</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-9642/</t>
+  </si>
+  <si>
+    <t>10.3389/fonc.2020.00747</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6316/</t>
+  </si>
+  <si>
+    <t>10.1128/mra.00797-20</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12181074</t>
+  </si>
+  <si>
+    <t>bioproject</t>
+  </si>
+  <si>
+    <t>10.1158/0008-5472.can-20-1998</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR7829659</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-19452-y</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11467537</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2294-9</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11426414</t>
+  </si>
+  <si>
+    <t>10.1038/s41591-020-0801-z</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10484371</t>
+  </si>
+  <si>
+    <t>10.1200/jco.20.01164</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT01849874</t>
+  </si>
+  <si>
+    <t>clinicaltrials.gov</t>
+  </si>
+  <si>
+    <t>10.1186/s12859-020-03741-w</t>
+  </si>
+  <si>
+    <t>https://codeocean.com/capsule/9813295/tree/v2</t>
+  </si>
+  <si>
+    <t>codeocean</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.24433/CO.1724316.v1</t>
+  </si>
+  <si>
+    <t>other license</t>
+  </si>
+  <si>
+    <t>https://codeocean.com/capsule/6259283/tree/v4</t>
+  </si>
+  <si>
+    <t>10.1016/j.cell.2020.10.036</t>
+  </si>
+  <si>
+    <t>https://cptac-data-portal.georgetown.edu/study-summary/S060</t>
+  </si>
+  <si>
+    <t>cptac data portal</t>
+  </si>
+  <si>
+    <t>10.1038/s41588-019-0564-y</t>
+  </si>
+  <si>
+    <t>https://dcc.icgc.org/releases/PCAWG</t>
+  </si>
+  <si>
+    <t>dcc</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-019-13983-9</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-019-13929-1</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-17359-2</t>
+  </si>
+  <si>
+    <t>https://dcc.icgc.org/releases/PCAWG/consensus_snv_indel</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-019-13824-9</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-14367-0</t>
+  </si>
+  <si>
+    <t>https://dcc.icgc.org/releases/PCAWG/networks</t>
+  </si>
+  <si>
+    <t>10.1038/s41588-019-0576-7</t>
+  </si>
+  <si>
+    <t>10.1016/j.ajhg.2020.04.016</t>
+  </si>
+  <si>
+    <t>https://www.deciphergenomics.org/patient/412419/overview/general</t>
+  </si>
+  <si>
+    <t>decipher</t>
+  </si>
+  <si>
+    <t>10.1371/journal.ppat.1008263</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pdbe/entry/emdb/EMD-10045</t>
+  </si>
+  <si>
+    <t>emdb</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.108157</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/emdb/EMD-0270</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.2004563117</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/emdb/entry/EMD-11678</t>
+  </si>
+  <si>
+    <t>10.1126/science.abd1673</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/emdb/EMD-11087</t>
+  </si>
+  <si>
+    <t>10.3389/fcimb.2020.00167</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB35812</t>
+  </si>
+  <si>
+    <t>ena</t>
+  </si>
+  <si>
+    <t>10.1053/j.gastro.2020.03.017</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB20400</t>
+  </si>
+  <si>
+    <t>10.1038/s41556-020-0488-x</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/LS482294</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-19589-w</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB37249</t>
+  </si>
+  <si>
+    <t>10.1128/msphere.00598-20</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJNA657829</t>
+  </si>
+  <si>
+    <t>10.1093/jac/dkaa271</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB28593</t>
+  </si>
+  <si>
+    <t>10.1186/s13072-020-00345-9</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb27665?show=reads</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2269-x</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB37249?show=reads</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2797-4</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB39602?show=reads</t>
+  </si>
+  <si>
+    <t>10.1111/all.14322</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB37836?show=reads</t>
+  </si>
+  <si>
+    <t>10.1126/sciadv.abb4565</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB34111?show=reads</t>
+  </si>
+  <si>
+    <t>10.1126/science.aba9411</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb36265</t>
+  </si>
+  <si>
+    <t>10.1136/gutjnl-2018-317856</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/data/view/PRJEB34637</t>
+  </si>
+  <si>
+    <t>10.1186/s13756-020-0696-y</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB36565</t>
+  </si>
+  <si>
+    <t>10.1242/bio.044222</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB27665?show=reads</t>
+  </si>
+  <si>
+    <t>10.7554/elife.51243</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/data/view/PRJEB2600</t>
+  </si>
+  <si>
+    <t>https://ega-archive.org/datasets/EGAD00001006550/files</t>
+  </si>
+  <si>
+    <t>european genome-phenome archive</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-14351-8</t>
+  </si>
+  <si>
+    <t>https://ega-archive.org/datasets/EGAD00001001343/files</t>
+  </si>
+  <si>
+    <t>https://ega-archive.org/datasets/EGAD00001005247/files</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2598-9</t>
+  </si>
+  <si>
+    <t>http://flowrepository.org/id/FR-FCM-Z2K3</t>
+  </si>
+  <si>
+    <t>flowrepository</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE116694</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.108184</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149371</t>
+  </si>
+  <si>
+    <t>10.1111/nan.12655</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE127255</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-58668-2</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107998</t>
+  </si>
+  <si>
+    <t>10.7554/elife.52549</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143867</t>
+  </si>
+  <si>
+    <t>10.3324/haematol.2019.235291</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE98946</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-019-13960-2</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE128837</t>
+  </si>
+  <si>
+    <t>10.1093/nar/gkaa1089</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147270</t>
+  </si>
+  <si>
+    <t>10.1111/ajt.16161</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124203</t>
+  </si>
+  <si>
+    <t>10.3390/cells9010186</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE138532</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-019-57108-0</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE94916</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.01.044</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107937</t>
+  </si>
+  <si>
+    <t>10.1126/science.aaz2582</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse120589</t>
+  </si>
+  <si>
+    <t>10.1038/s41375-020-0839-4</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse146173</t>
+  </si>
+  <si>
+    <t>10.1002/1878-0261.12835</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE119423</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136264</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.108533</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160524</t>
+  </si>
+  <si>
+    <t>10.1158/2159-8290.cd-20-1202</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse134092</t>
+  </si>
+  <si>
+    <t>10.1038/s41596-020-0333-5</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE142696</t>
+  </si>
+  <si>
+    <t>10.1172/jci138760</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE151285</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-019-56994-8</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124719</t>
+  </si>
+  <si>
+    <t>10.1002/eji.202048797</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160097</t>
+  </si>
+  <si>
+    <t>10.1007/s00401-020-02250-7</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70678</t>
+  </si>
+  <si>
+    <t>10.1016/j.cell.2020.07.038</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129978</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147259</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.107652</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134131</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.107982</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107206</t>
+  </si>
+  <si>
+    <t>10.1016/j.cels.2020.10.001</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134869</t>
+  </si>
+  <si>
+    <t>10.1016/j.ebiom.2020.102970</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148720</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143930</t>
+  </si>
+  <si>
+    <t>10.1016/j.stem.2020.07.018</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144273</t>
+  </si>
+  <si>
+    <t>10.1038/s41388-020-1198-3</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE121362</t>
+  </si>
+  <si>
+    <t>10.1038/s41416-020-0751-8</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE122399</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-14700-7</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE89461</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-14777-0</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124425</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-16009-x</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE77534</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-16244-2</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE120576</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-16464-6</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE140133</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-17467-z</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134753</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-19002-6</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE115103</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148394</t>
+  </si>
+  <si>
+    <t>10.1038/s41541-020-0177-6</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144542</t>
+  </si>
+  <si>
+    <t>10.1038/s41556-020-0529-5</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144397</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2882-8</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE125521</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2968-3</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123417</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-3018-x</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158731</t>
+  </si>
+  <si>
+    <t>10.1038/s41587-020-0469-4</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM3911434</t>
+  </si>
+  <si>
+    <t>10.1038/s41590-020-0707-4</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148405</t>
+  </si>
+  <si>
+    <t>10.1038/s41592-020-0965-y</t>
+  </si>
+  <si>
+    <t>10.1038/s41596-019-0251-6</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE109381</t>
+  </si>
+  <si>
+    <t>10.1038/s41596-020-0369-6</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88826</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-64431-4</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE55235</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-67872-z</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE111230</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.1920393117</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE101409</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.2002481117</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE150753</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.2008883117</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123593</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.2013542117</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158312</t>
+  </si>
+  <si>
+    <t>10.1084/jem.20190133</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143522</t>
+  </si>
+  <si>
+    <t>10.1084/jem.20191933</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129262</t>
+  </si>
+  <si>
+    <t>10.1084/jem.20200137</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141876</t>
+  </si>
+  <si>
+    <t>10.1093/nar/gkz1238</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE131255</t>
+  </si>
+  <si>
+    <t>10.1093/nargab/lqaa036</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145530</t>
+  </si>
+  <si>
+    <t>10.1126/science.aax5863</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129636</t>
+  </si>
+  <si>
+    <t>10.1126/science.aaz5875</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137515</t>
+  </si>
+  <si>
+    <t>10.1126/science.aba4937</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141175</t>
+  </si>
+  <si>
+    <t>10.1128/mbio.01911-20</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100656</t>
+  </si>
+  <si>
+    <t>10.1136/gutjnl-2020-321016</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE73338</t>
+  </si>
+  <si>
+    <t>10.1158/0008-5472.can-19-1493</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE126033</t>
+  </si>
+  <si>
+    <t>10.1158/1055-9965.epi-20-0739</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE155328</t>
+  </si>
+  <si>
+    <t>10.1161/circulationaha.119.042863</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149070</t>
+  </si>
+  <si>
+    <t>10.1161/circulationaha.119.044794</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145350</t>
+  </si>
+  <si>
+    <t>10.1164/rccm.201910-2063oc</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137421</t>
+  </si>
+  <si>
+    <t>10.1172/jci137786</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148669</t>
+  </si>
+  <si>
+    <t>10.1182/blood.2020005244</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141454</t>
+  </si>
+  <si>
+    <t>10.1186/s13041-020-00685-3</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88723</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pbio.3000722</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136662</t>
+  </si>
+  <si>
+    <t>10.1371/journal.ppat.1008461</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100928</t>
+  </si>
+  <si>
+    <t>10.18632/oncotarget.27636</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE133014</t>
+  </si>
+  <si>
+    <t>10.18632/oncotarget.27763</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE84713</t>
+  </si>
+  <si>
+    <t>10.26508/lsa.201900601</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147642</t>
+  </si>
+  <si>
+    <t>10.3389/fneur.2020.573560</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE61405</t>
+  </si>
+  <si>
+    <t>10.3389/fonc.2020.00599</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70458</t>
+  </si>
+  <si>
+    <t>10.3390/ijms21020373</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141217</t>
+  </si>
+  <si>
+    <t>10.3390/ijms21217944</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143796</t>
+  </si>
+  <si>
+    <t>10.3390/ijms21238898</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE161585</t>
+  </si>
+  <si>
+    <t>10.7554/elife.58659</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144682</t>
+  </si>
+  <si>
+    <t>10.1038/s41591-020-0908-2</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145594</t>
+  </si>
+  <si>
+    <t>10.1016/s0140-6736(20)30750-9</t>
+  </si>
+  <si>
+    <t>http://ghdx.healthdata.org/gbd-2019</t>
+  </si>
+  <si>
+    <t>ghdx</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.5524/100743</t>
+  </si>
+  <si>
+    <t>gigadb</t>
+  </si>
+  <si>
+    <t>10.1152/jn.00615.2019</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.12751/g-node.6953bb</t>
+  </si>
+  <si>
+    <t>gin</t>
+  </si>
+  <si>
+    <t>CC-BY-NC-SA</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0244148</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.12751/g-node.mb83iq</t>
+  </si>
+  <si>
+    <t>10.1242/jeb.206342</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.12751/g-node.87584d</t>
+  </si>
+  <si>
+    <t>10.1038/s41592-020-0884-y</t>
+  </si>
+  <si>
+    <t>https://submission.gpcrmd.org/home/</t>
+  </si>
+  <si>
+    <t>gpcrmd</t>
+  </si>
+  <si>
+    <t>10.1074/jbc.ra120.014890</t>
+  </si>
+  <si>
+    <t>https://massive.ucsd.edu/ProteoSAFe/dataset_files.jsp?task=e50e8f39be94497db47a71a45a3becaf#%7B%22table_sort_history%22%3A%22main.collection_asc%22%7D</t>
+  </si>
+  <si>
+    <t>massive</t>
+  </si>
+  <si>
+    <t>10.26508/lsa.202000700</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/metabolights/MTBLS186/files</t>
+  </si>
+  <si>
+    <t>metabolights</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/JACCFF010000001.1?report=fasta</t>
+  </si>
+  <si>
+    <t>ncbi nucleotide</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT711466.1</t>
+  </si>
+  <si>
+    <t>10.1093/ve/veaa033</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MH844500</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.01.070</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MN900952?report=genbank</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT108784</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT270825</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MW002770</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.2006750117</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MK598003</t>
+  </si>
+  <si>
+    <t>10.1093/brain/awaa346</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/NC_000005.10?report=graph&amp;mk=114404655|NC_000005.10\:g.114404655_114404658del|green</t>
+  </si>
+  <si>
+    <t>10.1038/s41437-020-0331-y</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT136926</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-17060-4</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MN175570</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-64159-1</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MG963186</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MN037882</t>
+  </si>
+  <si>
+    <t>10.3201/eid2612.200708</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT123530</t>
+  </si>
+  <si>
+    <t>10.1186/s42522-020-00018-3</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MN714358</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.18112/openneuro.ds001734.v1.0.4</t>
+  </si>
+  <si>
+    <t>openneuro</t>
+  </si>
+  <si>
+    <t>https://openneuro.org/datasets/ds001734/versions/1.0.4</t>
+  </si>
+  <si>
+    <t>http://www.peptideatlas.org/PASS/PASS01250</t>
+  </si>
+  <si>
+    <t>peptideatlas</t>
+  </si>
+  <si>
+    <t>10.1158/0008-5472.can-20-0754</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-71899-7</t>
+  </si>
+  <si>
+    <t>http://www.peptideatlas.org/PASS/PASS01606</t>
+  </si>
+  <si>
+    <t>10.1038/s41597-020-0495-6</t>
+  </si>
+  <si>
+    <t>https://physionet.org/content/ptb-xl/1.0.1/</t>
+  </si>
+  <si>
+    <t>physionet</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD013167</t>
+  </si>
+  <si>
+    <t>pride</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD019123</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD020612</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD010370</t>
+  </si>
+  <si>
+    <t>10.1016/j.cels.2020.05.012</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD018874</t>
+  </si>
+  <si>
+    <t>10.1021/acs.jproteome.9b00714</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD014913</t>
+  </si>
+  <si>
+    <t>10.1038/s41389-020-0201-8</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD012523</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016341</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-15743-6</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD011129</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-16929-8</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD017341</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-18542-1</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016334</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD006921</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016782</t>
+  </si>
+  <si>
+    <t>10.1093/nar/gkaa681</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD011887</t>
+  </si>
+  <si>
+    <t>10.1126/sciadv.aay1109</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD013259</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD017530</t>
+  </si>
+  <si>
+    <t>10.1172/jci.insight.123862</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD009944</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.108235</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD021351</t>
+  </si>
+  <si>
+    <t>10.3389/fimmu.2020.00179</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.18430/m33czf</t>
+  </si>
+  <si>
+    <t>proteindiffraction</t>
+  </si>
+  <si>
+    <t>10.1021/acs.analchem.0c01273</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD019926</t>
+  </si>
+  <si>
+    <t>proteomexchange</t>
+  </si>
+  <si>
+    <t>10.4049/immunohorizons.2000006</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016211</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD010084</t>
+  </si>
+  <si>
+    <t>http://raeslab.org/software/BMIS/</t>
+  </si>
+  <si>
+    <t>raeslab</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-65744-0</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.108117</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10341086</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-14782-3</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/bioproject/?term=prjna437582</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pgen.1008651</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR8454256</t>
+  </si>
+  <si>
+    <t>10.1053/j.gastro.2020.07.005</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR13762768</t>
+  </si>
+  <si>
+    <t>10.1084/jem.20200275</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11462381</t>
+  </si>
+  <si>
+    <t>10.1111/jgh.15071</t>
+  </si>
+  <si>
+    <t>10.1002/eji.201948474</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11104128</t>
+  </si>
+  <si>
+    <t>10.1016/j.ebiom.2020.103009</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12567985</t>
+  </si>
+  <si>
+    <t>10.1016/j.jaci.2020.04.059</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR5010537</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6870406</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-67843-4</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=ERR3132486</t>
+  </si>
+  <si>
+    <t>10.1534/g3.120.401537</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11793881</t>
+  </si>
+  <si>
+    <t>10.3389/fmicb.2020.556793</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10048296</t>
+  </si>
+  <si>
+    <t>https://www.synapse.org/#!Synapse:syn7596712</t>
+  </si>
+  <si>
+    <t>synapse</t>
+  </si>
+  <si>
+    <t>10.1038/s41588-019-0562-0</t>
+  </si>
+  <si>
+    <t>https://www.synapse.org/#!Synapse:syn21052009</t>
+  </si>
+  <si>
+    <t>10.1126/science.abb3405</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6Y2E/pdb</t>
+  </si>
+  <si>
+    <t>wwpdb</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-15614-0</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.2210/pdb6tga/pdb</t>
+  </si>
+  <si>
+    <t>10.1021/acs.biochem.0c00053</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6G1Y/pdb</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6XKQ/pdb</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6RWK/pdb</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6HTQ/pdb</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-19321-8</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.2210/pdb6yga/pdb</t>
+  </si>
+  <si>
+    <t>10.1083/jcb.201902059</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6Q9M/pdb</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6Z9P/pdb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1855,6 +1862,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2136,14 +2152,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="255.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2194,7 +2213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2211,7 +2230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2228,7 +2247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2245,7 +2264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2262,7 +2281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2279,7 +2298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2296,7 +2315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2313,7 +2332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2330,7 +2349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2347,7 +2366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2364,7 +2383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2381,7 +2400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2398,7 +2417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2415,7 +2434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2432,7 +2451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2449,7 +2468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2466,7 +2485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2483,7 +2502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2500,7 +2519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2517,7 +2536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2534,7 +2553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2551,7 +2570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2568,7 +2587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2585,7 +2604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2602,7 +2621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -2619,7 +2638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2636,7 +2655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2653,7 +2672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2670,7 +2689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2687,7 +2706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2704,7 +2723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2721,7 +2740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2738,7 +2757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2755,7 +2774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2772,7 +2791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2789,7 +2808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -2806,7 +2825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -2823,7 +2842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -2840,7 +2859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -2857,7 +2876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -2874,7 +2893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -2891,7 +2910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -2908,7 +2927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -2925,7 +2944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -2942,7 +2961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -2959,7 +2978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -2976,7 +2995,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -2993,7 +3012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -3010,7 +3029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -3027,7 +3046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -3044,7 +3063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -3061,7 +3080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -3078,7 +3097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>124</v>
       </c>
@@ -3095,7 +3114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -3112,7 +3131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -3129,7 +3148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -3146,7 +3165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -3163,7 +3182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -3180,7 +3199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -3197,7 +3216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -3214,7 +3233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -3231,7 +3250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -3248,7 +3267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -3265,7 +3284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -3282,7 +3301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -3299,7 +3318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -3316,7 +3335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -3333,7 +3352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -3350,7 +3369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -3367,7 +3386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>157</v>
       </c>
@@ -3384,7 +3403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>159</v>
       </c>
@@ -3401,7 +3420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -3418,7 +3437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -3435,7 +3454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -3452,7 +3471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -3469,7 +3488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>171</v>
       </c>
@@ -3486,7 +3505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -3503,7 +3522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -3520,7 +3539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -3537,7 +3556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>179</v>
       </c>
@@ -3554,7 +3573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -3571,7 +3590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>184</v>
       </c>
@@ -3588,7 +3607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -3605,7 +3624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>189</v>
       </c>
@@ -3622,7 +3641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>191</v>
       </c>
@@ -3639,7 +3658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>193</v>
       </c>
@@ -3656,7 +3675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>195</v>
       </c>
@@ -3673,7 +3692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>197</v>
       </c>
@@ -3690,7 +3709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>199</v>
       </c>
@@ -3707,7 +3726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -3724,7 +3743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -3741,7 +3760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -3758,7 +3777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -3775,7 +3794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -3792,7 +3811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -3809,7 +3828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>215</v>
       </c>
@@ -3826,7 +3845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -3843,7 +3862,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>135</v>
       </c>
@@ -3860,7 +3879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>221</v>
       </c>
@@ -3877,7 +3896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>224</v>
       </c>
@@ -3894,7 +3913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>227</v>
       </c>
@@ -3911,7 +3930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>228</v>
       </c>
@@ -3928,7 +3947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -3945,7 +3964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>231</v>
       </c>
@@ -3962,7 +3981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -3979,7 +3998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -3996,7 +4015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>235</v>
       </c>
@@ -4013,7 +4032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -4030,7 +4049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>241</v>
       </c>
@@ -4047,7 +4066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>243</v>
       </c>
@@ -4064,7 +4083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>245</v>
       </c>
@@ -4081,7 +4100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -4098,7 +4117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>250</v>
       </c>
@@ -4115,7 +4134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>252</v>
       </c>
@@ -4132,7 +4151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>254</v>
       </c>
@@ -4149,7 +4168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>256</v>
       </c>
@@ -4166,7 +4185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>258</v>
       </c>
@@ -4183,7 +4202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>260</v>
       </c>
@@ -4200,7 +4219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>262</v>
       </c>
@@ -4217,7 +4236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>264</v>
       </c>
@@ -4234,7 +4253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>266</v>
       </c>
@@ -4251,7 +4270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>268</v>
       </c>
@@ -4268,7 +4287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>270</v>
       </c>
@@ -4285,7 +4304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>272</v>
       </c>
@@ -4302,7 +4321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>274</v>
       </c>
@@ -4319,7 +4338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>276</v>
       </c>
@@ -4336,7 +4355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>278</v>
       </c>
@@ -4353,7 +4372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>108</v>
       </c>
@@ -4370,7 +4389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>282</v>
       </c>
@@ -4387,7 +4406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>195</v>
       </c>
@@ -4404,7 +4423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>285</v>
       </c>
@@ -4421,7 +4440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>224</v>
       </c>
@@ -4438,7 +4457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>290</v>
       </c>
@@ -4455,7 +4474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>292</v>
       </c>
@@ -4472,7 +4491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>294</v>
       </c>
@@ -4489,7 +4508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>296</v>
       </c>
@@ -4506,7 +4525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>298</v>
       </c>
@@ -4523,7 +4542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>300</v>
       </c>
@@ -4540,7 +4559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>302</v>
       </c>
@@ -4557,7 +4576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>304</v>
       </c>
@@ -4574,7 +4593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>306</v>
       </c>
@@ -4591,7 +4610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>308</v>
       </c>
@@ -4608,7 +4627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>310</v>
       </c>
@@ -4625,7 +4644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>312</v>
       </c>
@@ -4642,7 +4661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>314</v>
       </c>
@@ -4659,7 +4678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>316</v>
       </c>
@@ -4676,7 +4695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>260</v>
       </c>
@@ -4693,7 +4712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>319</v>
       </c>
@@ -4710,7 +4729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>321</v>
       </c>
@@ -4727,7 +4746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>323</v>
       </c>
@@ -4744,7 +4763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>325</v>
       </c>
@@ -4761,7 +4780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>327</v>
       </c>
@@ -4778,7 +4797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>329</v>
       </c>
@@ -4795,7 +4814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>331</v>
       </c>
@@ -4812,7 +4831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>333</v>
       </c>
@@ -4829,7 +4848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -4846,7 +4865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>336</v>
       </c>
@@ -4863,7 +4882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>338</v>
       </c>
@@ -4880,7 +4899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>340</v>
       </c>
@@ -4897,7 +4916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>342</v>
       </c>
@@ -4914,7 +4933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>113</v>
       </c>
@@ -4931,7 +4950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>345</v>
       </c>
@@ -4948,7 +4967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>347</v>
       </c>
@@ -4965,7 +4984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>349</v>
       </c>
@@ -4982,7 +5001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>351</v>
       </c>
@@ -4999,7 +5018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>353</v>
       </c>
@@ -5016,7 +5035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>355</v>
       </c>
@@ -5033,7 +5052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>357</v>
       </c>
@@ -5050,7 +5069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>359</v>
       </c>
@@ -5067,7 +5086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>361</v>
       </c>
@@ -5084,7 +5103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>363</v>
       </c>
@@ -5101,7 +5120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -5118,7 +5137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>366</v>
       </c>
@@ -5135,7 +5154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>368</v>
       </c>
@@ -5152,7 +5171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>370</v>
       </c>
@@ -5169,7 +5188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>372</v>
       </c>
@@ -5186,7 +5205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>374</v>
       </c>
@@ -5203,7 +5222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>376</v>
       </c>
@@ -5220,7 +5239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>378</v>
       </c>
@@ -5237,7 +5256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>380</v>
       </c>
@@ -5254,7 +5273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>381</v>
       </c>
@@ -5271,7 +5290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>383</v>
       </c>
@@ -5288,7 +5307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>385</v>
       </c>
@@ -5305,7 +5324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>387</v>
       </c>
@@ -5322,7 +5341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>389</v>
       </c>
@@ -5339,7 +5358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>391</v>
       </c>
@@ -5356,7 +5375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>393</v>
       </c>
@@ -5373,7 +5392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>395</v>
       </c>
@@ -5390,7 +5409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>397</v>
       </c>
@@ -5407,7 +5426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>399</v>
       </c>
@@ -5424,7 +5443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>401</v>
       </c>
@@ -5441,7 +5460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>403</v>
       </c>
@@ -5458,7 +5477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>405</v>
       </c>
@@ -5475,7 +5494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>407</v>
       </c>
@@ -5492,7 +5511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>409</v>
       </c>
@@ -5509,7 +5528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>411</v>
       </c>
@@ -5526,7 +5545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>413</v>
       </c>
@@ -5543,7 +5562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>272</v>
       </c>
@@ -5560,7 +5579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>415</v>
       </c>
@@ -5577,7 +5596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>417</v>
       </c>
@@ -5594,7 +5613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>419</v>
       </c>
@@ -5611,7 +5630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>421</v>
       </c>
@@ -5628,7 +5647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>423</v>
       </c>
@@ -5645,7 +5664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>425</v>
       </c>
@@ -5662,7 +5681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>427</v>
       </c>
@@ -5679,7 +5698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>429</v>
       </c>
@@ -5696,7 +5715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>431</v>
       </c>
@@ -5713,7 +5732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>433</v>
       </c>
@@ -5730,7 +5749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>435</v>
       </c>
@@ -5747,7 +5766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>437</v>
       </c>
@@ -5764,7 +5783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>439</v>
       </c>
@@ -5781,7 +5800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>441</v>
       </c>
@@ -5798,7 +5817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>443</v>
       </c>
@@ -5815,7 +5834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>445</v>
       </c>
@@ -5832,7 +5851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>447</v>
       </c>
@@ -5849,7 +5868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>449</v>
       </c>
@@ -5866,7 +5885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>451</v>
       </c>
@@ -5883,7 +5902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>453</v>
       </c>
@@ -5900,7 +5919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>455</v>
       </c>
@@ -5917,7 +5936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>457</v>
       </c>
@@ -5934,7 +5953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>124</v>
       </c>
@@ -5951,7 +5970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>462</v>
       </c>
@@ -5968,7 +5987,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>466</v>
       </c>
@@ -5985,7 +6004,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>468</v>
       </c>
@@ -6002,7 +6021,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>470</v>
       </c>
@@ -6019,7 +6038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>473</v>
       </c>
@@ -6036,7 +6055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>476</v>
       </c>
@@ -6053,7 +6072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>201</v>
       </c>
@@ -6070,7 +6089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -6087,7 +6106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>482</v>
       </c>
@@ -6104,7 +6123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>484</v>
       </c>
@@ -6121,7 +6140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>208</v>
       </c>
@@ -6138,7 +6157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>256</v>
       </c>
@@ -6155,7 +6174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>111</v>
       </c>
@@ -6172,7 +6191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>489</v>
       </c>
@@ -6189,7 +6208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>491</v>
       </c>
@@ -6206,7 +6225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>493</v>
       </c>
@@ -6223,7 +6242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>495</v>
       </c>
@@ -6240,7 +6259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>497</v>
       </c>
@@ -6257,7 +6276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>431</v>
       </c>
@@ -6274,7 +6293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>500</v>
       </c>
@@ -6291,7 +6310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>502</v>
       </c>
@@ -6308,7 +6327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>96</v>
       </c>
@@ -6325,7 +6344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>96</v>
       </c>
@@ -6342,7 +6361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>204</v>
       </c>
@@ -6359,7 +6378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>509</v>
       </c>
@@ -6376,7 +6395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>510</v>
       </c>
@@ -6393,7 +6412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>512</v>
       </c>
@@ -6410,7 +6429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>300</v>
       </c>
@@ -6427,7 +6446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>509</v>
       </c>
@@ -6444,7 +6463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>319</v>
       </c>
@@ -6461,7 +6480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>336</v>
       </c>
@@ -6478,7 +6497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>520</v>
       </c>
@@ -6495,7 +6514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>522</v>
       </c>
@@ -6512,7 +6531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>524</v>
       </c>
@@ -6529,7 +6548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>51</v>
       </c>
@@ -6546,7 +6565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>527</v>
       </c>
@@ -6563,7 +6582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>529</v>
       </c>
@@ -6580,7 +6599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>531</v>
       </c>
@@ -6597,7 +6616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>372</v>
       </c>
@@ -6614,7 +6633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>115</v>
       </c>
@@ -6631,7 +6650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>535</v>
       </c>
@@ -6648,7 +6667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>537</v>
       </c>
@@ -6665,7 +6684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>423</v>
       </c>
@@ -6682,7 +6701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>540</v>
       </c>
@@ -6699,7 +6718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>542</v>
       </c>
@@ -6716,7 +6735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>544</v>
       </c>
@@ -6733,7 +6752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>547</v>
       </c>
@@ -6750,7 +6769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>204</v>
       </c>
@@ -6767,7 +6786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>550</v>
       </c>
@@ -6784,7 +6803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>252</v>
       </c>
@@ -6801,7 +6820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>262</v>
       </c>
@@ -6818,7 +6837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>555</v>
       </c>
@@ -6835,7 +6854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>509</v>
       </c>
@@ -6852,7 +6871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>557</v>
       </c>
@@ -6869,7 +6888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>559</v>
       </c>
@@ -6886,7 +6905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>561</v>
       </c>
@@ -6903,7 +6922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>563</v>
       </c>
@@ -6920,7 +6939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>565</v>
       </c>
@@ -6937,7 +6956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>567</v>
       </c>
@@ -6954,7 +6973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>568</v>
       </c>
@@ -6971,7 +6990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>570</v>
       </c>
@@ -6988,7 +7007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>572</v>
       </c>
@@ -7005,7 +7024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>368</v>
       </c>
@@ -7022,7 +7041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>575</v>
       </c>
@@ -7039,7 +7058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>577</v>
       </c>
@@ -7056,7 +7075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>579</v>
       </c>
@@ -7073,7 +7092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>224</v>
       </c>
@@ -7090,7 +7109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>282</v>
       </c>
@@ -7107,7 +7126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>583</v>
       </c>
@@ -7124,7 +7143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>585</v>
       </c>
@@ -7141,7 +7160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>588</v>
       </c>
@@ -7158,7 +7177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>590</v>
       </c>
@@ -7175,7 +7194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>111</v>
       </c>
@@ -7192,7 +7211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>238</v>
       </c>
@@ -7209,7 +7228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>241</v>
       </c>
@@ -7226,7 +7245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>595</v>
       </c>
@@ -7243,7 +7262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>597</v>
       </c>
@@ -7260,7 +7279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>245</v>
       </c>
@@ -7279,6 +7298,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output/licenses_2020.xlsx
+++ b/output/licenses_2020.xlsx
@@ -1,1950 +1,1963 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24818"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E88293383C4964081FD3BD1A0AB804FCFA5FF4A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="licenses_2020" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="licenses_2020" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="642">
-  <si>
-    <t xml:space="preserve">article</t>
-  </si>
-  <si>
-    <t xml:space="preserve">best_identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guid_fuji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repository_re3data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repository_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_license_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">license_fuji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">license_fair_enough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1136/bmjopen-2019-032864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5061/dryad.4tmpg4f5f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRYAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general-purpose repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7554/elife.51156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5061/dryad.gt160v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0229661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Measuring_childhood_maltreatment_Psychometric_properties_of_the_Norwegian_version_of_the_Maltreatment_and_Abuse_Chronology_of_Exposure_MACE_scale/11910426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0229661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">figshare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache License 2.0_AND_BSD_AND_CC_AND_CC0_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s13073-020-00771-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12845697.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s12917-020-02606-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12830405.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0237944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Complete_data_set_of_questionnaires_/12836445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0237944.s001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s12866-020-01741-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12127476.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s13293-020-00313-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12617808.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0229260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Virus-associated_anterior_uveitis_and_secondary_glaucoma_Diagnostics_clinical_characteristics_and_surgical_options/11893245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0229260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0243711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/S1_File_-/13362405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0243711.s001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s12916-019-1478-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.11665131.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pmed.1003074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Association_of_suicidal_behavior_with_exposure_to_suicide_and_suicide_attempt_A_systematic_review_and_multilevel_meta-analysis/12054234?file=22151703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pmed.1003074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0226443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Attitudes_towards_animal_study_registries_and_their_characteristics_An_online_survey_of_three_cohorts_of_animal_researchers/11528676?file=20702688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0226443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0228538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/_Wonderful_We_ve_just_missed_the_bus__Parental_use_of_irony_and_children_s_irony_comprehension/11884272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0228538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0228736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Prognostic_value_of_the_myocardial_salvage_index_measured_by_T2-weighted_and_T1-weighted_late_gadolinium_enhancement_magnetic_resonance_imaging_after_ST-segment_elevation_myocardial_infarction_A_systematic_review_and_meta-regression_analysi/11851431?file=21722040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0228736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0241480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/S1_Dataset_-/13177655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0241480.s001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s12885-020-07062-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12607277.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41597-020-00597-w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.c.4869732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.108470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.13154321.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021/acs.analchem.0c00136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/12668465?backTo=/collections/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/5066000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/acs.analchem.0c00136.s001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-019-13984-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.11117669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-18084-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12678938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-18826-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12770366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-60755-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.9585410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-78722-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12901682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1098/rspb.2019.2228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.c.4795809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0231299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Yoga_in_school_sports_improves_functioning_of_autonomic_nervous_system_in_young_adults_A_non-randomized_controlled_pilot_study/12120105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0231299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0236426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.11807658.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0239210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Anonymized_data_of_the_patients_/13051631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0239210.s001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0239853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12967106.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0242197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/S1_File_-/13249124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0242197.s001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7554/elife.48401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.8312807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1523/jneurosci.2189-17.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.5726845.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1098/rsif.2018.0220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.7110836.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0235716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Minimal_data_set_SPSS_file_with_age_mPAP_diameter_of_the_aorta_diamAo_and_the_pulmonary_artery_diamPA_and_PA_A_PA_to_Ao_/12615088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0235716.s001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0211001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://figshare.com/articles/dataset/Trauma_induced_acute_kidney_injury/7632995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0211001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/1078-0432.ccr-19-1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/tkarn/G5-RNA-Seq/blob/master/Signature_GeneList.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/febs.15608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/scitedotai/research-wikipedia/tree/master/Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021/acs.jcim.0c00815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/choderalab/selectivity/tree/master/fep/fep_maps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fneur.2020.00381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/ahmedaak/BD_scan-shortening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1002/mrm.28307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/pramosdelgado/B1correction-toolkit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021/acs.jcim.0c00839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/volkamerlab/KinFragLib/tree/master/data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2314-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/poldrack/narps/tree/master/ImageAnalyses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gkaa1198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/juzb/CASANOVA-C3/tree/master/output/CN-C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fcvm.2020.599923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/lorfas74/random-shuffle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-19449-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.7910/DVN/LL3C1R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvard Dataverse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-019-56416-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://data.mendeley.com/datasets/sj5cms7fky/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dx.doi.org/10.17632/sj5cms7fky.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendeley Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC_AND_CC0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cell.2020.08.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17632/hwxhw2sxys.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-BY-NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cell.2020.09.049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17632/f6tb3csgjt.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.isci.2020.101539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17632/25cnynmzx6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41597-020-0487-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17632/nr7cs764rc.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/braincomms/fcaa021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17632/nrj467zmj2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s13104-020-05248-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17632/9dkwv5w9b3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/medu.14057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/UHJAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Science Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/gigascience/giaa052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/M8E6Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.jclinepi.2020.09.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/PTJBN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1152/jn.00164.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/ECMA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fnbeh.2020.00088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/n85sh/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/dv85n/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0226843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/XSBHW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1098/rsos.190806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/3d5um/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/u9fw8/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1523/eneuro.0537-19.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/3x95n/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0226893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6847218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1525/collabra.267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/48fhe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1001/jamanetworkopen.2020.32335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/W6DF5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1007/s11948-020-00234-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/cq3s9/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/qak8e/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/jne.12923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.17605/OSF.IO/UXNC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1136/bmjopen-2019-034666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/8XZ29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.12688/f1000research.26707.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/GPMNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/qp5cm/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0233608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/turzf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0237093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/6frp5/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0239598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/a43ut/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fpsyg.2020.02021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/h564u/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.03.078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.25534/tudatalib-158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUdatalib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache License 2.0_AND_CC_AND_ODC_AND_Public Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s40635-019-0284-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zenodo.org/record/3378028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3378028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zenodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC_AND_CC0_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0227955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zenodo.org/record/3603309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s40658-020-0270-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3373973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pbio.3000792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3876533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0227178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3601477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0231302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3390/cancers12113138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.5281/zenodo.4009499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.addgene.org/137191/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addgene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-specific repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s42003-020-01167-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8508/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArrayExpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Domain_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1002/ijc.33456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7680/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-14466-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-3013/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-20222-z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8152/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-019-57076-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6713/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/2159-8290.cd-19-1030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7802/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fimmu.2020.586124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-9642/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fonc.2020.00747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6316/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1128/mra.00797-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12181074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyrights_AND_Public Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/0008-5472.can-20-1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR7829659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-19452-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11467537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-65744-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2294-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11426414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41591-020-0801-z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10484371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/0008-5472.can-20-0754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cell.2020.10.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cptac-data-portal.georgetown.edu/study-summary/S060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinical Proteomic Tumor Analysis Consortium Data Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1200/jco.20.01164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://clinicaltrials.gov/ct2/show/NCT01849874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClinicalTrials.gov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyrights_AND_Public Domain_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s12859-020-03741-w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codeocean.com/capsule/9813295/tree/v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0_AND_Copyrights_AND_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.24433/CO.1724316.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-BY-NC-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codeocean.com/capsule/6259283/tree/v4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41588-019-0564-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dcc.icgc.org/releases/PCAWG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-019-13983-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-019-13929-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-17359-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dcc.icgc.org/releases/PCAWG/consensus_snv_indel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-019-13824-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-14367-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dcc.icgc.org/releases/PCAWG/networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41588-019-0576-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.ajhg.2020.04.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.deciphergenomics.org/patient/412419/overview/general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decipher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fcimb.2020.00167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB35812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Nucleotide Archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1053/j.gastro.2020.03.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB20400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41556-020-0488-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/LS482294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-19589-w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB37249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1128/msphere.00598-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJNA657829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/jac/dkaa271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB28593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s13072-020-00345-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/prjeb27665?show=reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2269-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB37249?show=reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2797-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB39602?show=reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/all.14322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB37836?show=reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/sciadv.abb4565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB34111?show=reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.aba9411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/prjeb36265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1136/gutjnl-2018-317856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/data/view/PRJEB34637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s13756-020-0696-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB36565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1242/bio.044222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB27665?show=reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7554/elife.51243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/ena/data/view/PRJEB2600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2598-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://flowrepository.org/id/FR-FCM-Z2K3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FlowRepository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE116694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene Expression Omnibus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyrights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.108184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/nan.12655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE127255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-58668-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7554/elife.52549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3324/haematol.2019.235291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE98946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-019-13960-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE128837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gkaa1089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/ajt.16161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3390/cells9010186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE138532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-019-57108-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE94916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.01.044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.aaz2582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse120589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41375-020-0839-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse146173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1002/1878-0261.12835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE119423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.108533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/2159-8290.cd-20-1202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse134092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41596-020-0333-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE142696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1172/jci138760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE151285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-019-56994-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1002/eji.202048797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1007/s00401-020-02250-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cell.2020.07.038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.107652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.107982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cels.2020.10.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.ebiom.2020.102970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.stem.2020.07.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41388-020-1198-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE121362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41416-020-0751-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE122399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-14700-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE89461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-14777-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-16009-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE77534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-16244-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE120576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-16464-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE140133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-17467-z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-19002-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE115103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41541-020-0177-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41556-020-0529-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2882-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE125521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-2968-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41586-020-3018-x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41587-020-0469-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM3911434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41590-020-0707-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41592-020-0965-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41596-019-0251-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE109381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41596-020-0369-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-64431-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE55235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-67872-z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE111230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073/pnas.1920393117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE101409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073/pnas.2002481117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE150753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073/pnas.2008883117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073/pnas.2013542117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1084/jem.20190133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1084/jem.20191933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1084/jem.20200137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gkz1238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE131255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nargab/lqaa036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.aax5863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.aaz5875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.aba4937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1128/mbio.01911-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1136/gutjnl-2020-321016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE73338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/0008-5472.can-19-1493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE126033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1158/1055-9965.epi-20-0739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE155328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1161/circulationaha.119.042863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1161/circulationaha.119.044794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1164/rccm.201910-2063oc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1172/jci137786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1182/blood.2020005244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s13041-020-00685-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pbio.3000722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.ppat.1008461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.18632/oncotarget.27636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE133014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.18632/oncotarget.27763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE84713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.26508/lsa.201900601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fneur.2020.573560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE61405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fonc.2020.00599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3390/ijms21020373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3390/ijms21217944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3390/ijms21238898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE161585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7554/elife.58659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41591-020-0908-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dx.doi.org/10.5524/100743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GigaDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC_AND_Public Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1152/jn.00615.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.12751/g-node.6953bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-BY-NC-SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pone.0244148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.12751/g-node.mb83iq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1242/jeb.206342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.12751/g-node.87584d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-BY-SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/s0140-6736(20)30750-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ghdx.healthdata.org/gbd-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Health Data Exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41592-020-0884-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://submission.gpcrmd.org/home/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gpcrmd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1074/jbc.ra120.014890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://massive.ucsd.edu/ProteoSAFe/dataset_files.jsp?task=e50e8f39be94497db47a71a45a3becaf#%7B%22table_sort_history%22%3A%22main.collection_asc%22%7D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Spectrometry Interactive Virtual Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.26508/lsa.202000700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/metabolights/MTBLS186/files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetaboLights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/JACCFF010000001.1?report=fasta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCBI Nucleotide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT711466.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/ve/veaa033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MH844500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.01.070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN900952?report=genbank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT108784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT270825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MW002770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073/pnas.2006750117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MK598003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/brain/awaa346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/NC_000005.10?report=graph&amp;mk=114404655|NC_000005.10\:g.114404655_114404658del|green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41437-020-0331-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT136926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-17060-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN175570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-64159-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MG963186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN037882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3201/eid2612.200708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT123530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1186/s42522-020-00018-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN714358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.18112/openneuro.ds001734.v1.0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenNeuro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC_AND_CC0_AND_ODC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openneuro.org/datasets/ds001734/versions/1.0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.peptideatlas.org/PASS/PASS01250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PeptideAtlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-71899-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.peptideatlas.org/PASS/PASS01606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41597-020-0495-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://physionet.org/content/ptb-xl/1.0.1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.13026/x4td-x982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhysioNet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fimmu.2020.00179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.18430/m33czf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proteindiffraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021/acs.analchem.0c01273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD019926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProteomeXchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD019123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4049/immunohorizons.2000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD010084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD013167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRoteomics IDEntifications Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD020612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD010370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.cels.2020.05.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD018874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021/acs.jproteome.9b00714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD014913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41389-020-0201-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD012523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-15743-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD011129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-16929-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD017341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-18542-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD006921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1093/nar/gkaa681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD011887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/sciadv.aay1109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD013259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD017530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1172/jci.insight.123862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD009944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.108235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD021351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://raeslab.org/software/BMIS/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raeslab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.108117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10341086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence Read Archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-14782-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/?term=prjna437582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.pgen.1008651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR8454256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1053/j.gastro.2020.07.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR13762768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1084/jem.20200275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11462381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111/jgh.15071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1002/eji.201948474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11104128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.ebiom.2020.103009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12567985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.jaci.2020.04.059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR5010537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6870406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41598-020-67843-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=ERR3132486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1534/g3.120.401537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11793881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3389/fmicb.2020.556793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10048296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.synapse.org/#!Synapse:syn7596712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-14351-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41588-019-0562-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.synapse.org/#!Synapse:syn21052009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1371/journal.ppat.1008263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/pdbe/entry/emdb/EMD-10045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Electron Microscopy Data Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.celrep.2020.108157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/emdb/EMD-0270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1073/pnas.2004563117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/emdb/entry/EMD-11678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.abd1673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebi.ac.uk/emdb/EMD-11087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ega-archive.org/datasets/EGAD00001006550/files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The European Genome-phenome Archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ega-archive.org/datasets/EGAD00001001343/files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ega-archive.org/datasets/EGAD00001005247/files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1126/science.abb3405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6Y2E/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worldwide Protein Data Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-15614-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dx.doi.org/10.2210/pdb6tga/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1021/acs.biochem.0c00053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6G1Y/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6XKQ/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6RWK/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6HTQ/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1038/s41467-020-19321-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dx.doi.org/10.2210/pdb6yga/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1083/jcb.201902059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6Q9M/pdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.2210/pdb6Z9P/pdb</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="642">
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>best_identifier</t>
+  </si>
+  <si>
+    <t>guid_fuji</t>
+  </si>
+  <si>
+    <t>repository_re3data</t>
+  </si>
+  <si>
+    <t>repository_type</t>
+  </si>
+  <si>
+    <t>data_license_name</t>
+  </si>
+  <si>
+    <t>license_fuji</t>
+  </si>
+  <si>
+    <t>license_fair_enough</t>
+  </si>
+  <si>
+    <t>10.1136/bmjopen-2019-032864</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5061/dryad.4tmpg4f5f</t>
+  </si>
+  <si>
+    <t>DRYAD</t>
+  </si>
+  <si>
+    <t>general-purpose repository</t>
+  </si>
+  <si>
+    <t>CC0_AND_other</t>
+  </si>
+  <si>
+    <t>Public Domain</t>
+  </si>
+  <si>
+    <t>10.7554/elife.51156</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5061/dryad.gt160v2</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0229661</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Measuring_childhood_maltreatment_Psychometric_properties_of_the_Norwegian_version_of_the_Maltreatment_and_Abuse_Chronology_of_Exposure_MACE_scale/11910426</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0229661</t>
+  </si>
+  <si>
+    <t>figshare</t>
+  </si>
+  <si>
+    <t>Apache License 2.0_AND_BSD_AND_CC_AND_CC0_AND_other</t>
+  </si>
+  <si>
+    <t>no license</t>
+  </si>
+  <si>
+    <t>10.1186/s13073-020-00771-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12845697.v1</t>
+  </si>
+  <si>
+    <t>CC-BY</t>
+  </si>
+  <si>
+    <t>10.1186/s12917-020-02606-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12830405.v1</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0237944</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Complete_data_set_of_questionnaires_/12836445</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0237944.s001</t>
+  </si>
+  <si>
+    <t>10.1186/s12866-020-01741-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12127476.v1</t>
+  </si>
+  <si>
+    <t>10.1186/s13293-020-00313-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12617808.v1</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0229260</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Virus-associated_anterior_uveitis_and_secondary_glaucoma_Diagnostics_clinical_characteristics_and_surgical_options/11893245</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0229260</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0243711</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/S1_File_-/13362405</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0243711.s001</t>
+  </si>
+  <si>
+    <t>10.1186/s12916-019-1478-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.11665131.v1</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pmed.1003074</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Association_of_suicidal_behavior_with_exposure_to_suicide_and_suicide_attempt_A_systematic_review_and_multilevel_meta-analysis/12054234?file=22151703</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pmed.1003074</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0226443</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Attitudes_towards_animal_study_registries_and_their_characteristics_An_online_survey_of_three_cohorts_of_animal_researchers/11528676?file=20702688</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0226443</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0228538</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/_Wonderful_We_ve_just_missed_the_bus__Parental_use_of_irony_and_children_s_irony_comprehension/11884272</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0228538</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0228736</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Prognostic_value_of_the_myocardial_salvage_index_measured_by_T2-weighted_and_T1-weighted_late_gadolinium_enhancement_magnetic_resonance_imaging_after_ST-segment_elevation_myocardial_infarction_A_systematic_review_and_meta-regression_analysi/11851431?file=21722040</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0228736</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0241480</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/S1_Dataset_-/13177655</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0241480.s001</t>
+  </si>
+  <si>
+    <t>10.1186/s12885-020-07062-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12607277.v1</t>
+  </si>
+  <si>
+    <t>10.1038/s41597-020-00597-w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.c.4869732</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.108470</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.13154321.v1</t>
+  </si>
+  <si>
+    <t>10.1021/acs.analchem.0c00136</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/12668465?backTo=/collections/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/5066000</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.analchem.0c00136.s001</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-019-13984-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.11117669</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-18084-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12678938</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-18826-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12770366</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-60755-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.9585410</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-78722-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12901682</t>
+  </si>
+  <si>
+    <t>10.1098/rspb.2019.2228</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.c.4795809</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0231299</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Yoga_in_school_sports_improves_functioning_of_autonomic_nervous_system_in_young_adults_A_non-randomized_controlled_pilot_study/12120105</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0231299</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0236426</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.11807658.v1</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0239210</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Anonymized_data_of_the_patients_/13051631</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0239210.s001</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0239853</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.12967106.v1</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0242197</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/S1_File_-/13249124</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0242197.s001</t>
+  </si>
+  <si>
+    <t>10.7554/elife.48401</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.8312807</t>
+  </si>
+  <si>
+    <t>10.1523/jneurosci.2189-17.2017</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.5726845.v1</t>
+  </si>
+  <si>
+    <t>10.1098/rsif.2018.0220</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.6084/m9.figshare.7110836.v1</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0235716</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Minimal_data_set_SPSS_file_with_age_mPAP_diameter_of_the_aorta_diamAo_and_the_pulmonary_artery_diamPA_and_PA_A_PA_to_Ao_/12615088</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0235716.s001</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0211001</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Trauma_induced_acute_kidney_injury/7632995</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0211001</t>
+  </si>
+  <si>
+    <t>10.1158/1078-0432.ccr-19-1954</t>
+  </si>
+  <si>
+    <t>https://github.com/tkarn/G5-RNA-Seq/blob/master/Signature_GeneList.xlsx</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>10.1111/febs.15608</t>
+  </si>
+  <si>
+    <t>https://github.com/scitedotai/research-wikipedia/tree/master/Data</t>
+  </si>
+  <si>
+    <t>10.1021/acs.jcim.0c00815</t>
+  </si>
+  <si>
+    <t>https://github.com/choderalab/selectivity/tree/master/fep/fep_maps</t>
+  </si>
+  <si>
+    <t>10.3389/fneur.2020.00381</t>
+  </si>
+  <si>
+    <t>https://github.com/ahmedaak/BD_scan-shortening</t>
+  </si>
+  <si>
+    <t>10.1002/mrm.28307</t>
+  </si>
+  <si>
+    <t>https://github.com/pramosdelgado/B1correction-toolkit</t>
+  </si>
+  <si>
+    <t>10.1021/acs.jcim.0c00839</t>
+  </si>
+  <si>
+    <t>https://github.com/volkamerlab/KinFragLib/tree/master/data</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2314-9</t>
+  </si>
+  <si>
+    <t>https://github.com/poldrack/narps/tree/master/ImageAnalyses</t>
+  </si>
+  <si>
+    <t>10.1093/nar/gkaa1198</t>
+  </si>
+  <si>
+    <t>https://github.com/juzb/CASANOVA-C3/tree/master/output/CN-C3</t>
+  </si>
+  <si>
+    <t>10.3389/fcvm.2020.599923</t>
+  </si>
+  <si>
+    <t>https://github.com/lorfas74/random-shuffle</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-19449-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7910/DVN/LL3C1R</t>
+  </si>
+  <si>
+    <t>Harvard Dataverse</t>
+  </si>
+  <si>
+    <t>CC0</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-019-56416-9</t>
+  </si>
+  <si>
+    <t>https://data.mendeley.com/datasets/sj5cms7fky/1</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.17632/sj5cms7fky.1</t>
+  </si>
+  <si>
+    <t>Mendeley Data</t>
+  </si>
+  <si>
+    <t>CC_AND_CC0</t>
+  </si>
+  <si>
+    <t>10.1016/j.cell.2020.08.001</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/hwxhw2sxys.1</t>
+  </si>
+  <si>
+    <t>CC-BY-NC</t>
+  </si>
+  <si>
+    <t>10.1016/j.cell.2020.09.049</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/f6tb3csgjt.1</t>
+  </si>
+  <si>
+    <t>10.1016/j.isci.2020.101539</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/25cnynmzx6.1</t>
+  </si>
+  <si>
+    <t>10.1038/s41597-020-0487-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/nr7cs764rc.1</t>
+  </si>
+  <si>
+    <t>10.1093/braincomms/fcaa021</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/nrj467zmj2.1</t>
+  </si>
+  <si>
+    <t>10.1186/s13104-020-05248-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/9dkwv5w9b3.1</t>
+  </si>
+  <si>
+    <t>10.1111/medu.14057</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/UHJAD</t>
+  </si>
+  <si>
+    <t>Open Science Framework</t>
+  </si>
+  <si>
+    <t>CC_AND_other</t>
+  </si>
+  <si>
+    <t>10.1093/gigascience/giaa052</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/M8E6Z</t>
+  </si>
+  <si>
+    <t>10.1016/j.jclinepi.2020.09.022</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/PTJBN</t>
+  </si>
+  <si>
+    <t>10.1152/jn.00164.2020</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/ECMA4</t>
+  </si>
+  <si>
+    <t>10.3389/fnbeh.2020.00088</t>
+  </si>
+  <si>
+    <t>https://osf.io/n85sh/</t>
+  </si>
+  <si>
+    <t>https://osf.io/dv85n/</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0226843</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/XSBHW</t>
+  </si>
+  <si>
+    <t>10.1098/rsos.190806</t>
+  </si>
+  <si>
+    <t>https://osf.io/3d5um/</t>
+  </si>
+  <si>
+    <t>https://osf.io/u9fw8/</t>
+  </si>
+  <si>
+    <t>10.1523/eneuro.0537-19.2020</t>
+  </si>
+  <si>
+    <t>https://osf.io/3x95n/</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0226893</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6847218</t>
+  </si>
+  <si>
+    <t>10.1525/collabra.267</t>
+  </si>
+  <si>
+    <t>https://osf.io/48fhe</t>
+  </si>
+  <si>
+    <t>10.1001/jamanetworkopen.2020.32335</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/W6DF5</t>
+  </si>
+  <si>
+    <t>10.1007/s11948-020-00234-0</t>
+  </si>
+  <si>
+    <t>https://osf.io/cq3s9/</t>
+  </si>
+  <si>
+    <t>https://osf.io/qak8e/</t>
+  </si>
+  <si>
+    <t>10.1111/jne.12923</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.17605/OSF.IO/UXNC5</t>
+  </si>
+  <si>
+    <t>10.1136/bmjopen-2019-034666</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/8XZ29</t>
+  </si>
+  <si>
+    <t>10.12688/f1000research.26707.2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/GPMNA</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0232666</t>
+  </si>
+  <si>
+    <t>https://osf.io/qp5cm/</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0233608</t>
+  </si>
+  <si>
+    <t>https://osf.io/turzf</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0237093</t>
+  </si>
+  <si>
+    <t>https://osf.io/6frp5/</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0239598</t>
+  </si>
+  <si>
+    <t>https://osf.io/a43ut/</t>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2020.02021</t>
+  </si>
+  <si>
+    <t>https://osf.io/h564u/</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.03.078</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25534/tudatalib-158</t>
+  </si>
+  <si>
+    <t>TUdatalib</t>
+  </si>
+  <si>
+    <t>Apache License 2.0_AND_CC_AND_ODC_AND_Public Domain</t>
+  </si>
+  <si>
+    <t>10.1186/s40635-019-0284-8</t>
+  </si>
+  <si>
+    <t>https://www.zenodo.org/record/3378028</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.3378028</t>
+  </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <t>CC_AND_CC0_AND_other</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0227955</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/record/3603309</t>
+  </si>
+  <si>
+    <t>10.1186/s40658-020-0270-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.3373973</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pbio.3000792</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.3876533</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0227178</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.3601477</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0231302</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.3737549</t>
+  </si>
+  <si>
+    <t>10.3390/cancers12113138</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.5281/zenodo.4009499</t>
+  </si>
+  <si>
+    <t>https://www.addgene.org/137191/</t>
+  </si>
+  <si>
+    <t>Addgene</t>
+  </si>
+  <si>
+    <t>field-specific repository</t>
+  </si>
+  <si>
+    <t>10.1038/s42003-020-01167-x</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8508/</t>
+  </si>
+  <si>
+    <t>ArrayExpress</t>
+  </si>
+  <si>
+    <t>Public Domain_AND_other</t>
+  </si>
+  <si>
+    <t>10.1002/ijc.33456</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7680/</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-14466-y</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-3013/</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-20222-z</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8152/</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-019-57076-5</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6713/</t>
+  </si>
+  <si>
+    <t>10.1158/2159-8290.cd-19-1030</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7802/</t>
+  </si>
+  <si>
+    <t>10.3389/fimmu.2020.586124</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-9642/</t>
+  </si>
+  <si>
+    <t>10.3389/fonc.2020.00747</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6316/</t>
+  </si>
+  <si>
+    <t>10.1128/mra.00797-20</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12181074</t>
+  </si>
+  <si>
+    <t>BioProject</t>
+  </si>
+  <si>
+    <t>Copyrights_AND_Public Domain</t>
+  </si>
+  <si>
+    <t>10.1158/0008-5472.can-20-1998</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR7829659</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-19452-y</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11467537</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-65744-0</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2294-9</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11426414</t>
+  </si>
+  <si>
+    <t>10.1038/s41591-020-0801-z</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10484371</t>
+  </si>
+  <si>
+    <t>10.1158/0008-5472.can-20-0754</t>
+  </si>
+  <si>
+    <t>10.1016/j.cell.2020.10.036</t>
+  </si>
+  <si>
+    <t>https://cptac-data-portal.georgetown.edu/study-summary/S060</t>
+  </si>
+  <si>
+    <t>Clinical Proteomic Tumor Analysis Consortium Data Portal</t>
+  </si>
+  <si>
+    <t>10.1200/jco.20.01164</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/ct2/show/NCT01849874</t>
+  </si>
+  <si>
+    <t>ClinicalTrials.gov</t>
+  </si>
+  <si>
+    <t>Copyrights_AND_Public Domain_AND_other</t>
+  </si>
+  <si>
+    <t>10.1186/s12859-020-03741-w</t>
+  </si>
+  <si>
+    <t>https://codeocean.com/capsule/9813295/tree/v2</t>
+  </si>
+  <si>
+    <t>Code Ocean</t>
+  </si>
+  <si>
+    <t>CC0_AND_Copyrights_AND_other</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.24433/CO.1724316.v1</t>
+  </si>
+  <si>
+    <t>other license</t>
+  </si>
+  <si>
+    <t>CC-BY-NC-ND</t>
+  </si>
+  <si>
+    <t>https://codeocean.com/capsule/6259283/tree/v4</t>
+  </si>
+  <si>
+    <t>10.1038/s41588-019-0564-y</t>
+  </si>
+  <si>
+    <t>https://dcc.icgc.org/releases/PCAWG</t>
+  </si>
+  <si>
+    <t>dcc</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-019-13983-9</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-019-13929-1</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-17359-2</t>
+  </si>
+  <si>
+    <t>https://dcc.icgc.org/releases/PCAWG/consensus_snv_indel</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-019-13824-9</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-14367-0</t>
+  </si>
+  <si>
+    <t>https://dcc.icgc.org/releases/PCAWG/networks</t>
+  </si>
+  <si>
+    <t>10.1038/s41588-019-0576-7</t>
+  </si>
+  <si>
+    <t>10.1016/j.ajhg.2020.04.016</t>
+  </si>
+  <si>
+    <t>https://www.deciphergenomics.org/patient/412419/overview/general</t>
+  </si>
+  <si>
+    <t>decipher</t>
+  </si>
+  <si>
+    <t>10.3389/fcimb.2020.00167</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB35812</t>
+  </si>
+  <si>
+    <t>European Nucleotide Archive</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>10.1053/j.gastro.2020.03.017</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB20400</t>
+  </si>
+  <si>
+    <t>10.1038/s41556-020-0488-x</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/LS482294</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-19589-w</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB37249</t>
+  </si>
+  <si>
+    <t>10.1128/msphere.00598-20</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJNA657829</t>
+  </si>
+  <si>
+    <t>10.1093/jac/dkaa271</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB28593</t>
+  </si>
+  <si>
+    <t>10.1186/s13072-020-00345-9</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb27665?show=reads</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2269-x</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB37249?show=reads</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2797-4</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB39602?show=reads</t>
+  </si>
+  <si>
+    <t>10.1111/all.14322</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB37836?show=reads</t>
+  </si>
+  <si>
+    <t>10.1126/sciadv.abb4565</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB34111?show=reads</t>
+  </si>
+  <si>
+    <t>10.1126/science.aba9411</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb36265</t>
+  </si>
+  <si>
+    <t>10.1136/gutjnl-2018-317856</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/data/view/PRJEB34637</t>
+  </si>
+  <si>
+    <t>10.1186/s13756-020-0696-y</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB36565</t>
+  </si>
+  <si>
+    <t>10.1242/bio.044222</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB27665?show=reads</t>
+  </si>
+  <si>
+    <t>10.7554/elife.51243</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/data/view/PRJEB2600</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2598-9</t>
+  </si>
+  <si>
+    <t>http://flowrepository.org/id/FR-FCM-Z2K3</t>
+  </si>
+  <si>
+    <t>FlowRepository</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE116694</t>
+  </si>
+  <si>
+    <t>Gene Expression Omnibus</t>
+  </si>
+  <si>
+    <t>Copyrights</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.108184</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149371</t>
+  </si>
+  <si>
+    <t>10.1111/nan.12655</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE127255</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-58668-2</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107998</t>
+  </si>
+  <si>
+    <t>10.7554/elife.52549</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143867</t>
+  </si>
+  <si>
+    <t>10.3324/haematol.2019.235291</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE98946</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-019-13960-2</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE128837</t>
+  </si>
+  <si>
+    <t>10.1093/nar/gkaa1089</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147270</t>
+  </si>
+  <si>
+    <t>10.1111/ajt.16161</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124203</t>
+  </si>
+  <si>
+    <t>10.3390/cells9010186</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE138532</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-019-57108-0</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE94916</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.01.044</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107937</t>
+  </si>
+  <si>
+    <t>10.1126/science.aaz2582</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse120589</t>
+  </si>
+  <si>
+    <t>10.1038/s41375-020-0839-4</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse146173</t>
+  </si>
+  <si>
+    <t>10.1002/1878-0261.12835</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE119423</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136264</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.108533</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160524</t>
+  </si>
+  <si>
+    <t>10.1158/2159-8290.cd-20-1202</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse134092</t>
+  </si>
+  <si>
+    <t>10.1038/s41596-020-0333-5</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE142696</t>
+  </si>
+  <si>
+    <t>10.1172/jci138760</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE151285</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-019-56994-8</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124719</t>
+  </si>
+  <si>
+    <t>10.1002/eji.202048797</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160097</t>
+  </si>
+  <si>
+    <t>10.1007/s00401-020-02250-7</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70678</t>
+  </si>
+  <si>
+    <t>10.1016/j.cell.2020.07.038</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129978</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147259</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.107652</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134131</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.107982</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107206</t>
+  </si>
+  <si>
+    <t>10.1016/j.cels.2020.10.001</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134869</t>
+  </si>
+  <si>
+    <t>10.1016/j.ebiom.2020.102970</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148720</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143930</t>
+  </si>
+  <si>
+    <t>10.1016/j.stem.2020.07.018</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144273</t>
+  </si>
+  <si>
+    <t>10.1038/s41388-020-1198-3</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE121362</t>
+  </si>
+  <si>
+    <t>10.1038/s41416-020-0751-8</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE122399</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-14700-7</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE89461</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-14777-0</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124425</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-16009-x</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE77534</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-16244-2</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE120576</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-16464-6</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE140133</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-17467-z</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134753</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-19002-6</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE115103</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148394</t>
+  </si>
+  <si>
+    <t>10.1038/s41541-020-0177-6</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144542</t>
+  </si>
+  <si>
+    <t>10.1038/s41556-020-0529-5</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144397</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2882-8</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE125521</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-2968-3</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123417</t>
+  </si>
+  <si>
+    <t>10.1038/s41586-020-3018-x</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158731</t>
+  </si>
+  <si>
+    <t>10.1038/s41587-020-0469-4</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM3911434</t>
+  </si>
+  <si>
+    <t>10.1038/s41590-020-0707-4</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148405</t>
+  </si>
+  <si>
+    <t>10.1038/s41592-020-0965-y</t>
+  </si>
+  <si>
+    <t>10.1038/s41596-019-0251-6</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE109381</t>
+  </si>
+  <si>
+    <t>10.1038/s41596-020-0369-6</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88826</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-64431-4</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE55235</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-67872-z</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE111230</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.1920393117</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE101409</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.2002481117</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE150753</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.2008883117</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123593</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.2013542117</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158312</t>
+  </si>
+  <si>
+    <t>10.1084/jem.20190133</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143522</t>
+  </si>
+  <si>
+    <t>10.1084/jem.20191933</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129262</t>
+  </si>
+  <si>
+    <t>10.1084/jem.20200137</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141876</t>
+  </si>
+  <si>
+    <t>10.1093/nar/gkz1238</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE131255</t>
+  </si>
+  <si>
+    <t>10.1093/nargab/lqaa036</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145530</t>
+  </si>
+  <si>
+    <t>10.1126/science.aax5863</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129636</t>
+  </si>
+  <si>
+    <t>10.1126/science.aaz5875</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137515</t>
+  </si>
+  <si>
+    <t>10.1126/science.aba4937</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141175</t>
+  </si>
+  <si>
+    <t>10.1128/mbio.01911-20</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100656</t>
+  </si>
+  <si>
+    <t>10.1136/gutjnl-2020-321016</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE73338</t>
+  </si>
+  <si>
+    <t>10.1158/0008-5472.can-19-1493</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE126033</t>
+  </si>
+  <si>
+    <t>10.1158/1055-9965.epi-20-0739</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE155328</t>
+  </si>
+  <si>
+    <t>10.1161/circulationaha.119.042863</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149070</t>
+  </si>
+  <si>
+    <t>10.1161/circulationaha.119.044794</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145350</t>
+  </si>
+  <si>
+    <t>10.1164/rccm.201910-2063oc</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137421</t>
+  </si>
+  <si>
+    <t>10.1172/jci137786</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148669</t>
+  </si>
+  <si>
+    <t>10.1182/blood.2020005244</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141454</t>
+  </si>
+  <si>
+    <t>10.1186/s13041-020-00685-3</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88723</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pbio.3000722</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136662</t>
+  </si>
+  <si>
+    <t>10.1371/journal.ppat.1008461</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100928</t>
+  </si>
+  <si>
+    <t>10.18632/oncotarget.27636</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE133014</t>
+  </si>
+  <si>
+    <t>10.18632/oncotarget.27763</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE84713</t>
+  </si>
+  <si>
+    <t>10.26508/lsa.201900601</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147642</t>
+  </si>
+  <si>
+    <t>10.3389/fneur.2020.573560</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE61405</t>
+  </si>
+  <si>
+    <t>10.3389/fonc.2020.00599</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70458</t>
+  </si>
+  <si>
+    <t>10.3390/ijms21020373</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141217</t>
+  </si>
+  <si>
+    <t>10.3390/ijms21217944</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143796</t>
+  </si>
+  <si>
+    <t>10.3390/ijms21238898</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE161585</t>
+  </si>
+  <si>
+    <t>10.7554/elife.58659</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144682</t>
+  </si>
+  <si>
+    <t>10.1038/s41591-020-0908-2</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145594</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.5524/100743</t>
+  </si>
+  <si>
+    <t>GigaDB</t>
+  </si>
+  <si>
+    <t>CC_AND_Public Domain</t>
+  </si>
+  <si>
+    <t>10.1152/jn.00615.2019</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.12751/g-node.6953bb</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>CC-BY-NC-SA</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0244148</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.12751/g-node.mb83iq</t>
+  </si>
+  <si>
+    <t>10.1242/jeb.206342</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.12751/g-node.87584d</t>
+  </si>
+  <si>
+    <t>CC-BY-SA</t>
+  </si>
+  <si>
+    <t>10.1016/s0140-6736(20)30750-9</t>
+  </si>
+  <si>
+    <t>http://ghdx.healthdata.org/gbd-2019</t>
+  </si>
+  <si>
+    <t>Global Health Data Exchange</t>
+  </si>
+  <si>
+    <t>ODC</t>
+  </si>
+  <si>
+    <t>10.1038/s41592-020-0884-y</t>
+  </si>
+  <si>
+    <t>https://submission.gpcrmd.org/home/</t>
+  </si>
+  <si>
+    <t>gpcrmd</t>
+  </si>
+  <si>
+    <t>10.1074/jbc.ra120.014890</t>
+  </si>
+  <si>
+    <t>https://massive.ucsd.edu/ProteoSAFe/dataset_files.jsp?task=e50e8f39be94497db47a71a45a3becaf#%7B%22table_sort_history%22%3A%22main.collection_asc%22%7D</t>
+  </si>
+  <si>
+    <t>Mass Spectrometry Interactive Virtual Environment</t>
+  </si>
+  <si>
+    <t>10.26508/lsa.202000700</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/metabolights/MTBLS186/files</t>
+  </si>
+  <si>
+    <t>MetaboLights</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/JACCFF010000001.1?report=fasta</t>
+  </si>
+  <si>
+    <t>NCBI Nucleotide</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT711466.1</t>
+  </si>
+  <si>
+    <t>10.1093/ve/veaa033</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MH844500</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.01.070</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MN900952?report=genbank</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT108784</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT270825</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MW002770</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.2006750117</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MK598003</t>
+  </si>
+  <si>
+    <t>10.1093/brain/awaa346</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/NC_000005.10?report=graph&amp;mk=114404655|NC_000005.10\:g.114404655_114404658del|green</t>
+  </si>
+  <si>
+    <t>10.1038/s41437-020-0331-y</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT136926</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-17060-4</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MN175570</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-64159-1</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MG963186</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MN037882</t>
+  </si>
+  <si>
+    <t>10.3201/eid2612.200708</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT123530</t>
+  </si>
+  <si>
+    <t>10.1186/s42522-020-00018-3</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/nuccore/MN714358</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.18112/openneuro.ds001734.v1.0.4</t>
+  </si>
+  <si>
+    <t>OpenNeuro</t>
+  </si>
+  <si>
+    <t>CC_AND_CC0_AND_ODC</t>
+  </si>
+  <si>
+    <t>https://openneuro.org/datasets/ds001734/versions/1.0.4</t>
+  </si>
+  <si>
+    <t>http://www.peptideatlas.org/PASS/PASS01250</t>
+  </si>
+  <si>
+    <t>PeptideAtlas</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-71899-7</t>
+  </si>
+  <si>
+    <t>http://www.peptideatlas.org/PASS/PASS01606</t>
+  </si>
+  <si>
+    <t>10.1038/s41597-020-0495-6</t>
+  </si>
+  <si>
+    <t>https://physionet.org/content/ptb-xl/1.0.1/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.13026/x4td-x982</t>
+  </si>
+  <si>
+    <t>PhysioNet</t>
+  </si>
+  <si>
+    <t>10.3389/fimmu.2020.00179</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.18430/m33czf</t>
+  </si>
+  <si>
+    <t>proteindiffraction</t>
+  </si>
+  <si>
+    <t>10.1021/acs.analchem.0c01273</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD019926</t>
+  </si>
+  <si>
+    <t>ProteomeXchange</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD019123</t>
+  </si>
+  <si>
+    <t>10.4049/immunohorizons.2000006</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016211</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD010084</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD013167</t>
+  </si>
+  <si>
+    <t>PRoteomics IDEntifications Database</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD020612</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD010370</t>
+  </si>
+  <si>
+    <t>10.1016/j.cels.2020.05.012</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD018874</t>
+  </si>
+  <si>
+    <t>10.1021/acs.jproteome.9b00714</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD014913</t>
+  </si>
+  <si>
+    <t>10.1038/s41389-020-0201-8</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD012523</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016341</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-15743-6</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD011129</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-16929-8</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD017341</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-18542-1</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016334</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD006921</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016782</t>
+  </si>
+  <si>
+    <t>10.1093/nar/gkaa681</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD011887</t>
+  </si>
+  <si>
+    <t>10.1126/sciadv.aay1109</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD013259</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD017530</t>
+  </si>
+  <si>
+    <t>10.1172/jci.insight.123862</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD009944</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.108235</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD021351</t>
+  </si>
+  <si>
+    <t>http://raeslab.org/software/BMIS/</t>
+  </si>
+  <si>
+    <t>raeslab</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.108117</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10341086</t>
+  </si>
+  <si>
+    <t>Sequence Read Archive</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-14782-3</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/bioproject/?term=prjna437582</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pgen.1008651</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR8454256</t>
+  </si>
+  <si>
+    <t>10.1053/j.gastro.2020.07.005</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR13762768</t>
+  </si>
+  <si>
+    <t>10.1084/jem.20200275</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11462381</t>
+  </si>
+  <si>
+    <t>10.1111/jgh.15071</t>
+  </si>
+  <si>
+    <t>10.1002/eji.201948474</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11104128</t>
+  </si>
+  <si>
+    <t>10.1016/j.ebiom.2020.103009</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12567985</t>
+  </si>
+  <si>
+    <t>10.1016/j.jaci.2020.04.059</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR5010537</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6870406</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-67843-4</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=ERR3132486</t>
+  </si>
+  <si>
+    <t>10.1534/g3.120.401537</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11793881</t>
+  </si>
+  <si>
+    <t>10.3389/fmicb.2020.556793</t>
+  </si>
+  <si>
+    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10048296</t>
+  </si>
+  <si>
+    <t>https://www.synapse.org/#!Synapse:syn7596712</t>
+  </si>
+  <si>
+    <t>Synapse</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-14351-8</t>
+  </si>
+  <si>
+    <t>10.1038/s41588-019-0562-0</t>
+  </si>
+  <si>
+    <t>https://www.synapse.org/#!Synapse:syn21052009</t>
+  </si>
+  <si>
+    <t>10.1371/journal.ppat.1008263</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pdbe/entry/emdb/EMD-10045</t>
+  </si>
+  <si>
+    <t>The Electron Microscopy Data Bank</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2020.108157</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/emdb/EMD-0270</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.2004563117</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/emdb/entry/EMD-11678</t>
+  </si>
+  <si>
+    <t>10.1126/science.abd1673</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/emdb/EMD-11087</t>
+  </si>
+  <si>
+    <t>https://ega-archive.org/datasets/EGAD00001006550/files</t>
+  </si>
+  <si>
+    <t>The European Genome-phenome Archive</t>
+  </si>
+  <si>
+    <t>https://ega-archive.org/datasets/EGAD00001001343/files</t>
+  </si>
+  <si>
+    <t>https://ega-archive.org/datasets/EGAD00001005247/files</t>
+  </si>
+  <si>
+    <t>10.1126/science.abb3405</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6Y2E/pdb</t>
+  </si>
+  <si>
+    <t>Worldwide Protein Data Bank</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-15614-0</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.2210/pdb6tga/pdb</t>
+  </si>
+  <si>
+    <t>10.1021/acs.biochem.0c00053</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6G1Y/pdb</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6XKQ/pdb</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6RWK/pdb</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6HTQ/pdb</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-020-19321-8</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.2210/pdb6yga/pdb</t>
+  </si>
+  <si>
+    <t>10.1083/jcb.201902059</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6Q9M/pdb</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.2210/pdb6Z9P/pdb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1978,9 +1991,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2262,14 +2284,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2321,7 +2343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2347,7 +2369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2373,7 +2395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2399,7 +2421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2425,7 +2447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2451,7 +2473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2477,7 +2499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2503,7 +2525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2529,7 +2551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2555,7 +2577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2581,7 +2603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2607,7 +2629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2633,7 +2655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2659,7 +2681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -2685,7 +2707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2711,7 +2733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2737,7 +2759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2763,7 +2785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2789,7 +2811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2815,7 +2837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -2841,7 +2863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -2867,7 +2889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -2893,7 +2915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2919,7 +2941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2945,7 +2967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2971,7 +2993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -2997,7 +3019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3023,7 +3045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -3049,7 +3071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3075,7 +3097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -3101,7 +3123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -3127,7 +3149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -3153,7 +3175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -3179,7 +3201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -3205,7 +3227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -3231,7 +3253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -3257,7 +3279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -3283,7 +3305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -3309,7 +3331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -3335,7 +3357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>113</v>
       </c>
@@ -3361,7 +3383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -3387,7 +3409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -3413,7 +3435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -3439,7 +3461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -3465,7 +3487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -3491,7 +3513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>127</v>
       </c>
@@ -3517,7 +3539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -3543,7 +3565,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -3569,7 +3591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -3595,7 +3617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -3621,7 +3643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -3647,7 +3669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -3673,7 +3695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>145</v>
       </c>
@@ -3699,7 +3721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -3725,7 +3747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -3751,7 +3773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>153</v>
       </c>
@@ -3777,7 +3799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>155</v>
       </c>
@@ -3803,7 +3825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -3829,7 +3851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -3855,7 +3877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>160</v>
       </c>
@@ -3881,7 +3903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>163</v>
       </c>
@@ -3907,7 +3929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>165</v>
       </c>
@@ -3933,7 +3955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>167</v>
       </c>
@@ -3959,7 +3981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>169</v>
       </c>
@@ -3985,7 +4007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>171</v>
       </c>
@@ -4011,7 +4033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>174</v>
       </c>
@@ -4037,7 +4059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>176</v>
       </c>
@@ -4063,7 +4085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>178</v>
       </c>
@@ -4089,7 +4111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>180</v>
       </c>
@@ -4115,7 +4137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>182</v>
       </c>
@@ -4141,7 +4163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>184</v>
       </c>
@@ -4167,7 +4189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -4193,7 +4215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>188</v>
       </c>
@@ -4219,7 +4241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -4245,7 +4267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -4271,7 +4293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>199</v>
       </c>
@@ -4297,7 +4319,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -4323,7 +4345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>203</v>
       </c>
@@ -4349,7 +4371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -4375,7 +4397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>207</v>
       </c>
@@ -4401,7 +4423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>209</v>
       </c>
@@ -4427,7 +4449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -4453,7 +4475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>214</v>
       </c>
@@ -4479,7 +4501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -4505,7 +4527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>220</v>
       </c>
@@ -4531,7 +4553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>222</v>
       </c>
@@ -4557,7 +4579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>224</v>
       </c>
@@ -4583,7 +4605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>226</v>
       </c>
@@ -4609,7 +4631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>228</v>
       </c>
@@ -4635,7 +4657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>230</v>
       </c>
@@ -4661,7 +4683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>232</v>
       </c>
@@ -4687,7 +4709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>236</v>
       </c>
@@ -4713,7 +4735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>238</v>
       </c>
@@ -4739,7 +4761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>240</v>
       </c>
@@ -4765,7 +4787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>241</v>
       </c>
@@ -4791,7 +4813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>243</v>
       </c>
@@ -4817,7 +4839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>245</v>
       </c>
@@ -4843,7 +4865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>246</v>
       </c>
@@ -4869,7 +4891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>249</v>
       </c>
@@ -4895,7 +4917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>253</v>
       </c>
@@ -4921,7 +4943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>135</v>
       </c>
@@ -4947,7 +4969,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>160</v>
       </c>
@@ -4973,7 +4995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>261</v>
       </c>
@@ -4999,7 +5021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>264</v>
       </c>
@@ -5025,7 +5047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>265</v>
       </c>
@@ -5051,7 +5073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>266</v>
       </c>
@@ -5077,7 +5099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>268</v>
       </c>
@@ -5103,7 +5125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>269</v>
       </c>
@@ -5129,7 +5151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>271</v>
       </c>
@@ -5155,7 +5177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>272</v>
       </c>
@@ -5181,7 +5203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>275</v>
       </c>
@@ -5207,7 +5229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>279</v>
       </c>
@@ -5233,7 +5255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>281</v>
       </c>
@@ -5259,7 +5281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>283</v>
       </c>
@@ -5285,7 +5307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>285</v>
       </c>
@@ -5311,7 +5333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>287</v>
       </c>
@@ -5337,7 +5359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>289</v>
       </c>
@@ -5363,7 +5385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>291</v>
       </c>
@@ -5389,7 +5411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>293</v>
       </c>
@@ -5415,7 +5437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>295</v>
       </c>
@@ -5441,7 +5463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>297</v>
       </c>
@@ -5467,7 +5489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>299</v>
       </c>
@@ -5493,7 +5515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>301</v>
       </c>
@@ -5519,7 +5541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>303</v>
       </c>
@@ -5545,7 +5567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>305</v>
       </c>
@@ -5571,7 +5593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>307</v>
       </c>
@@ -5597,7 +5619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>309</v>
       </c>
@@ -5623,7 +5645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>261</v>
       </c>
@@ -5649,7 +5671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>315</v>
       </c>
@@ -5675,7 +5697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>317</v>
       </c>
@@ -5701,7 +5723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>319</v>
       </c>
@@ -5727,7 +5749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>321</v>
       </c>
@@ -5753,7 +5775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>323</v>
       </c>
@@ -5779,7 +5801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>325</v>
       </c>
@@ -5805,7 +5827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>327</v>
       </c>
@@ -5831,7 +5853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>329</v>
       </c>
@@ -5857,7 +5879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>331</v>
       </c>
@@ -5883,7 +5905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>333</v>
       </c>
@@ -5909,7 +5931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>335</v>
       </c>
@@ -5935,7 +5957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>337</v>
       </c>
@@ -5961,7 +5983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>339</v>
       </c>
@@ -5987,7 +6009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>341</v>
       </c>
@@ -6013,7 +6035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -6039,7 +6061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>344</v>
       </c>
@@ -6065,7 +6087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>346</v>
       </c>
@@ -6091,7 +6113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>348</v>
       </c>
@@ -6117,7 +6139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>350</v>
       </c>
@@ -6143,7 +6165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>352</v>
       </c>
@@ -6169,7 +6191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>354</v>
       </c>
@@ -6195,7 +6217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>356</v>
       </c>
@@ -6221,7 +6243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>358</v>
       </c>
@@ -6247,7 +6269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -6273,7 +6295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>361</v>
       </c>
@@ -6299,7 +6321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>363</v>
       </c>
@@ -6325,7 +6347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>365</v>
       </c>
@@ -6351,7 +6373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>367</v>
       </c>
@@ -6377,7 +6399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>137</v>
       </c>
@@ -6403,7 +6425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>370</v>
       </c>
@@ -6429,7 +6451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>372</v>
       </c>
@@ -6455,7 +6477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>374</v>
       </c>
@@ -6481,7 +6503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>376</v>
       </c>
@@ -6507,7 +6529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>378</v>
       </c>
@@ -6533,7 +6555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>380</v>
       </c>
@@ -6559,7 +6581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>382</v>
       </c>
@@ -6585,7 +6607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>384</v>
       </c>
@@ -6611,7 +6633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>386</v>
       </c>
@@ -6637,7 +6659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>388</v>
       </c>
@@ -6663,7 +6685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>222</v>
       </c>
@@ -6689,7 +6711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>391</v>
       </c>
@@ -6715,7 +6737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>393</v>
       </c>
@@ -6741,7 +6763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>395</v>
       </c>
@@ -6767,7 +6789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>397</v>
       </c>
@@ -6793,7 +6815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>399</v>
       </c>
@@ -6819,7 +6841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>401</v>
       </c>
@@ -6845,7 +6867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>403</v>
       </c>
@@ -6871,7 +6893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>405</v>
       </c>
@@ -6897,7 +6919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>406</v>
       </c>
@@ -6923,7 +6945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>408</v>
       </c>
@@ -6949,7 +6971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>410</v>
       </c>
@@ -6975,7 +6997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>412</v>
       </c>
@@ -7001,7 +7023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>414</v>
       </c>
@@ -7027,7 +7049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>416</v>
       </c>
@@ -7053,7 +7075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>418</v>
       </c>
@@ -7079,7 +7101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>420</v>
       </c>
@@ -7105,7 +7127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>422</v>
       </c>
@@ -7131,7 +7153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>424</v>
       </c>
@@ -7157,7 +7179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>426</v>
       </c>
@@ -7183,7 +7205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>428</v>
       </c>
@@ -7209,7 +7231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>430</v>
       </c>
@@ -7235,7 +7257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>432</v>
       </c>
@@ -7261,7 +7283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>434</v>
       </c>
@@ -7287,7 +7309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>436</v>
       </c>
@@ -7313,7 +7335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>438</v>
       </c>
@@ -7339,7 +7361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>301</v>
       </c>
@@ -7365,7 +7387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>440</v>
       </c>
@@ -7391,7 +7413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>442</v>
       </c>
@@ -7417,7 +7439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>444</v>
       </c>
@@ -7443,7 +7465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>446</v>
       </c>
@@ -7469,7 +7491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>448</v>
       </c>
@@ -7495,7 +7517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>450</v>
       </c>
@@ -7521,7 +7543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>452</v>
       </c>
@@ -7547,7 +7569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>454</v>
       </c>
@@ -7573,7 +7595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>456</v>
       </c>
@@ -7599,7 +7621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>458</v>
       </c>
@@ -7625,7 +7647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>460</v>
       </c>
@@ -7651,7 +7673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>462</v>
       </c>
@@ -7677,7 +7699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>464</v>
       </c>
@@ -7703,7 +7725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>466</v>
       </c>
@@ -7729,7 +7751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>468</v>
       </c>
@@ -7755,7 +7777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>470</v>
       </c>
@@ -7781,7 +7803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>472</v>
       </c>
@@ -7807,7 +7829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>474</v>
       </c>
@@ -7833,7 +7855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>476</v>
       </c>
@@ -7859,7 +7881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>478</v>
       </c>
@@ -7885,7 +7907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>480</v>
       </c>
@@ -7911,7 +7933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>149</v>
       </c>
@@ -7937,7 +7959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>485</v>
       </c>
@@ -7963,7 +7985,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>489</v>
       </c>
@@ -7989,7 +8011,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>491</v>
       </c>
@@ -8015,7 +8037,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>494</v>
       </c>
@@ -8041,7 +8063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>498</v>
       </c>
@@ -8067,7 +8089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>501</v>
       </c>
@@ -8093,7 +8115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>504</v>
       </c>
@@ -8119,7 +8141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -8145,7 +8167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>25</v>
       </c>
@@ -8171,7 +8193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>510</v>
       </c>
@@ -8197,7 +8219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>512</v>
       </c>
@@ -8223,7 +8245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>241</v>
       </c>
@@ -8249,7 +8271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>285</v>
       </c>
@@ -8275,7 +8297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>135</v>
       </c>
@@ -8301,7 +8323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>517</v>
       </c>
@@ -8327,7 +8349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>519</v>
       </c>
@@ -8353,7 +8375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>521</v>
       </c>
@@ -8379,7 +8401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>523</v>
       </c>
@@ -8405,7 +8427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>525</v>
       </c>
@@ -8431,7 +8453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>456</v>
       </c>
@@ -8457,7 +8479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>528</v>
       </c>
@@ -8483,7 +8505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>530</v>
       </c>
@@ -8509,7 +8531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>117</v>
       </c>
@@ -8535,7 +8557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>117</v>
       </c>
@@ -8561,7 +8583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>236</v>
       </c>
@@ -8587,7 +8609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -8613,7 +8635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>538</v>
       </c>
@@ -8639,7 +8661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>540</v>
       </c>
@@ -8665,7 +8687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>544</v>
       </c>
@@ -8691,7 +8713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>547</v>
       </c>
@@ -8717,7 +8739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>236</v>
       </c>
@@ -8743,7 +8765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>551</v>
       </c>
@@ -8769,7 +8791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>281</v>
       </c>
@@ -8795,7 +8817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>245</v>
       </c>
@@ -8821,7 +8843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>325</v>
       </c>
@@ -8847,7 +8869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>344</v>
       </c>
@@ -8873,7 +8895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>361</v>
       </c>
@@ -8899,7 +8921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>558</v>
       </c>
@@ -8925,7 +8947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>560</v>
       </c>
@@ -8951,7 +8973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>562</v>
       </c>
@@ -8977,7 +8999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>66</v>
       </c>
@@ -9003,7 +9025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>565</v>
       </c>
@@ -9029,7 +9051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>567</v>
       </c>
@@ -9055,7 +9077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>569</v>
       </c>
@@ -9081,7 +9103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>397</v>
       </c>
@@ -9107,7 +9129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>139</v>
       </c>
@@ -9133,7 +9155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>573</v>
       </c>
@@ -9159,7 +9181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>575</v>
       </c>
@@ -9185,7 +9207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>448</v>
       </c>
@@ -9211,7 +9233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>578</v>
       </c>
@@ -9237,7 +9259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>580</v>
       </c>
@@ -9263,7 +9285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -9289,7 +9311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>584</v>
       </c>
@@ -9315,7 +9337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>587</v>
       </c>
@@ -9341,7 +9363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>589</v>
       </c>
@@ -9367,7 +9389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>591</v>
       </c>
@@ -9393,7 +9415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>593</v>
       </c>
@@ -9419,7 +9441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>595</v>
       </c>
@@ -9445,7 +9467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>596</v>
       </c>
@@ -9471,7 +9493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>598</v>
       </c>
@@ -9497,7 +9519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>600</v>
       </c>
@@ -9523,7 +9545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>393</v>
       </c>
@@ -9549,7 +9571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>603</v>
       </c>
@@ -9575,7 +9597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>605</v>
       </c>
@@ -9601,7 +9623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>607</v>
       </c>
@@ -9627,7 +9649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>261</v>
       </c>
@@ -9653,7 +9675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>611</v>
       </c>
@@ -9679,7 +9701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>612</v>
       </c>
@@ -9705,7 +9727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>614</v>
       </c>
@@ -9731,7 +9753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>617</v>
       </c>
@@ -9757,7 +9779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>619</v>
       </c>
@@ -9783,7 +9805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>621</v>
       </c>
@@ -9809,7 +9831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>132</v>
       </c>
@@ -9835,7 +9857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>611</v>
       </c>
@@ -9861,7 +9883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>226</v>
       </c>
@@ -9887,7 +9909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>627</v>
       </c>
@@ -9913,7 +9935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>630</v>
       </c>
@@ -9939,7 +9961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>632</v>
       </c>
@@ -9965,7 +9987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>135</v>
       </c>
@@ -9991,7 +10013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>614</v>
       </c>
@@ -10017,7 +10039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>617</v>
       </c>
@@ -10043,7 +10065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>637</v>
       </c>
@@ -10069,7 +10091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>639</v>
       </c>
@@ -10095,7 +10117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>621</v>
       </c>
@@ -10123,6 +10145,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output/licenses_2020.xlsx
+++ b/output/licenses_2020.xlsx
@@ -1,1963 +1,1950 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24818"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E88293383C4964081FD3BD1A0AB804FCFA5FF4A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="licenses_2020" sheetId="1" r:id="rId1"/>
+    <sheet name="licenses_2020" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="642">
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>best_identifier</t>
-  </si>
-  <si>
-    <t>guid_fuji</t>
-  </si>
-  <si>
-    <t>repository_re3data</t>
-  </si>
-  <si>
-    <t>repository_type</t>
-  </si>
-  <si>
-    <t>data_license_name</t>
-  </si>
-  <si>
-    <t>license_fuji</t>
-  </si>
-  <si>
-    <t>license_fair_enough</t>
-  </si>
-  <si>
-    <t>10.1136/bmjopen-2019-032864</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.4tmpg4f5f</t>
-  </si>
-  <si>
-    <t>DRYAD</t>
-  </si>
-  <si>
-    <t>general-purpose repository</t>
-  </si>
-  <si>
-    <t>CC0_AND_other</t>
-  </si>
-  <si>
-    <t>Public Domain</t>
-  </si>
-  <si>
-    <t>10.7554/elife.51156</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.gt160v2</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0229661</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Measuring_childhood_maltreatment_Psychometric_properties_of_the_Norwegian_version_of_the_Maltreatment_and_Abuse_Chronology_of_Exposure_MACE_scale/11910426</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0229661</t>
-  </si>
-  <si>
-    <t>figshare</t>
-  </si>
-  <si>
-    <t>Apache License 2.0_AND_BSD_AND_CC_AND_CC0_AND_other</t>
-  </si>
-  <si>
-    <t>no license</t>
-  </si>
-  <si>
-    <t>10.1186/s13073-020-00771-0</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12845697.v1</t>
-  </si>
-  <si>
-    <t>CC-BY</t>
-  </si>
-  <si>
-    <t>10.1186/s12917-020-02606-x</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12830405.v1</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0237944</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Complete_data_set_of_questionnaires_/12836445</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0237944.s001</t>
-  </si>
-  <si>
-    <t>10.1186/s12866-020-01741-7</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12127476.v1</t>
-  </si>
-  <si>
-    <t>10.1186/s13293-020-00313-8</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12617808.v1</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0229260</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Virus-associated_anterior_uveitis_and_secondary_glaucoma_Diagnostics_clinical_characteristics_and_surgical_options/11893245</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0229260</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0243711</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/S1_File_-/13362405</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0243711.s001</t>
-  </si>
-  <si>
-    <t>10.1186/s12916-019-1478-3</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.11665131.v1</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pmed.1003074</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Association_of_suicidal_behavior_with_exposure_to_suicide_and_suicide_attempt_A_systematic_review_and_multilevel_meta-analysis/12054234?file=22151703</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pmed.1003074</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0226443</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Attitudes_towards_animal_study_registries_and_their_characteristics_An_online_survey_of_three_cohorts_of_animal_researchers/11528676?file=20702688</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0226443</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0228538</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/_Wonderful_We_ve_just_missed_the_bus__Parental_use_of_irony_and_children_s_irony_comprehension/11884272</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0228538</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0228736</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Prognostic_value_of_the_myocardial_salvage_index_measured_by_T2-weighted_and_T1-weighted_late_gadolinium_enhancement_magnetic_resonance_imaging_after_ST-segment_elevation_myocardial_infarction_A_systematic_review_and_meta-regression_analysi/11851431?file=21722040</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0228736</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0241480</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/S1_Dataset_-/13177655</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0241480.s001</t>
-  </si>
-  <si>
-    <t>10.1186/s12885-020-07062-2</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12607277.v1</t>
-  </si>
-  <si>
-    <t>10.1038/s41597-020-00597-w</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.c.4869732</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.108470</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.13154321.v1</t>
-  </si>
-  <si>
-    <t>10.1021/acs.analchem.0c00136</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/12668465?backTo=/collections/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/5066000</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1021/acs.analchem.0c00136.s001</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-019-13984-8</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.11117669</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-18084-6</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12678938</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-18826-6</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12770366</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-60755-3</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.9585410</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-78722-3</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12901682</t>
-  </si>
-  <si>
-    <t>10.1098/rspb.2019.2228</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.c.4795809</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0231299</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Yoga_in_school_sports_improves_functioning_of_autonomic_nervous_system_in_young_adults_A_non-randomized_controlled_pilot_study/12120105</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0231299</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0236426</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.11807658.v1</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0239210</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Anonymized_data_of_the_patients_/13051631</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0239210.s001</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0239853</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.12967106.v1</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0242197</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/S1_File_-/13249124</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0242197.s001</t>
-  </si>
-  <si>
-    <t>10.7554/elife.48401</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.8312807</t>
-  </si>
-  <si>
-    <t>10.1523/jneurosci.2189-17.2017</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.5726845.v1</t>
-  </si>
-  <si>
-    <t>10.1098/rsif.2018.0220</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.7110836.v1</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0235716</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Minimal_data_set_SPSS_file_with_age_mPAP_diameter_of_the_aorta_diamAo_and_the_pulmonary_artery_diamPA_and_PA_A_PA_to_Ao_/12615088</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0235716.s001</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0211001</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Trauma_induced_acute_kidney_injury/7632995</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0211001</t>
-  </si>
-  <si>
-    <t>10.1158/1078-0432.ccr-19-1954</t>
-  </si>
-  <si>
-    <t>https://github.com/tkarn/G5-RNA-Seq/blob/master/Signature_GeneList.xlsx</t>
-  </si>
-  <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>10.1111/febs.15608</t>
-  </si>
-  <si>
-    <t>https://github.com/scitedotai/research-wikipedia/tree/master/Data</t>
-  </si>
-  <si>
-    <t>10.1021/acs.jcim.0c00815</t>
-  </si>
-  <si>
-    <t>https://github.com/choderalab/selectivity/tree/master/fep/fep_maps</t>
-  </si>
-  <si>
-    <t>10.3389/fneur.2020.00381</t>
-  </si>
-  <si>
-    <t>https://github.com/ahmedaak/BD_scan-shortening</t>
-  </si>
-  <si>
-    <t>10.1002/mrm.28307</t>
-  </si>
-  <si>
-    <t>https://github.com/pramosdelgado/B1correction-toolkit</t>
-  </si>
-  <si>
-    <t>10.1021/acs.jcim.0c00839</t>
-  </si>
-  <si>
-    <t>https://github.com/volkamerlab/KinFragLib/tree/master/data</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2314-9</t>
-  </si>
-  <si>
-    <t>https://github.com/poldrack/narps/tree/master/ImageAnalyses</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gkaa1198</t>
-  </si>
-  <si>
-    <t>https://github.com/juzb/CASANOVA-C3/tree/master/output/CN-C3</t>
-  </si>
-  <si>
-    <t>10.3389/fcvm.2020.599923</t>
-  </si>
-  <si>
-    <t>https://github.com/lorfas74/random-shuffle</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-19449-7</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.7910/DVN/LL3C1R</t>
-  </si>
-  <si>
-    <t>Harvard Dataverse</t>
-  </si>
-  <si>
-    <t>CC0</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-019-56416-9</t>
-  </si>
-  <si>
-    <t>https://data.mendeley.com/datasets/sj5cms7fky/1</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.17632/sj5cms7fky.1</t>
-  </si>
-  <si>
-    <t>Mendeley Data</t>
-  </si>
-  <si>
-    <t>CC_AND_CC0</t>
-  </si>
-  <si>
-    <t>10.1016/j.cell.2020.08.001</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17632/hwxhw2sxys.1</t>
-  </si>
-  <si>
-    <t>CC-BY-NC</t>
-  </si>
-  <si>
-    <t>10.1016/j.cell.2020.09.049</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17632/f6tb3csgjt.1</t>
-  </si>
-  <si>
-    <t>10.1016/j.isci.2020.101539</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17632/25cnynmzx6.1</t>
-  </si>
-  <si>
-    <t>10.1038/s41597-020-0487-6</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17632/nr7cs764rc.1</t>
-  </si>
-  <si>
-    <t>10.1093/braincomms/fcaa021</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17632/nrj467zmj2.1</t>
-  </si>
-  <si>
-    <t>10.1186/s13104-020-05248-2</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17632/9dkwv5w9b3.1</t>
-  </si>
-  <si>
-    <t>10.1111/medu.14057</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/OSF.IO/UHJAD</t>
-  </si>
-  <si>
-    <t>Open Science Framework</t>
-  </si>
-  <si>
-    <t>CC_AND_other</t>
-  </si>
-  <si>
-    <t>10.1093/gigascience/giaa052</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/OSF.IO/M8E6Z</t>
-  </si>
-  <si>
-    <t>10.1016/j.jclinepi.2020.09.022</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/OSF.IO/PTJBN</t>
-  </si>
-  <si>
-    <t>10.1152/jn.00164.2020</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/OSF.IO/ECMA4</t>
-  </si>
-  <si>
-    <t>10.3389/fnbeh.2020.00088</t>
-  </si>
-  <si>
-    <t>https://osf.io/n85sh/</t>
-  </si>
-  <si>
-    <t>https://osf.io/dv85n/</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0226843</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/OSF.IO/XSBHW</t>
-  </si>
-  <si>
-    <t>10.1098/rsos.190806</t>
-  </si>
-  <si>
-    <t>https://osf.io/3d5um/</t>
-  </si>
-  <si>
-    <t>https://osf.io/u9fw8/</t>
-  </si>
-  <si>
-    <t>10.1523/eneuro.0537-19.2020</t>
-  </si>
-  <si>
-    <t>https://osf.io/3x95n/</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0226893</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6847218</t>
-  </si>
-  <si>
-    <t>10.1525/collabra.267</t>
-  </si>
-  <si>
-    <t>https://osf.io/48fhe</t>
-  </si>
-  <si>
-    <t>10.1001/jamanetworkopen.2020.32335</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/OSF.IO/W6DF5</t>
-  </si>
-  <si>
-    <t>10.1007/s11948-020-00234-0</t>
-  </si>
-  <si>
-    <t>https://osf.io/cq3s9/</t>
-  </si>
-  <si>
-    <t>https://osf.io/qak8e/</t>
-  </si>
-  <si>
-    <t>10.1111/jne.12923</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.17605/OSF.IO/UXNC5</t>
-  </si>
-  <si>
-    <t>10.1136/bmjopen-2019-034666</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/OSF.IO/8XZ29</t>
-  </si>
-  <si>
-    <t>10.12688/f1000research.26707.2</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17605/OSF.IO/GPMNA</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0232666</t>
-  </si>
-  <si>
-    <t>https://osf.io/qp5cm/</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0233608</t>
-  </si>
-  <si>
-    <t>https://osf.io/turzf</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0237093</t>
-  </si>
-  <si>
-    <t>https://osf.io/6frp5/</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0239598</t>
-  </si>
-  <si>
-    <t>https://osf.io/a43ut/</t>
-  </si>
-  <si>
-    <t>10.3389/fpsyg.2020.02021</t>
-  </si>
-  <si>
-    <t>https://osf.io/h564u/</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.03.078</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25534/tudatalib-158</t>
-  </si>
-  <si>
-    <t>TUdatalib</t>
-  </si>
-  <si>
-    <t>Apache License 2.0_AND_CC_AND_ODC_AND_Public Domain</t>
-  </si>
-  <si>
-    <t>10.1186/s40635-019-0284-8</t>
-  </si>
-  <si>
-    <t>https://www.zenodo.org/record/3378028</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.3378028</t>
-  </si>
-  <si>
-    <t>Zenodo</t>
-  </si>
-  <si>
-    <t>CC_AND_CC0_AND_other</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0227955</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/record/3603309</t>
-  </si>
-  <si>
-    <t>10.1186/s40658-020-0270-y</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.3373973</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pbio.3000792</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.3876533</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0227178</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.3601477</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0231302</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.3737549</t>
-  </si>
-  <si>
-    <t>10.3390/cancers12113138</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.5281/zenodo.4009499</t>
-  </si>
-  <si>
-    <t>https://www.addgene.org/137191/</t>
-  </si>
-  <si>
-    <t>Addgene</t>
-  </si>
-  <si>
-    <t>field-specific repository</t>
-  </si>
-  <si>
-    <t>10.1038/s42003-020-01167-x</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8508/</t>
-  </si>
-  <si>
-    <t>ArrayExpress</t>
-  </si>
-  <si>
-    <t>Public Domain_AND_other</t>
-  </si>
-  <si>
-    <t>10.1002/ijc.33456</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7680/</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-14466-y</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-3013/</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-20222-z</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8152/</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-019-57076-5</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6713/</t>
-  </si>
-  <si>
-    <t>10.1158/2159-8290.cd-19-1030</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7802/</t>
-  </si>
-  <si>
-    <t>10.3389/fimmu.2020.586124</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-9642/</t>
-  </si>
-  <si>
-    <t>10.3389/fonc.2020.00747</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6316/</t>
-  </si>
-  <si>
-    <t>10.1128/mra.00797-20</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12181074</t>
-  </si>
-  <si>
-    <t>BioProject</t>
-  </si>
-  <si>
-    <t>Copyrights_AND_Public Domain</t>
-  </si>
-  <si>
-    <t>10.1158/0008-5472.can-20-1998</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR7829659</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-19452-y</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11467537</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-65744-0</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2294-9</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11426414</t>
-  </si>
-  <si>
-    <t>10.1038/s41591-020-0801-z</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10484371</t>
-  </si>
-  <si>
-    <t>10.1158/0008-5472.can-20-0754</t>
-  </si>
-  <si>
-    <t>10.1016/j.cell.2020.10.036</t>
-  </si>
-  <si>
-    <t>https://cptac-data-portal.georgetown.edu/study-summary/S060</t>
-  </si>
-  <si>
-    <t>Clinical Proteomic Tumor Analysis Consortium Data Portal</t>
-  </si>
-  <si>
-    <t>10.1200/jco.20.01164</t>
-  </si>
-  <si>
-    <t>https://clinicaltrials.gov/ct2/show/NCT01849874</t>
-  </si>
-  <si>
-    <t>ClinicalTrials.gov</t>
-  </si>
-  <si>
-    <t>Copyrights_AND_Public Domain_AND_other</t>
-  </si>
-  <si>
-    <t>10.1186/s12859-020-03741-w</t>
-  </si>
-  <si>
-    <t>https://codeocean.com/capsule/9813295/tree/v2</t>
-  </si>
-  <si>
-    <t>Code Ocean</t>
-  </si>
-  <si>
-    <t>CC0_AND_Copyrights_AND_other</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.24433/CO.1724316.v1</t>
-  </si>
-  <si>
-    <t>other license</t>
-  </si>
-  <si>
-    <t>CC-BY-NC-ND</t>
-  </si>
-  <si>
-    <t>https://codeocean.com/capsule/6259283/tree/v4</t>
-  </si>
-  <si>
-    <t>10.1038/s41588-019-0564-y</t>
-  </si>
-  <si>
-    <t>https://dcc.icgc.org/releases/PCAWG</t>
-  </si>
-  <si>
-    <t>dcc</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-019-13983-9</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-019-13929-1</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-17359-2</t>
-  </si>
-  <si>
-    <t>https://dcc.icgc.org/releases/PCAWG/consensus_snv_indel</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-019-13824-9</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-14367-0</t>
-  </si>
-  <si>
-    <t>https://dcc.icgc.org/releases/PCAWG/networks</t>
-  </si>
-  <si>
-    <t>10.1038/s41588-019-0576-7</t>
-  </si>
-  <si>
-    <t>10.1016/j.ajhg.2020.04.016</t>
-  </si>
-  <si>
-    <t>https://www.deciphergenomics.org/patient/412419/overview/general</t>
-  </si>
-  <si>
-    <t>decipher</t>
-  </si>
-  <si>
-    <t>10.3389/fcimb.2020.00167</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB35812</t>
-  </si>
-  <si>
-    <t>European Nucleotide Archive</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>10.1053/j.gastro.2020.03.017</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB20400</t>
-  </si>
-  <si>
-    <t>10.1038/s41556-020-0488-x</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/LS482294</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-19589-w</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB37249</t>
-  </si>
-  <si>
-    <t>10.1128/msphere.00598-20</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/PRJNA657829</t>
-  </si>
-  <si>
-    <t>10.1093/jac/dkaa271</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB28593</t>
-  </si>
-  <si>
-    <t>10.1186/s13072-020-00345-9</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb27665?show=reads</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2269-x</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB37249?show=reads</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2797-4</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB39602?show=reads</t>
-  </si>
-  <si>
-    <t>10.1111/all.14322</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB37836?show=reads</t>
-  </si>
-  <si>
-    <t>10.1126/sciadv.abb4565</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB34111?show=reads</t>
-  </si>
-  <si>
-    <t>10.1126/science.aba9411</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/prjeb36265</t>
-  </si>
-  <si>
-    <t>10.1136/gutjnl-2018-317856</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/data/view/PRJEB34637</t>
-  </si>
-  <si>
-    <t>10.1186/s13756-020-0696-y</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB36565</t>
-  </si>
-  <si>
-    <t>10.1242/bio.044222</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/PRJEB27665?show=reads</t>
-  </si>
-  <si>
-    <t>10.7554/elife.51243</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/data/view/PRJEB2600</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2598-9</t>
-  </si>
-  <si>
-    <t>http://flowrepository.org/id/FR-FCM-Z2K3</t>
-  </si>
-  <si>
-    <t>FlowRepository</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE116694</t>
-  </si>
-  <si>
-    <t>Gene Expression Omnibus</t>
-  </si>
-  <si>
-    <t>Copyrights</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.108184</t>
-  </si>
-  <si>
-    <t>http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149371</t>
-  </si>
-  <si>
-    <t>10.1111/nan.12655</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE127255</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-58668-2</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107998</t>
-  </si>
-  <si>
-    <t>10.7554/elife.52549</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143867</t>
-  </si>
-  <si>
-    <t>10.3324/haematol.2019.235291</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE98946</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-019-13960-2</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE128837</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gkaa1089</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147270</t>
-  </si>
-  <si>
-    <t>10.1111/ajt.16161</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124203</t>
-  </si>
-  <si>
-    <t>10.3390/cells9010186</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE138532</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-019-57108-0</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE94916</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.01.044</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107937</t>
-  </si>
-  <si>
-    <t>10.1126/science.aaz2582</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse120589</t>
-  </si>
-  <si>
-    <t>10.1038/s41375-020-0839-4</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse146173</t>
-  </si>
-  <si>
-    <t>10.1002/1878-0261.12835</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE119423</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136264</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.108533</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160524</t>
-  </si>
-  <si>
-    <t>10.1158/2159-8290.cd-20-1202</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse134092</t>
-  </si>
-  <si>
-    <t>10.1038/s41596-020-0333-5</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE142696</t>
-  </si>
-  <si>
-    <t>10.1172/jci138760</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE151285</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-019-56994-8</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124719</t>
-  </si>
-  <si>
-    <t>10.1002/eji.202048797</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160097</t>
-  </si>
-  <si>
-    <t>10.1007/s00401-020-02250-7</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70678</t>
-  </si>
-  <si>
-    <t>10.1016/j.cell.2020.07.038</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129978</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147259</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.107652</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134131</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.107982</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107206</t>
-  </si>
-  <si>
-    <t>10.1016/j.cels.2020.10.001</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134869</t>
-  </si>
-  <si>
-    <t>10.1016/j.ebiom.2020.102970</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148720</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143930</t>
-  </si>
-  <si>
-    <t>10.1016/j.stem.2020.07.018</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144273</t>
-  </si>
-  <si>
-    <t>10.1038/s41388-020-1198-3</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE121362</t>
-  </si>
-  <si>
-    <t>10.1038/s41416-020-0751-8</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE122399</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-14700-7</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE89461</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-14777-0</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124425</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-16009-x</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE77534</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-16244-2</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE120576</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-16464-6</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE140133</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-17467-z</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134753</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-19002-6</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE115103</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148394</t>
-  </si>
-  <si>
-    <t>10.1038/s41541-020-0177-6</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144542</t>
-  </si>
-  <si>
-    <t>10.1038/s41556-020-0529-5</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144397</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2882-8</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE125521</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-2968-3</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123417</t>
-  </si>
-  <si>
-    <t>10.1038/s41586-020-3018-x</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158731</t>
-  </si>
-  <si>
-    <t>10.1038/s41587-020-0469-4</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM3911434</t>
-  </si>
-  <si>
-    <t>10.1038/s41590-020-0707-4</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148405</t>
-  </si>
-  <si>
-    <t>10.1038/s41592-020-0965-y</t>
-  </si>
-  <si>
-    <t>10.1038/s41596-019-0251-6</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE109381</t>
-  </si>
-  <si>
-    <t>10.1038/s41596-020-0369-6</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88826</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-64431-4</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE55235</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-67872-z</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE111230</t>
-  </si>
-  <si>
-    <t>10.1073/pnas.1920393117</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE101409</t>
-  </si>
-  <si>
-    <t>10.1073/pnas.2002481117</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE150753</t>
-  </si>
-  <si>
-    <t>10.1073/pnas.2008883117</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123593</t>
-  </si>
-  <si>
-    <t>10.1073/pnas.2013542117</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158312</t>
-  </si>
-  <si>
-    <t>10.1084/jem.20190133</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143522</t>
-  </si>
-  <si>
-    <t>10.1084/jem.20191933</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129262</t>
-  </si>
-  <si>
-    <t>10.1084/jem.20200137</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141876</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gkz1238</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE131255</t>
-  </si>
-  <si>
-    <t>10.1093/nargab/lqaa036</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145530</t>
-  </si>
-  <si>
-    <t>10.1126/science.aax5863</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129636</t>
-  </si>
-  <si>
-    <t>10.1126/science.aaz5875</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137515</t>
-  </si>
-  <si>
-    <t>10.1126/science.aba4937</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141175</t>
-  </si>
-  <si>
-    <t>10.1128/mbio.01911-20</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100656</t>
-  </si>
-  <si>
-    <t>10.1136/gutjnl-2020-321016</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE73338</t>
-  </si>
-  <si>
-    <t>10.1158/0008-5472.can-19-1493</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE126033</t>
-  </si>
-  <si>
-    <t>10.1158/1055-9965.epi-20-0739</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE155328</t>
-  </si>
-  <si>
-    <t>10.1161/circulationaha.119.042863</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149070</t>
-  </si>
-  <si>
-    <t>10.1161/circulationaha.119.044794</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145350</t>
-  </si>
-  <si>
-    <t>10.1164/rccm.201910-2063oc</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137421</t>
-  </si>
-  <si>
-    <t>10.1172/jci137786</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148669</t>
-  </si>
-  <si>
-    <t>10.1182/blood.2020005244</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141454</t>
-  </si>
-  <si>
-    <t>10.1186/s13041-020-00685-3</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88723</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pbio.3000722</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136662</t>
-  </si>
-  <si>
-    <t>10.1371/journal.ppat.1008461</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100928</t>
-  </si>
-  <si>
-    <t>10.18632/oncotarget.27636</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE133014</t>
-  </si>
-  <si>
-    <t>10.18632/oncotarget.27763</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE84713</t>
-  </si>
-  <si>
-    <t>10.26508/lsa.201900601</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147642</t>
-  </si>
-  <si>
-    <t>10.3389/fneur.2020.573560</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE61405</t>
-  </si>
-  <si>
-    <t>10.3389/fonc.2020.00599</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70458</t>
-  </si>
-  <si>
-    <t>10.3390/ijms21020373</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141217</t>
-  </si>
-  <si>
-    <t>10.3390/ijms21217944</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143796</t>
-  </si>
-  <si>
-    <t>10.3390/ijms21238898</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE161585</t>
-  </si>
-  <si>
-    <t>10.7554/elife.58659</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144682</t>
-  </si>
-  <si>
-    <t>10.1038/s41591-020-0908-2</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145594</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.5524/100743</t>
-  </si>
-  <si>
-    <t>GigaDB</t>
-  </si>
-  <si>
-    <t>CC_AND_Public Domain</t>
-  </si>
-  <si>
-    <t>10.1152/jn.00615.2019</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.12751/g-node.6953bb</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
-    <t>CC-BY-NC-SA</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0244148</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.12751/g-node.mb83iq</t>
-  </si>
-  <si>
-    <t>10.1242/jeb.206342</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.12751/g-node.87584d</t>
-  </si>
-  <si>
-    <t>CC-BY-SA</t>
-  </si>
-  <si>
-    <t>10.1016/s0140-6736(20)30750-9</t>
-  </si>
-  <si>
-    <t>http://ghdx.healthdata.org/gbd-2019</t>
-  </si>
-  <si>
-    <t>Global Health Data Exchange</t>
-  </si>
-  <si>
-    <t>ODC</t>
-  </si>
-  <si>
-    <t>10.1038/s41592-020-0884-y</t>
-  </si>
-  <si>
-    <t>https://submission.gpcrmd.org/home/</t>
-  </si>
-  <si>
-    <t>gpcrmd</t>
-  </si>
-  <si>
-    <t>10.1074/jbc.ra120.014890</t>
-  </si>
-  <si>
-    <t>https://massive.ucsd.edu/ProteoSAFe/dataset_files.jsp?task=e50e8f39be94497db47a71a45a3becaf#%7B%22table_sort_history%22%3A%22main.collection_asc%22%7D</t>
-  </si>
-  <si>
-    <t>Mass Spectrometry Interactive Virtual Environment</t>
-  </si>
-  <si>
-    <t>10.26508/lsa.202000700</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/metabolights/MTBLS186/files</t>
-  </si>
-  <si>
-    <t>MetaboLights</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/JACCFF010000001.1?report=fasta</t>
-  </si>
-  <si>
-    <t>NCBI Nucleotide</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT711466.1</t>
-  </si>
-  <si>
-    <t>10.1093/ve/veaa033</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MH844500</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.01.070</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MN900952?report=genbank</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT108784</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT270825</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MW002770</t>
-  </si>
-  <si>
-    <t>10.1073/pnas.2006750117</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MK598003</t>
-  </si>
-  <si>
-    <t>10.1093/brain/awaa346</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/NC_000005.10?report=graph&amp;mk=114404655|NC_000005.10\:g.114404655_114404658del|green</t>
-  </si>
-  <si>
-    <t>10.1038/s41437-020-0331-y</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT136926</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-17060-4</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MN175570</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-64159-1</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MG963186</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MN037882</t>
-  </si>
-  <si>
-    <t>10.3201/eid2612.200708</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MT123530</t>
-  </si>
-  <si>
-    <t>10.1186/s42522-020-00018-3</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/nuccore/MN714358</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.18112/openneuro.ds001734.v1.0.4</t>
-  </si>
-  <si>
-    <t>OpenNeuro</t>
-  </si>
-  <si>
-    <t>CC_AND_CC0_AND_ODC</t>
-  </si>
-  <si>
-    <t>https://openneuro.org/datasets/ds001734/versions/1.0.4</t>
-  </si>
-  <si>
-    <t>http://www.peptideatlas.org/PASS/PASS01250</t>
-  </si>
-  <si>
-    <t>PeptideAtlas</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-71899-7</t>
-  </si>
-  <si>
-    <t>http://www.peptideatlas.org/PASS/PASS01606</t>
-  </si>
-  <si>
-    <t>10.1038/s41597-020-0495-6</t>
-  </si>
-  <si>
-    <t>https://physionet.org/content/ptb-xl/1.0.1/</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.13026/x4td-x982</t>
-  </si>
-  <si>
-    <t>PhysioNet</t>
-  </si>
-  <si>
-    <t>10.3389/fimmu.2020.00179</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.18430/m33czf</t>
-  </si>
-  <si>
-    <t>proteindiffraction</t>
-  </si>
-  <si>
-    <t>10.1021/acs.analchem.0c01273</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD019926</t>
-  </si>
-  <si>
-    <t>ProteomeXchange</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD019123</t>
-  </si>
-  <si>
-    <t>10.4049/immunohorizons.2000006</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016211</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD010084</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD013167</t>
-  </si>
-  <si>
-    <t>PRoteomics IDEntifications Database</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD020612</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD010370</t>
-  </si>
-  <si>
-    <t>10.1016/j.cels.2020.05.012</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD018874</t>
-  </si>
-  <si>
-    <t>10.1021/acs.jproteome.9b00714</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD014913</t>
-  </si>
-  <si>
-    <t>10.1038/s41389-020-0201-8</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD012523</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016341</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-15743-6</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD011129</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-16929-8</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD017341</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-18542-1</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016334</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD006921</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016782</t>
-  </si>
-  <si>
-    <t>10.1093/nar/gkaa681</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD011887</t>
-  </si>
-  <si>
-    <t>10.1126/sciadv.aay1109</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD013259</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD017530</t>
-  </si>
-  <si>
-    <t>10.1172/jci.insight.123862</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD009944</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.108235</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD021351</t>
-  </si>
-  <si>
-    <t>http://raeslab.org/software/BMIS/</t>
-  </si>
-  <si>
-    <t>raeslab</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.108117</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10341086</t>
-  </si>
-  <si>
-    <t>Sequence Read Archive</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-14782-3</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/bioproject/?term=prjna437582</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pgen.1008651</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR8454256</t>
-  </si>
-  <si>
-    <t>10.1053/j.gastro.2020.07.005</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR13762768</t>
-  </si>
-  <si>
-    <t>10.1084/jem.20200275</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11462381</t>
-  </si>
-  <si>
-    <t>10.1111/jgh.15071</t>
-  </si>
-  <si>
-    <t>10.1002/eji.201948474</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11104128</t>
-  </si>
-  <si>
-    <t>10.1016/j.ebiom.2020.103009</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12567985</t>
-  </si>
-  <si>
-    <t>10.1016/j.jaci.2020.04.059</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR5010537</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6870406</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-020-67843-4</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=ERR3132486</t>
-  </si>
-  <si>
-    <t>10.1534/g3.120.401537</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11793881</t>
-  </si>
-  <si>
-    <t>10.3389/fmicb.2020.556793</t>
-  </si>
-  <si>
-    <t>https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10048296</t>
-  </si>
-  <si>
-    <t>https://www.synapse.org/#!Synapse:syn7596712</t>
-  </si>
-  <si>
-    <t>Synapse</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-14351-8</t>
-  </si>
-  <si>
-    <t>10.1038/s41588-019-0562-0</t>
-  </si>
-  <si>
-    <t>https://www.synapse.org/#!Synapse:syn21052009</t>
-  </si>
-  <si>
-    <t>10.1371/journal.ppat.1008263</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/pdbe/entry/emdb/EMD-10045</t>
-  </si>
-  <si>
-    <t>The Electron Microscopy Data Bank</t>
-  </si>
-  <si>
-    <t>10.1016/j.celrep.2020.108157</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/emdb/EMD-0270</t>
-  </si>
-  <si>
-    <t>10.1073/pnas.2004563117</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/emdb/entry/EMD-11678</t>
-  </si>
-  <si>
-    <t>10.1126/science.abd1673</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/emdb/EMD-11087</t>
-  </si>
-  <si>
-    <t>https://ega-archive.org/datasets/EGAD00001006550/files</t>
-  </si>
-  <si>
-    <t>The European Genome-phenome Archive</t>
-  </si>
-  <si>
-    <t>https://ega-archive.org/datasets/EGAD00001001343/files</t>
-  </si>
-  <si>
-    <t>https://ega-archive.org/datasets/EGAD00001005247/files</t>
-  </si>
-  <si>
-    <t>10.1126/science.abb3405</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6Y2E/pdb</t>
-  </si>
-  <si>
-    <t>Worldwide Protein Data Bank</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-15614-0</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.2210/pdb6tga/pdb</t>
-  </si>
-  <si>
-    <t>10.1021/acs.biochem.0c00053</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6G1Y/pdb</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6XKQ/pdb</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6RWK/pdb</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6HTQ/pdb</t>
-  </si>
-  <si>
-    <t>10.1038/s41467-020-19321-8</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.2210/pdb6yga/pdb</t>
-  </si>
-  <si>
-    <t>10.1083/jcb.201902059</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6Q9M/pdb</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.2210/pdb6Z9P/pdb</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="642">
+  <si>
+    <t xml:space="preserve">article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best_identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guid_fuji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repository_re3data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repository_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_license_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">license_fuji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">license_fair_enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136/bmjopen-2019-032864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.4tmpg4f5f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRYAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general-purpose repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7554/elife.51156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.gt160v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0229661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Measuring_childhood_maltreatment_Psychometric_properties_of_the_Norwegian_version_of_the_Maltreatment_and_Abuse_Chronology_of_Exposure_MACE_scale/11910426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0229661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figshare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache License 2.0_AND_BSD_AND_CC_AND_CC0_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s13073-020-00771-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12845697.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s12917-020-02606-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12830405.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0237944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Complete_data_set_of_questionnaires_/12836445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0237944.s001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s12866-020-01741-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12127476.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s13293-020-00313-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12617808.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0229260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Virus-associated_anterior_uveitis_and_secondary_glaucoma_Diagnostics_clinical_characteristics_and_surgical_options/11893245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0229260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0243711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/S1_File_-/13362405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0243711.s001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s12916-019-1478-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.11665131.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pmed.1003074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Association_of_suicidal_behavior_with_exposure_to_suicide_and_suicide_attempt_A_systematic_review_and_multilevel_meta-analysis/12054234?file=22151703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pmed.1003074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0226443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Attitudes_towards_animal_study_registries_and_their_characteristics_An_online_survey_of_three_cohorts_of_animal_researchers/11528676?file=20702688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0226443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0228538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/_Wonderful_We_ve_just_missed_the_bus__Parental_use_of_irony_and_children_s_irony_comprehension/11884272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0228538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0228736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Prognostic_value_of_the_myocardial_salvage_index_measured_by_T2-weighted_and_T1-weighted_late_gadolinium_enhancement_magnetic_resonance_imaging_after_ST-segment_elevation_myocardial_infarction_A_systematic_review_and_meta-regression_analysi/11851431?file=21722040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0228736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0241480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/S1_Dataset_-/13177655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0241480.s001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s12885-020-07062-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12607277.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41597-020-00597-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.c.4869732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.108470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.13154321.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acs.analchem.0c00136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/12668465?backTo=/collections/Concepts_and_Software_Package_for_Efficient_Quality_Control_in_Targeted_Metabolomics_Studies_MeTaQuaC/5066000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/acs.analchem.0c00136.s001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-019-13984-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.11117669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-18084-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12678938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-18826-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12770366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-60755-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.9585410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-78722-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12901682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1098/rspb.2019.2228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.c.4795809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0231299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Yoga_in_school_sports_improves_functioning_of_autonomic_nervous_system_in_young_adults_A_non-randomized_controlled_pilot_study/12120105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0231299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0236426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.11807658.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0239210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Anonymized_data_of_the_patients_/13051631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0239210.s001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0239853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.12967106.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0242197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/S1_File_-/13249124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0242197.s001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7554/elife.48401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.8312807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1523/jneurosci.2189-17.2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.5726845.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1098/rsif.2018.0220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.7110836.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0235716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Minimal_data_set_SPSS_file_with_age_mPAP_diameter_of_the_aorta_diamAo_and_the_pulmonary_artery_diamPA_and_PA_A_PA_to_Ao_/12615088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0235716.s001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0211001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Trauma_induced_acute_kidney_injury/7632995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0211001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/1078-0432.ccr-19-1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/tkarn/G5-RNA-Seq/blob/master/Signature_GeneList.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/febs.15608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/scitedotai/research-wikipedia/tree/master/Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acs.jcim.0c00815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/choderalab/selectivity/tree/master/fep/fep_maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fneur.2020.00381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ahmedaak/BD_scan-shortening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/mrm.28307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/pramosdelgado/B1correction-toolkit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acs.jcim.0c00839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/volkamerlab/KinFragLib/tree/master/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2314-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/poldrack/narps/tree/master/ImageAnalyses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gkaa1198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/juzb/CASANOVA-C3/tree/master/output/CN-C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fcvm.2020.599923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/lorfas74/random-shuffle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-19449-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.7910/DVN/LL3C1R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvard Dataverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-019-56416-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://data.mendeley.com/datasets/sj5cms7fky/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.17632/sj5cms7fky.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendeley Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_CC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cell.2020.08.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17632/hwxhw2sxys.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC BY-NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cell.2020.09.049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17632/f6tb3csgjt.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.isci.2020.101539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17632/25cnynmzx6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41597-020-0487-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17632/nr7cs764rc.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/braincomms/fcaa021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17632/nrj467zmj2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s13104-020-05248-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17632/9dkwv5w9b3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/medu.14057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/UHJAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Science Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/gigascience/giaa052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/M8E6Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.jclinepi.2020.09.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/PTJBN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1152/jn.00164.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/ECMA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fnbeh.2020.00088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/n85sh/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/dv85n/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0226843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/XSBHW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1098/rsos.190806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/3d5um/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/u9fw8/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1523/eneuro.0537-19.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/3x95n/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0226893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6847218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1525/collabra.267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/48fhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1001/jamanetworkopen.2020.32335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/W6DF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1007/s11948-020-00234-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/cq3s9/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/qak8e/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/jne.12923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.17605/OSF.IO/UXNC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136/bmjopen-2019-034666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/8XZ29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.12688/f1000research.26707.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/GPMNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/qp5cm/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0233608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/turzf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0237093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/6frp5/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0239598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/a43ut/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fpsyg.2020.02021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/h564u/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.03.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.25534/tudatalib-158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUdatalib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache License 2.0_AND_CC_AND_ODC_AND_Public Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s40635-019-0284-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zenodo.org/record/3378028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3378028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zenodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_CC0_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0227955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/record/3603309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s40658-020-0270-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3373973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pbio.3000792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3876533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0227178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3601477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0231302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/cancers12113138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.5281/zenodo.4009499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.addgene.org/137191/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addgene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-specific repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s42003-020-01167-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8508/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrayExpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Domain_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/ijc.33456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7680/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-14466-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-3013/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-20222-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-8152/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-019-57076-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6713/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/2159-8290.cd-19-1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-7802/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fimmu.2020.586124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-9642/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fonc.2020.00747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-6316/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1128/mra.00797-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12181074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyrights_AND_Public Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/0008-5472.can-20-1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR7829659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-19452-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11467537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-65744-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2294-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11426414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41591-020-0801-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10484371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/0008-5472.can-20-0754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cell.2020.10.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cptac-data-portal.georgetown.edu/study-summary/S060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical Proteomic Tumor Analysis Consortium Data Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1200/jco.20.01164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://clinicaltrials.gov/ct2/show/NCT01849874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClinicalTrials.gov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyrights_AND_Public Domain_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s12859-020-03741-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeocean.com/capsule/9813295/tree/v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0_AND_Copyrights_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.24433/CO.1724316.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC BY-NC-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeocean.com/capsule/6259283/tree/v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41588-019-0564-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dcc.icgc.org/releases/PCAWG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-019-13983-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-019-13929-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-17359-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dcc.icgc.org/releases/PCAWG/consensus_snv_indel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-019-13824-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-14367-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dcc.icgc.org/releases/PCAWG/networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41588-019-0576-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ajhg.2020.04.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.deciphergenomics.org/patient/412419/overview/general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decipher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fcimb.2020.00167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB35812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Nucleotide Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1053/j.gastro.2020.03.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB20400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41556-020-0488-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/LS482294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-19589-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB37249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1128/msphere.00598-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJNA657829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/jac/dkaa271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB28593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s13072-020-00345-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/prjeb27665?show=reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2269-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB37249?show=reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2797-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB39602?show=reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/all.14322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB37836?show=reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/sciadv.abb4565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB34111?show=reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.aba9411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/prjeb36265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136/gutjnl-2018-317856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/data/view/PRJEB34637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s13756-020-0696-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB36565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1242/bio.044222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/browser/view/PRJEB27665?show=reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7554/elife.51243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/ena/data/view/PRJEB2600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2598-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://flowrepository.org/id/FR-FCM-Z2K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlowRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE116694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene Expression Omnibus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyrights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.108184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/nan.12655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE127255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-58668-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7554/elife.52549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3324/haematol.2019.235291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE98946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-019-13960-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE128837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gkaa1089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/ajt.16161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/cells9010186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE138532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-019-57108-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE94916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.01.044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.aaz2582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse120589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41375-020-0839-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse146173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/1878-0261.12835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE119423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.108533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/2159-8290.cd-20-1202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=gse134092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41596-020-0333-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE142696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1172/jci138760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE151285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-019-56994-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/eji.202048797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE160097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1007/s00401-020-02250-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cell.2020.07.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.107652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.107982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE107206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cels.2020.10.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ebiom.2020.102970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.stem.2020.07.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41388-020-1198-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE121362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41416-020-0751-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE122399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-14700-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE89461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-14777-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE124425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-16009-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE77534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-16244-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE120576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-16464-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE140133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-17467-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE134753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-19002-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE115103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41541-020-0177-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41556-020-0529-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2882-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE125521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-2968-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41586-020-3018-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41587-020-0469-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM3911434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41590-020-0707-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41592-020-0965-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41596-019-0251-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE109381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41596-020-0369-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-64431-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE55235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-67872-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE111230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073/pnas.1920393117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE101409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073/pnas.2002481117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE150753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073/pnas.2008883117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE123593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073/pnas.2013542117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE158312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1084/jem.20190133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1084/jem.20191933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1084/jem.20200137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gkz1238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE131255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nargab/lqaa036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.aax5863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE129636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.aaz5875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.aba4937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1128/mbio.01911-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136/gutjnl-2020-321016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE73338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/0008-5472.can-19-1493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE126033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1158/1055-9965.epi-20-0739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE155328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1161/circulationaha.119.042863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE149070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1161/circulationaha.119.044794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1164/rccm.201910-2063oc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE137421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1172/jci137786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE148669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1182/blood.2020005244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s13041-020-00685-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE88723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pbio.3000722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE136662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.ppat.1008461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE100928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.18632/oncotarget.27636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE133014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.18632/oncotarget.27763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE84713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.26508/lsa.201900601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE147642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fneur.2020.573560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE61405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fonc.2020.00599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE70458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/ijms21020373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE141217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/ijms21217944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE143796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/ijms21238898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE161585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7554/elife.58659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE144682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41591-020-0908-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE145594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.5524/100743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GigaDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_Public Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1152/jn.00615.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.12751/g-node.6953bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC BY-NC-SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pone.0244148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.12751/g-node.mb83iq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1242/jeb.206342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.12751/g-node.87584d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC BY-SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/s0140-6736(20)30750-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ghdx.healthdata.org/gbd-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Health Data Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41592-020-0884-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://submission.gpcrmd.org/home/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpcrmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1074/jbc.ra120.014890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://massive.ucsd.edu/ProteoSAFe/dataset_files.jsp?task=e50e8f39be94497db47a71a45a3becaf#%7B%22table_sort_history%22%3A%22main.collection_asc%22%7D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Spectrometry Interactive Virtual Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.26508/lsa.202000700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/metabolights/MTBLS186/files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetaboLights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/JACCFF010000001.1?report=fasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBI Nucleotide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT711466.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/ve/veaa033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MH844500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.01.070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN900952?report=genbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT108784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT270825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MW002770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073/pnas.2006750117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MK598003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/brain/awaa346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/NC_000005.10?report=graph&amp;mk=114404655|NC_000005.10\:g.114404655_114404658del|green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41437-020-0331-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT136926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-17060-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN175570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-64159-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MG963186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN037882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3201/eid2612.200708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MT123530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1186/s42522-020-00018-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/nuccore/MN714358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.18112/openneuro.ds001734.v1.0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenNeuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_AND_CC0_AND_ODC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openneuro.org/datasets/ds001734/versions/1.0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.peptideatlas.org/PASS/PASS01250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeptideAtlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-71899-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.peptideatlas.org/PASS/PASS01606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41597-020-0495-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://physionet.org/content/ptb-xl/1.0.1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.13026/x4td-x982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysioNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fimmu.2020.00179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.18430/m33czf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proteindiffraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acs.analchem.0c01273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD019926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProteomeXchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD019123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4049/immunohorizons.2000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD010084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD013167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRoteomics IDEntifications Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD020612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD010370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.cels.2020.05.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD018874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acs.jproteome.9b00714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD014913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41389-020-0201-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD012523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-15743-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD011129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-16929-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD017341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-18542-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD006921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD016782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1093/nar/gkaa681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD011887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/sciadv.aay1109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD013259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD017530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1172/jci.insight.123862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD009944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.108235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pride/archive/projects/PXD021351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://raeslab.org/software/BMIS/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raeslab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.108117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10341086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence Read Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-14782-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/bioproject/?term=prjna437582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.pgen.1008651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR8454256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1053/j.gastro.2020.07.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR13762768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1084/jem.20200275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11462381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1111/jgh.15071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/eji.201948474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11104128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ebiom.2020.103009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR12567985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.jaci.2020.04.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR5010537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR6870406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41598-020-67843-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=ERR3132486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1534/g3.120.401537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR11793881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3389/fmicb.2020.556793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR10048296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.synapse.org/#!Synapse:syn7596712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-14351-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41588-019-0562-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.synapse.org/#!Synapse:syn21052009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1371/journal.ppat.1008263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pdbe/entry/emdb/EMD-10045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Electron Microscopy Data Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.celrep.2020.108157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/emdb/EMD-0270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1073/pnas.2004563117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/emdb/entry/EMD-11678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.abd1673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/emdb/EMD-11087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ega-archive.org/datasets/EGAD00001006550/files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Genome-phenome Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ega-archive.org/datasets/EGAD00001001343/files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ega-archive.org/datasets/EGAD00001005247/files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.abb3405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6Y2E/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worldwide Protein Data Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-15614-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.2210/pdb6tga/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acs.biochem.0c00053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6G1Y/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6XKQ/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6RWK/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6HTQ/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-020-19321-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.2210/pdb6yga/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1083/jcb.201902059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6Q9M/pdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.2210/pdb6Z9P/pdb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1991,18 +1978,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2284,14 +2262,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2317,7 +2295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2343,7 +2321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2369,7 +2347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2395,7 +2373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2421,7 +2399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2447,7 +2425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2473,7 +2451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2499,7 +2477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2525,7 +2503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2551,7 +2529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2577,7 +2555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2603,7 +2581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2629,7 +2607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2655,7 +2633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2681,7 +2659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -2707,7 +2685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2733,7 +2711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2759,7 +2737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2785,7 +2763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2811,7 +2789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2837,7 +2815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -2863,7 +2841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -2889,7 +2867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -2915,7 +2893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2941,7 +2919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2967,7 +2945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2993,7 +2971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -3019,7 +2997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3045,7 +3023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -3071,7 +3049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3097,7 +3075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -3123,7 +3101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -3149,7 +3127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -3175,7 +3153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -3201,7 +3179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -3227,7 +3205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -3253,7 +3231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -3279,7 +3257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -3305,7 +3283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -3331,7 +3309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -3357,7 +3335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42">
       <c r="A42" t="s">
         <v>113</v>
       </c>
@@ -3383,7 +3361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -3409,7 +3387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -3435,7 +3413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -3461,7 +3439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -3487,7 +3465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -3513,7 +3491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48">
       <c r="A48" t="s">
         <v>127</v>
       </c>
@@ -3539,7 +3517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -3565,7 +3543,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -3591,7 +3569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -3617,7 +3595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -3643,7 +3621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -3669,7 +3647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -3695,7 +3673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55">
       <c r="A55" t="s">
         <v>145</v>
       </c>
@@ -3721,7 +3699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -3747,7 +3725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -3773,7 +3751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58">
       <c r="A58" t="s">
         <v>153</v>
       </c>
@@ -3799,7 +3777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59">
       <c r="A59" t="s">
         <v>155</v>
       </c>
@@ -3825,7 +3803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -3851,7 +3829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -3877,7 +3855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62">
       <c r="A62" t="s">
         <v>160</v>
       </c>
@@ -3903,7 +3881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63">
       <c r="A63" t="s">
         <v>163</v>
       </c>
@@ -3929,7 +3907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64">
       <c r="A64" t="s">
         <v>165</v>
       </c>
@@ -3955,7 +3933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65">
       <c r="A65" t="s">
         <v>167</v>
       </c>
@@ -3981,7 +3959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66">
       <c r="A66" t="s">
         <v>169</v>
       </c>
@@ -4007,7 +3985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67">
       <c r="A67" t="s">
         <v>171</v>
       </c>
@@ -4033,7 +4011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68">
       <c r="A68" t="s">
         <v>174</v>
       </c>
@@ -4059,7 +4037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69">
       <c r="A69" t="s">
         <v>176</v>
       </c>
@@ -4085,7 +4063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70">
       <c r="A70" t="s">
         <v>178</v>
       </c>
@@ -4111,7 +4089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71">
       <c r="A71" t="s">
         <v>180</v>
       </c>
@@ -4137,7 +4115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72">
       <c r="A72" t="s">
         <v>182</v>
       </c>
@@ -4163,7 +4141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73">
       <c r="A73" t="s">
         <v>184</v>
       </c>
@@ -4189,7 +4167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -4215,7 +4193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75">
       <c r="A75" t="s">
         <v>188</v>
       </c>
@@ -4241,7 +4219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -4267,7 +4245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -4293,7 +4271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78">
       <c r="A78" t="s">
         <v>199</v>
       </c>
@@ -4319,7 +4297,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -4345,7 +4323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80">
       <c r="A80" t="s">
         <v>203</v>
       </c>
@@ -4371,7 +4349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -4397,7 +4375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82">
       <c r="A82" t="s">
         <v>207</v>
       </c>
@@ -4423,7 +4401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83">
       <c r="A83" t="s">
         <v>209</v>
       </c>
@@ -4449,7 +4427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -4475,7 +4453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85">
       <c r="A85" t="s">
         <v>214</v>
       </c>
@@ -4501,7 +4479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -4527,7 +4505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87">
       <c r="A87" t="s">
         <v>220</v>
       </c>
@@ -4553,7 +4531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88">
       <c r="A88" t="s">
         <v>222</v>
       </c>
@@ -4579,7 +4557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89">
       <c r="A89" t="s">
         <v>224</v>
       </c>
@@ -4605,7 +4583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90">
       <c r="A90" t="s">
         <v>226</v>
       </c>
@@ -4631,7 +4609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91">
       <c r="A91" t="s">
         <v>228</v>
       </c>
@@ -4657,7 +4635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92">
       <c r="A92" t="s">
         <v>230</v>
       </c>
@@ -4683,7 +4661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93">
       <c r="A93" t="s">
         <v>232</v>
       </c>
@@ -4709,7 +4687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94">
       <c r="A94" t="s">
         <v>236</v>
       </c>
@@ -4735,7 +4713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95">
       <c r="A95" t="s">
         <v>238</v>
       </c>
@@ -4761,7 +4739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96">
       <c r="A96" t="s">
         <v>240</v>
       </c>
@@ -4787,7 +4765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97">
       <c r="A97" t="s">
         <v>241</v>
       </c>
@@ -4813,7 +4791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98">
       <c r="A98" t="s">
         <v>243</v>
       </c>
@@ -4839,7 +4817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99">
       <c r="A99" t="s">
         <v>245</v>
       </c>
@@ -4865,7 +4843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100">
       <c r="A100" t="s">
         <v>246</v>
       </c>
@@ -4891,7 +4869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101">
       <c r="A101" t="s">
         <v>249</v>
       </c>
@@ -4917,7 +4895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102">
       <c r="A102" t="s">
         <v>253</v>
       </c>
@@ -4943,7 +4921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103">
       <c r="A103" t="s">
         <v>135</v>
       </c>
@@ -4969,7 +4947,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104">
       <c r="A104" t="s">
         <v>160</v>
       </c>
@@ -4995,7 +4973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105">
       <c r="A105" t="s">
         <v>261</v>
       </c>
@@ -5021,7 +4999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106">
       <c r="A106" t="s">
         <v>264</v>
       </c>
@@ -5047,7 +5025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107">
       <c r="A107" t="s">
         <v>265</v>
       </c>
@@ -5073,7 +5051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108">
       <c r="A108" t="s">
         <v>266</v>
       </c>
@@ -5099,7 +5077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109">
       <c r="A109" t="s">
         <v>268</v>
       </c>
@@ -5125,7 +5103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110">
       <c r="A110" t="s">
         <v>269</v>
       </c>
@@ -5151,7 +5129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111">
       <c r="A111" t="s">
         <v>271</v>
       </c>
@@ -5177,7 +5155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112">
       <c r="A112" t="s">
         <v>272</v>
       </c>
@@ -5203,7 +5181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113">
       <c r="A113" t="s">
         <v>275</v>
       </c>
@@ -5229,7 +5207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114">
       <c r="A114" t="s">
         <v>279</v>
       </c>
@@ -5255,7 +5233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115">
       <c r="A115" t="s">
         <v>281</v>
       </c>
@@ -5281,7 +5259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116">
       <c r="A116" t="s">
         <v>283</v>
       </c>
@@ -5307,7 +5285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117">
       <c r="A117" t="s">
         <v>285</v>
       </c>
@@ -5333,7 +5311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118">
       <c r="A118" t="s">
         <v>287</v>
       </c>
@@ -5359,7 +5337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119">
       <c r="A119" t="s">
         <v>289</v>
       </c>
@@ -5385,7 +5363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120">
       <c r="A120" t="s">
         <v>291</v>
       </c>
@@ -5411,7 +5389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121">
       <c r="A121" t="s">
         <v>293</v>
       </c>
@@ -5437,7 +5415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122">
       <c r="A122" t="s">
         <v>295</v>
       </c>
@@ -5463,7 +5441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123">
       <c r="A123" t="s">
         <v>297</v>
       </c>
@@ -5489,7 +5467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124">
       <c r="A124" t="s">
         <v>299</v>
       </c>
@@ -5515,7 +5493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125">
       <c r="A125" t="s">
         <v>301</v>
       </c>
@@ -5541,7 +5519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126">
       <c r="A126" t="s">
         <v>303</v>
       </c>
@@ -5567,7 +5545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127">
       <c r="A127" t="s">
         <v>305</v>
       </c>
@@ -5593,7 +5571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128">
       <c r="A128" t="s">
         <v>307</v>
       </c>
@@ -5619,7 +5597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129">
       <c r="A129" t="s">
         <v>309</v>
       </c>
@@ -5645,7 +5623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130">
       <c r="A130" t="s">
         <v>261</v>
       </c>
@@ -5671,7 +5649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131">
       <c r="A131" t="s">
         <v>315</v>
       </c>
@@ -5697,7 +5675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132">
       <c r="A132" t="s">
         <v>317</v>
       </c>
@@ -5723,7 +5701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133">
       <c r="A133" t="s">
         <v>319</v>
       </c>
@@ -5749,7 +5727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134">
       <c r="A134" t="s">
         <v>321</v>
       </c>
@@ -5775,7 +5753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135">
       <c r="A135" t="s">
         <v>323</v>
       </c>
@@ -5801,7 +5779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136">
       <c r="A136" t="s">
         <v>325</v>
       </c>
@@ -5827,7 +5805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137">
       <c r="A137" t="s">
         <v>327</v>
       </c>
@@ -5853,7 +5831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138">
       <c r="A138" t="s">
         <v>329</v>
       </c>
@@ -5879,7 +5857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139">
       <c r="A139" t="s">
         <v>331</v>
       </c>
@@ -5905,7 +5883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140">
       <c r="A140" t="s">
         <v>333</v>
       </c>
@@ -5931,7 +5909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141">
       <c r="A141" t="s">
         <v>335</v>
       </c>
@@ -5957,7 +5935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142">
       <c r="A142" t="s">
         <v>337</v>
       </c>
@@ -5983,7 +5961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143">
       <c r="A143" t="s">
         <v>339</v>
       </c>
@@ -6009,7 +5987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144">
       <c r="A144" t="s">
         <v>341</v>
       </c>
@@ -6035,7 +6013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -6061,7 +6039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146">
       <c r="A146" t="s">
         <v>344</v>
       </c>
@@ -6087,7 +6065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147">
       <c r="A147" t="s">
         <v>346</v>
       </c>
@@ -6113,7 +6091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148">
       <c r="A148" t="s">
         <v>348</v>
       </c>
@@ -6139,7 +6117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149">
       <c r="A149" t="s">
         <v>350</v>
       </c>
@@ -6165,7 +6143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150">
       <c r="A150" t="s">
         <v>352</v>
       </c>
@@ -6191,7 +6169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151">
       <c r="A151" t="s">
         <v>354</v>
       </c>
@@ -6217,7 +6195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152">
       <c r="A152" t="s">
         <v>356</v>
       </c>
@@ -6243,7 +6221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153">
       <c r="A153" t="s">
         <v>358</v>
       </c>
@@ -6269,7 +6247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -6295,7 +6273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155">
       <c r="A155" t="s">
         <v>361</v>
       </c>
@@ -6321,7 +6299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156">
       <c r="A156" t="s">
         <v>363</v>
       </c>
@@ -6347,7 +6325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157">
       <c r="A157" t="s">
         <v>365</v>
       </c>
@@ -6373,7 +6351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158">
       <c r="A158" t="s">
         <v>367</v>
       </c>
@@ -6399,7 +6377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159">
       <c r="A159" t="s">
         <v>137</v>
       </c>
@@ -6425,7 +6403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160">
       <c r="A160" t="s">
         <v>370</v>
       </c>
@@ -6451,7 +6429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161">
       <c r="A161" t="s">
         <v>372</v>
       </c>
@@ -6477,7 +6455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162">
       <c r="A162" t="s">
         <v>374</v>
       </c>
@@ -6503,7 +6481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163">
       <c r="A163" t="s">
         <v>376</v>
       </c>
@@ -6529,7 +6507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164">
       <c r="A164" t="s">
         <v>378</v>
       </c>
@@ -6555,7 +6533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165">
       <c r="A165" t="s">
         <v>380</v>
       </c>
@@ -6581,7 +6559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166">
       <c r="A166" t="s">
         <v>382</v>
       </c>
@@ -6607,7 +6585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167">
       <c r="A167" t="s">
         <v>384</v>
       </c>
@@ -6633,7 +6611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168">
       <c r="A168" t="s">
         <v>386</v>
       </c>
@@ -6659,7 +6637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169">
       <c r="A169" t="s">
         <v>388</v>
       </c>
@@ -6685,7 +6663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170">
       <c r="A170" t="s">
         <v>222</v>
       </c>
@@ -6711,7 +6689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171">
       <c r="A171" t="s">
         <v>391</v>
       </c>
@@ -6737,7 +6715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172">
       <c r="A172" t="s">
         <v>393</v>
       </c>
@@ -6763,7 +6741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173">
       <c r="A173" t="s">
         <v>395</v>
       </c>
@@ -6789,7 +6767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174">
       <c r="A174" t="s">
         <v>397</v>
       </c>
@@ -6815,7 +6793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175">
       <c r="A175" t="s">
         <v>399</v>
       </c>
@@ -6841,7 +6819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176">
       <c r="A176" t="s">
         <v>401</v>
       </c>
@@ -6867,7 +6845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177">
       <c r="A177" t="s">
         <v>403</v>
       </c>
@@ -6893,7 +6871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178">
       <c r="A178" t="s">
         <v>405</v>
       </c>
@@ -6919,7 +6897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179">
       <c r="A179" t="s">
         <v>406</v>
       </c>
@@ -6945,7 +6923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180">
       <c r="A180" t="s">
         <v>408</v>
       </c>
@@ -6971,7 +6949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181">
       <c r="A181" t="s">
         <v>410</v>
       </c>
@@ -6997,7 +6975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182">
       <c r="A182" t="s">
         <v>412</v>
       </c>
@@ -7023,7 +7001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183">
       <c r="A183" t="s">
         <v>414</v>
       </c>
@@ -7049,7 +7027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184">
       <c r="A184" t="s">
         <v>416</v>
       </c>
@@ -7075,7 +7053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185">
       <c r="A185" t="s">
         <v>418</v>
       </c>
@@ -7101,7 +7079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186">
       <c r="A186" t="s">
         <v>420</v>
       </c>
@@ -7127,7 +7105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187">
       <c r="A187" t="s">
         <v>422</v>
       </c>
@@ -7153,7 +7131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188">
       <c r="A188" t="s">
         <v>424</v>
       </c>
@@ -7179,7 +7157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189">
       <c r="A189" t="s">
         <v>426</v>
       </c>
@@ -7205,7 +7183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190">
       <c r="A190" t="s">
         <v>428</v>
       </c>
@@ -7231,7 +7209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191">
       <c r="A191" t="s">
         <v>430</v>
       </c>
@@ -7257,7 +7235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192">
       <c r="A192" t="s">
         <v>432</v>
       </c>
@@ -7283,7 +7261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193">
       <c r="A193" t="s">
         <v>434</v>
       </c>
@@ -7309,7 +7287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194">
       <c r="A194" t="s">
         <v>436</v>
       </c>
@@ -7335,7 +7313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195">
       <c r="A195" t="s">
         <v>438</v>
       </c>
@@ -7361,7 +7339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196">
       <c r="A196" t="s">
         <v>301</v>
       </c>
@@ -7387,7 +7365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197">
       <c r="A197" t="s">
         <v>440</v>
       </c>
@@ -7413,7 +7391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198">
       <c r="A198" t="s">
         <v>442</v>
       </c>
@@ -7439,7 +7417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199">
       <c r="A199" t="s">
         <v>444</v>
       </c>
@@ -7465,7 +7443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200">
       <c r="A200" t="s">
         <v>446</v>
       </c>
@@ -7491,7 +7469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201">
       <c r="A201" t="s">
         <v>448</v>
       </c>
@@ -7517,7 +7495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202">
       <c r="A202" t="s">
         <v>450</v>
       </c>
@@ -7543,7 +7521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203">
       <c r="A203" t="s">
         <v>452</v>
       </c>
@@ -7569,7 +7547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204">
       <c r="A204" t="s">
         <v>454</v>
       </c>
@@ -7595,7 +7573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205">
       <c r="A205" t="s">
         <v>456</v>
       </c>
@@ -7621,7 +7599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206">
       <c r="A206" t="s">
         <v>458</v>
       </c>
@@ -7647,7 +7625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207">
       <c r="A207" t="s">
         <v>460</v>
       </c>
@@ -7673,7 +7651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208">
       <c r="A208" t="s">
         <v>462</v>
       </c>
@@ -7699,7 +7677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209">
       <c r="A209" t="s">
         <v>464</v>
       </c>
@@ -7725,7 +7703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210">
       <c r="A210" t="s">
         <v>466</v>
       </c>
@@ -7751,7 +7729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211">
       <c r="A211" t="s">
         <v>468</v>
       </c>
@@ -7777,7 +7755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212">
       <c r="A212" t="s">
         <v>470</v>
       </c>
@@ -7803,7 +7781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213">
       <c r="A213" t="s">
         <v>472</v>
       </c>
@@ -7829,7 +7807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214">
       <c r="A214" t="s">
         <v>474</v>
       </c>
@@ -7855,7 +7833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215">
       <c r="A215" t="s">
         <v>476</v>
       </c>
@@ -7881,7 +7859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216">
       <c r="A216" t="s">
         <v>478</v>
       </c>
@@ -7907,7 +7885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217">
       <c r="A217" t="s">
         <v>480</v>
       </c>
@@ -7933,7 +7911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218">
       <c r="A218" t="s">
         <v>149</v>
       </c>
@@ -7959,7 +7937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219">
       <c r="A219" t="s">
         <v>485</v>
       </c>
@@ -7979,13 +7957,13 @@
         <v>131</v>
       </c>
       <c r="G219" t="s">
-        <v>488</v>
+        <v>21</v>
       </c>
       <c r="H219" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220">
       <c r="A220" t="s">
         <v>489</v>
       </c>
@@ -8005,13 +7983,13 @@
         <v>131</v>
       </c>
       <c r="G220" t="s">
-        <v>488</v>
+        <v>21</v>
       </c>
       <c r="H220" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221">
       <c r="A221" t="s">
         <v>491</v>
       </c>
@@ -8031,13 +8009,13 @@
         <v>131</v>
       </c>
       <c r="G221" t="s">
-        <v>258</v>
+        <v>493</v>
       </c>
       <c r="H221" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222">
       <c r="A222" t="s">
         <v>494</v>
       </c>
@@ -8063,7 +8041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223">
       <c r="A223" t="s">
         <v>498</v>
       </c>
@@ -8089,7 +8067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224">
       <c r="A224" t="s">
         <v>501</v>
       </c>
@@ -8115,7 +8093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225">
       <c r="A225" t="s">
         <v>504</v>
       </c>
@@ -8141,7 +8119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -8167,7 +8145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227">
       <c r="A227" t="s">
         <v>25</v>
       </c>
@@ -8193,7 +8171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228">
       <c r="A228" t="s">
         <v>510</v>
       </c>
@@ -8219,7 +8197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229">
       <c r="A229" t="s">
         <v>512</v>
       </c>
@@ -8245,7 +8223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230">
       <c r="A230" t="s">
         <v>241</v>
       </c>
@@ -8271,7 +8249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231">
       <c r="A231" t="s">
         <v>285</v>
       </c>
@@ -8297,7 +8275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232">
       <c r="A232" t="s">
         <v>135</v>
       </c>
@@ -8323,7 +8301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233">
       <c r="A233" t="s">
         <v>517</v>
       </c>
@@ -8349,7 +8327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234">
       <c r="A234" t="s">
         <v>519</v>
       </c>
@@ -8375,7 +8353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235">
       <c r="A235" t="s">
         <v>521</v>
       </c>
@@ -8401,7 +8379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236">
       <c r="A236" t="s">
         <v>523</v>
       </c>
@@ -8427,7 +8405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237">
       <c r="A237" t="s">
         <v>525</v>
       </c>
@@ -8453,7 +8431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238">
       <c r="A238" t="s">
         <v>456</v>
       </c>
@@ -8479,7 +8457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239">
       <c r="A239" t="s">
         <v>528</v>
       </c>
@@ -8505,7 +8483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240">
       <c r="A240" t="s">
         <v>530</v>
       </c>
@@ -8531,7 +8509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241">
       <c r="A241" t="s">
         <v>117</v>
       </c>
@@ -8557,7 +8535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242">
       <c r="A242" t="s">
         <v>117</v>
       </c>
@@ -8583,7 +8561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243">
       <c r="A243" t="s">
         <v>236</v>
       </c>
@@ -8609,7 +8587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -8635,7 +8613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245">
       <c r="A245" t="s">
         <v>538</v>
       </c>
@@ -8661,7 +8639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246">
       <c r="A246" t="s">
         <v>540</v>
       </c>
@@ -8687,7 +8665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247">
       <c r="A247" t="s">
         <v>544</v>
       </c>
@@ -8713,7 +8691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248">
       <c r="A248" t="s">
         <v>547</v>
       </c>
@@ -8739,7 +8717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249">
       <c r="A249" t="s">
         <v>236</v>
       </c>
@@ -8765,7 +8743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250">
       <c r="A250" t="s">
         <v>551</v>
       </c>
@@ -8791,7 +8769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251">
       <c r="A251" t="s">
         <v>281</v>
       </c>
@@ -8817,7 +8795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252">
       <c r="A252" t="s">
         <v>245</v>
       </c>
@@ -8843,7 +8821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253">
       <c r="A253" t="s">
         <v>325</v>
       </c>
@@ -8869,7 +8847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254">
       <c r="A254" t="s">
         <v>344</v>
       </c>
@@ -8895,7 +8873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255">
       <c r="A255" t="s">
         <v>361</v>
       </c>
@@ -8921,7 +8899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256">
       <c r="A256" t="s">
         <v>558</v>
       </c>
@@ -8947,7 +8925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257">
       <c r="A257" t="s">
         <v>560</v>
       </c>
@@ -8973,7 +8951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258">
       <c r="A258" t="s">
         <v>562</v>
       </c>
@@ -8999,7 +8977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259">
       <c r="A259" t="s">
         <v>66</v>
       </c>
@@ -9025,7 +9003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260">
       <c r="A260" t="s">
         <v>565</v>
       </c>
@@ -9051,7 +9029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261">
       <c r="A261" t="s">
         <v>567</v>
       </c>
@@ -9077,7 +9055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262">
       <c r="A262" t="s">
         <v>569</v>
       </c>
@@ -9103,7 +9081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263">
       <c r="A263" t="s">
         <v>397</v>
       </c>
@@ -9129,7 +9107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264">
       <c r="A264" t="s">
         <v>139</v>
       </c>
@@ -9155,7 +9133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265">
       <c r="A265" t="s">
         <v>573</v>
       </c>
@@ -9181,7 +9159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266">
       <c r="A266" t="s">
         <v>575</v>
       </c>
@@ -9207,7 +9185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267">
       <c r="A267" t="s">
         <v>448</v>
       </c>
@@ -9233,7 +9211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268">
       <c r="A268" t="s">
         <v>578</v>
       </c>
@@ -9259,7 +9237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269">
       <c r="A269" t="s">
         <v>580</v>
       </c>
@@ -9285,7 +9263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -9311,7 +9289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271">
       <c r="A271" t="s">
         <v>584</v>
       </c>
@@ -9337,7 +9315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272">
       <c r="A272" t="s">
         <v>587</v>
       </c>
@@ -9363,7 +9341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273">
       <c r="A273" t="s">
         <v>589</v>
       </c>
@@ -9389,7 +9367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274">
       <c r="A274" t="s">
         <v>591</v>
       </c>
@@ -9415,7 +9393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275">
       <c r="A275" t="s">
         <v>593</v>
       </c>
@@ -9441,7 +9419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276">
       <c r="A276" t="s">
         <v>595</v>
       </c>
@@ -9467,7 +9445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277">
       <c r="A277" t="s">
         <v>596</v>
       </c>
@@ -9493,7 +9471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278">
       <c r="A278" t="s">
         <v>598</v>
       </c>
@@ -9519,7 +9497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279">
       <c r="A279" t="s">
         <v>600</v>
       </c>
@@ -9545,7 +9523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280">
       <c r="A280" t="s">
         <v>393</v>
       </c>
@@ -9571,7 +9549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281">
       <c r="A281" t="s">
         <v>603</v>
       </c>
@@ -9597,7 +9575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282">
       <c r="A282" t="s">
         <v>605</v>
       </c>
@@ -9623,7 +9601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283">
       <c r="A283" t="s">
         <v>607</v>
       </c>
@@ -9649,7 +9627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284">
       <c r="A284" t="s">
         <v>261</v>
       </c>
@@ -9675,7 +9653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285">
       <c r="A285" t="s">
         <v>611</v>
       </c>
@@ -9701,7 +9679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286">
       <c r="A286" t="s">
         <v>612</v>
       </c>
@@ -9727,7 +9705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287">
       <c r="A287" t="s">
         <v>614</v>
       </c>
@@ -9753,7 +9731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288">
       <c r="A288" t="s">
         <v>617</v>
       </c>
@@ -9779,7 +9757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289">
       <c r="A289" t="s">
         <v>619</v>
       </c>
@@ -9805,7 +9783,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290">
       <c r="A290" t="s">
         <v>621</v>
       </c>
@@ -9831,7 +9809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291">
       <c r="A291" t="s">
         <v>132</v>
       </c>
@@ -9857,7 +9835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292">
       <c r="A292" t="s">
         <v>611</v>
       </c>
@@ -9883,7 +9861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293">
       <c r="A293" t="s">
         <v>226</v>
       </c>
@@ -9909,7 +9887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294">
       <c r="A294" t="s">
         <v>627</v>
       </c>
@@ -9935,7 +9913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295">
       <c r="A295" t="s">
         <v>630</v>
       </c>
@@ -9961,7 +9939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296">
       <c r="A296" t="s">
         <v>632</v>
       </c>
@@ -9987,7 +9965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297">
       <c r="A297" t="s">
         <v>135</v>
       </c>
@@ -10013,7 +9991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298">
       <c r="A298" t="s">
         <v>614</v>
       </c>
@@ -10039,7 +10017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299">
       <c r="A299" t="s">
         <v>617</v>
       </c>
@@ -10065,7 +10043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300">
       <c r="A300" t="s">
         <v>637</v>
       </c>
@@ -10091,7 +10069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301">
       <c r="A301" t="s">
         <v>639</v>
       </c>
@@ -10117,7 +10095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302">
       <c r="A302" t="s">
         <v>621</v>
       </c>
@@ -10145,6 +10123,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>